--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -151,10 +151,10 @@
     <t>Operario PR</t>
   </si>
   <si>
-    <t>Clube Do Remo</t>
+    <t>Aparecidense</t>
   </si>
   <si>
-    <t>Aparecidense</t>
+    <t>Clube Do Remo</t>
   </si>
   <si>
     <t>AD Confianca</t>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6361789</v>
+        <v>6362492</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2079,40 +2079,40 @@
         <v>49</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,16 +2121,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6362492</v>
+        <v>6361789</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2168,40 +2168,40 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>1.15</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2687,7 +2687,7 @@
         <v>45059.79166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2954,7 +2954,7 @@
         <v>45060.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3491,7 +3491,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
+        <v>1.666</v>
+      </c>
+      <c r="O35">
+        <v>3.25</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1.775</v>
+      </c>
+      <c r="V35">
+        <v>2.025</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
         <v>2.25</v>
       </c>
-      <c r="O35">
-        <v>2.75</v>
-      </c>
-      <c r="P35">
-        <v>3.2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>1.75</v>
-      </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M36">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6362381</v>
+        <v>6361481</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,13 +3844,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3859,43 +3859,43 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6361481</v>
+        <v>6362381</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,13 +3933,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3948,43 +3948,43 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4025,7 +4025,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4912,7 +4912,7 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -5001,7 +5001,7 @@
         <v>45076.83333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N53">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P53">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
         <v>1.875</v>
       </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
       <c r="W53">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
+        <v>2.375</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
         <v>2.8</v>
       </c>
-      <c r="L54">
-        <v>2.9</v>
-      </c>
-      <c r="M54">
-        <v>2.4</v>
-      </c>
       <c r="N54">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
+        <v>1.775</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>1.875</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>45085.6875</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>45085.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -7137,10 +7137,10 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s">
         <v>46</v>
-      </c>
-      <c r="G75" t="s">
-        <v>45</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6758547</v>
+        <v>6361485</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
+        <v>2.8</v>
+      </c>
+      <c r="M76">
         <v>2.9</v>
       </c>
-      <c r="M76">
-        <v>3.4</v>
-      </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q76">
         <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>1.8</v>
       </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
       <c r="T76">
         <v>2</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X76">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6361629</v>
+        <v>6758547</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,49 +7315,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7366,19 +7366,19 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6361485</v>
+        <v>6361629</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,58 +7404,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M78">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N78">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,16 +7464,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7941,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>45101.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>48</v>
@@ -9187,7 +9187,7 @@
         <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,16 +9540,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>50</v>
@@ -9564,52 +9564,52 @@
         <v>3.6</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,16 +9629,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>50</v>
@@ -9653,52 +9653,52 @@
         <v>3.6</v>
       </c>
       <c r="N103">
+        <v>2.15</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>3.25</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.2</v>
-      </c>
-      <c r="P103">
-        <v>4.333</v>
-      </c>
-      <c r="Q103">
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.85</v>
-      </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.775</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.2</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,76 +9718,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
         <v>4</v>
       </c>
       <c r="N104">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,76 +9807,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
         <v>4</v>
       </c>
       <c r="N105">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
+        <v>1.9</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="S105">
-        <v>1.975</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.875</v>
-      </c>
-      <c r="V105">
-        <v>1.925</v>
-      </c>
       <c r="W105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10166,7 +10166,7 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11231,7 +11231,7 @@
         <v>45117.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12124,7 +12124,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361465</v>
+        <v>6362496</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.925</v>
+      </c>
+      <c r="T132">
+        <v>1.75</v>
+      </c>
+      <c r="U132">
+        <v>1.775</v>
+      </c>
+      <c r="V132">
         <v>2.025</v>
       </c>
-      <c r="S132">
-        <v>1.775</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.925</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>1.025</v>
-      </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6362496</v>
+        <v>6361639</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
+        <v>2.025</v>
+      </c>
+      <c r="V133">
         <v>1.775</v>
       </c>
-      <c r="V133">
-        <v>2.025</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361639</v>
+        <v>6361465</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.775</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
         <v>1.95</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>2.025</v>
-      </c>
-      <c r="V134">
-        <v>1.775</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
-      <c r="AC134">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,55 +12566,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O136">
         <v>3.1</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
         <v>1.8</v>
       </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12623,19 +12623,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,55 +12655,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>49</v>
       </c>
       <c r="K137">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,19 +12712,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,76 +13100,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L142">
         <v>3.1</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
         <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L143">
         <v>3.1</v>
       </c>
       <c r="M143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q143">
         <v>-0.5</v>
       </c>
       <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
+        <v>1.75</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
+        <v>0.4</v>
+      </c>
+      <c r="AC143">
         <v>-0.5</v>
-      </c>
-      <c r="AC143">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
         <v>43</v>
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O148">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,76 +13723,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
+        <v>2.875</v>
+      </c>
+      <c r="P149">
         <v>3.4</v>
       </c>
-      <c r="P149">
-        <v>5.75</v>
-      </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13812,7 +13812,7 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13993,7 +13993,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14969,7 +14969,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
         <v>47</v>
@@ -15417,7 +15417,7 @@
         <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N169">
+        <v>1.533</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>5.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.85</v>
       </c>
-      <c r="O169">
-        <v>3</v>
-      </c>
-      <c r="P169">
-        <v>4.2</v>
-      </c>
-      <c r="Q169">
+      <c r="W169">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>1.75</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>2</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>-1</v>
-      </c>
-      <c r="AA169">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB169">
-        <v>0.8</v>
-      </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N170">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P170">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>1.75</v>
+      </c>
+      <c r="U170">
         <v>1.8</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16129,7 +16129,7 @@
         <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16574,7 +16574,7 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16660,7 +16660,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
         <v>38</v>
@@ -17105,7 +17105,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6361647</v>
+        <v>6361470</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,40 +17194,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N188">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>1.85</v>
@@ -17239,31 +17239,31 @@
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6361495</v>
+        <v>6361647</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L189">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N189">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6361470</v>
+        <v>6361495</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,10 +17372,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17387,43 +17387,43 @@
         <v>51</v>
       </c>
       <c r="K190">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
         <v>2.9</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N190">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O190">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P190">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T190">
         <v>2</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17432,7 +17432,7 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17441,7 +17441,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,46 +18618,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
         <v>3.1</v>
       </c>
       <c r="M204">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O204">
         <v>3</v>
       </c>
       <c r="P204">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T204">
         <v>2</v>
@@ -18669,19 +18669,19 @@
         <v>1.8</v>
       </c>
       <c r="W204">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB204">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,46 +18707,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
         <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T205">
         <v>2</v>
@@ -18758,19 +18758,19 @@
         <v>1.8</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>1</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7141425</v>
+        <v>7141426</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,13 +19330,13 @@
         <v>45206.75</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19345,43 +19345,43 @@
         <v>51</v>
       </c>
       <c r="K212">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N212">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q212">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
       <c r="W212">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19390,7 +19390,7 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -19399,7 +19399,7 @@
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7141426</v>
+        <v>7141425</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,13 +19419,13 @@
         <v>45206.75</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19434,43 +19434,43 @@
         <v>51</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
         <v>1.825</v>
       </c>
-      <c r="V213">
-        <v>1.975</v>
-      </c>
       <c r="W213">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19479,7 +19479,7 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="214" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -151,10 +151,10 @@
     <t>Operario PR</t>
   </si>
   <si>
-    <t>Aparecidense</t>
+    <t>Clube Do Remo</t>
   </si>
   <si>
-    <t>Clube Do Remo</t>
+    <t>Aparecidense</t>
   </si>
   <si>
     <t>AD Confianca</t>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6362492</v>
+        <v>6361789</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2079,40 +2079,40 @@
         <v>49</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,16 +2121,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>1.15</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6361789</v>
+        <v>6362492</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2168,40 +2168,40 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2687,7 +2687,7 @@
         <v>45059.79166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2954,7 +2954,7 @@
         <v>45060.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3491,7 +3491,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4025,7 +4025,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4912,7 +4912,7 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -5001,7 +5001,7 @@
         <v>45076.83333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53">
+        <v>2.375</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
         <v>2.8</v>
       </c>
-      <c r="L53">
-        <v>2.9</v>
-      </c>
-      <c r="M53">
-        <v>2.4</v>
-      </c>
       <c r="N53">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O53">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P53">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>1.875</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.925</v>
       </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X53">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O54">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P54">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
         <v>1.875</v>
       </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
       <c r="W54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>45085.6875</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>45085.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -7137,10 +7137,10 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s">
         <v>45</v>
-      </c>
-      <c r="G75" t="s">
-        <v>46</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>45101.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>48</v>
@@ -9187,7 +9187,7 @@
         <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,16 +9540,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>50</v>
@@ -9564,52 +9564,52 @@
         <v>3.6</v>
       </c>
       <c r="N102">
+        <v>2.15</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>3.25</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
         <v>1.8</v>
       </c>
-      <c r="O102">
-        <v>3.2</v>
-      </c>
-      <c r="P102">
-        <v>4.333</v>
-      </c>
-      <c r="Q102">
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>2</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>-0.5</v>
       </c>
-      <c r="R102">
-        <v>1.85</v>
-      </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>2.025</v>
-      </c>
-      <c r="V102">
-        <v>1.775</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2.2</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,16 +9629,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>50</v>
@@ -9653,52 +9653,52 @@
         <v>3.6</v>
       </c>
       <c r="N103">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,76 +9718,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
         <v>4</v>
       </c>
       <c r="N104">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.9</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>1.975</v>
+      </c>
+      <c r="V104">
         <v>1.825</v>
       </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.875</v>
-      </c>
-      <c r="V104">
-        <v>1.925</v>
-      </c>
       <c r="W104">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,76 +9807,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
         <v>4</v>
       </c>
       <c r="N105">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>2</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10166,7 +10166,7 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>49</v>
+      </c>
+      <c r="K119">
+        <v>2.3</v>
+      </c>
+      <c r="L119">
+        <v>2.875</v>
+      </c>
+      <c r="M119">
         <v>3</v>
       </c>
-      <c r="I119">
+      <c r="N119">
+        <v>2.3</v>
+      </c>
+      <c r="O119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>50</v>
-      </c>
-      <c r="K119">
+      <c r="P119">
+        <v>3.1</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>2.025</v>
+      </c>
+      <c r="S119">
+        <v>1.775</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>3.8</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
-      <c r="P119">
-        <v>3.8</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>1.975</v>
-      </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11231,7 +11231,7 @@
         <v>45117.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12124,7 +12124,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,55 +12566,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
         <v>3.1</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
         <v>1.8</v>
       </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
       <c r="T136">
         <v>2</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12623,19 +12623,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,55 +12655,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>49</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
         <v>1.8</v>
       </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,19 +12712,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
         <v>43</v>
@@ -13812,7 +13812,7 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,46 +13990,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M152">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N152">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2</v>
@@ -14044,16 +14044,16 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,46 +14079,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N153">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T153">
         <v>2</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -14168,7 +14168,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14969,7 +14969,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G163" t="s">
         <v>47</v>
@@ -15417,7 +15417,7 @@
         <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16129,7 +16129,7 @@
         <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6362392</v>
+        <v>6361814</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,58 +16304,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M178">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N178">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W178">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16364,16 +16364,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6361814</v>
+        <v>6362392</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,58 +16393,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L179">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N179">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
+        <v>1.85</v>
+      </c>
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
         <v>1.775</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.75</v>
-      </c>
-      <c r="V179">
-        <v>2.05</v>
-      </c>
       <c r="W179">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.95</v>
+      </c>
+      <c r="AB179">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16574,7 +16574,7 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6362018</v>
+        <v>6362459</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,58 +16660,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>51</v>
       </c>
       <c r="K182">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N182">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O182">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P182">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>1.95</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
         <v>1.925</v>
       </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
-      <c r="U182">
-        <v>1.95</v>
-      </c>
-      <c r="V182">
-        <v>1.85</v>
-      </c>
       <c r="W182">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16720,16 +16720,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>0.925</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>0.95</v>
-      </c>
-      <c r="AC182">
-        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6363212</v>
+        <v>6362222</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,61 +16749,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>50</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M183">
         <v>4</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q183">
         <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
@@ -16812,13 +16812,13 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6362459</v>
+        <v>6363212</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,31 +16838,31 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K184">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
         <v>3</v>
       </c>
       <c r="M184">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O184">
         <v>3.1</v>
@@ -16874,40 +16874,40 @@
         <v>-0.5</v>
       </c>
       <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.875</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
         <v>1.85</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>1.875</v>
-      </c>
-      <c r="V184">
-        <v>1.925</v>
-      </c>
       <c r="W184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6362222</v>
+        <v>6361965</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,76 +16927,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M185">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O185">
         <v>3.2</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>1.9</v>
+      </c>
+      <c r="S185">
+        <v>1.9</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>1.925</v>
+      </c>
+      <c r="V185">
+        <v>1.875</v>
+      </c>
+      <c r="W185">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>0.45</v>
+      </c>
+      <c r="AA185">
         <v>-0.5</v>
       </c>
-      <c r="R185">
-        <v>1.775</v>
-      </c>
-      <c r="S185">
-        <v>2.025</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.8</v>
-      </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>2.2</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>1.025</v>
-      </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6361965</v>
+        <v>6362018</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,58 +17016,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>51</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L186">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M186">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N186">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P186">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R186">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.6499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17076,16 +17076,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6361470</v>
+        <v>6361647</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,40 +17194,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L188">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N188">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
         <v>1.85</v>
@@ -17239,31 +17239,31 @@
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6361647</v>
+        <v>6361648</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="L189">
+        <v>2.75</v>
+      </c>
+      <c r="M189">
+        <v>2.25</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189">
         <v>3</v>
       </c>
-      <c r="M189">
-        <v>2.75</v>
-      </c>
-      <c r="N189">
-        <v>1.615</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
       <c r="P189">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6361495</v>
+        <v>6361470</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,10 +17372,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17387,43 +17387,43 @@
         <v>51</v>
       </c>
       <c r="K190">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L190">
         <v>2.9</v>
       </c>
       <c r="M190">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N190">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O190">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
         <v>2</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17432,7 +17432,7 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17441,7 +17441,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6361648</v>
+        <v>6361495</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K191">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M191">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O191">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P191">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,46 +18618,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L204">
         <v>3.1</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O204">
         <v>3</v>
       </c>
       <c r="P204">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>2</v>
@@ -18669,19 +18669,19 @@
         <v>1.8</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,46 +18707,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
         <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="P205">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T205">
         <v>2</v>
@@ -18758,19 +18758,19 @@
         <v>1.8</v>
       </c>
       <c r="W205">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB205">
         <v>1</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -127,10 +127,10 @@
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Sao Bernardo SP</t>
+    <t>AE Altos</t>
   </si>
   <si>
-    <t>AE Altos</t>
+    <t>Sao Bernardo SP</t>
   </si>
   <si>
     <t>Amazonas FC</t>
@@ -139,16 +139,16 @@
     <t>Floresta EC</t>
   </si>
   <si>
+    <t>Nautico</t>
+  </si>
+  <si>
     <t>Pouso Alegre</t>
   </si>
   <si>
-    <t>Nautico</t>
+    <t>Operario PR</t>
   </si>
   <si>
     <t>Ypiranga</t>
-  </si>
-  <si>
-    <t>Operario PR</t>
   </si>
   <si>
     <t>Clube Do Remo</t>
@@ -157,10 +157,10 @@
     <t>Aparecidense</t>
   </si>
   <si>
-    <t>AD Confianca</t>
+    <t>Figueirense</t>
   </si>
   <si>
-    <t>Figueirense</t>
+    <t>AD Confianca</t>
   </si>
   <si>
     <t>A</t>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6362378</v>
+        <v>6362008</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6362008</v>
+        <v>6362378</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6362554</v>
+        <v>6361618</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,55 +1711,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
+        <v>1.775</v>
+      </c>
+      <c r="S14">
         <v>2.025</v>
       </c>
-      <c r="S14">
-        <v>1.775</v>
-      </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W14">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6361618</v>
+        <v>6362554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,55 +1800,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
         <v>1.775</v>
       </c>
-      <c r="S15">
-        <v>2.025</v>
-      </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6361617</v>
+        <v>6361954</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,43 +1889,43 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1937,19 +1937,19 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6361954</v>
+        <v>6361617</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,43 +1978,43 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.25</v>
@@ -2026,19 +2026,19 @@
         <v>1.825</v>
       </c>
       <c r="W17">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6361456</v>
+        <v>6362379</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,55 +2245,55 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6362379</v>
+        <v>6361456</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,55 +2334,55 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2420,7 +2420,7 @@
         <v>45057.83333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6362555</v>
+        <v>6361457</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6361457</v>
+        <v>6362555</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2690,7 +2690,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2868,7 +2868,7 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6361791</v>
+        <v>6361938</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P29">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.75</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
         <v>1.825</v>
       </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.8</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6361938</v>
+        <v>6361791</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6364923</v>
+        <v>6361622</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,55 +3313,55 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6361622</v>
+        <v>6364923</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,55 +3402,55 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,13 +3459,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3488,7 +3488,7 @@
         <v>45066.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
+        <v>1.666</v>
+      </c>
+      <c r="O36">
+        <v>3.25</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
+        <v>1.825</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1.775</v>
+      </c>
+      <c r="V36">
+        <v>2.025</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
         <v>2.25</v>
       </c>
-      <c r="O36">
-        <v>2.75</v>
-      </c>
-      <c r="P36">
-        <v>3.2</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>2</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>1.75</v>
-      </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3758,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6361621</v>
+        <v>6361939</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,13 +4022,13 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4037,43 +4037,43 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6361939</v>
+        <v>6361621</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,13 +4111,13 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4126,43 +4126,43 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>1.75</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="S41">
-        <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4171,13 +4171,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4200,7 +4200,7 @@
         <v>45073.6875</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4378,7 +4378,7 @@
         <v>45073.79166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4470,7 +4470,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4734,10 +4734,10 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6361940</v>
+        <v>6362010</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,76 +4823,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6362010</v>
+        <v>6361940</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L50">
+        <v>3.3</v>
+      </c>
+      <c r="M50">
         <v>3.4</v>
       </c>
-      <c r="M50">
-        <v>3.75</v>
-      </c>
       <c r="N50">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>35</v>
@@ -5357,10 +5357,10 @@
         <v>45080.6875</v>
       </c>
       <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
         <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5802,7 +5802,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5891,10 +5891,10 @@
         <v>45082.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5980,7 +5980,7 @@
         <v>45083.83333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6158,10 +6158,10 @@
         <v>45084.75</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6339,7 +6339,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6517,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6781,10 +6781,10 @@
         <v>45085.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,46 +7048,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L74">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -7099,25 +7099,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,46 +7137,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M75">
+        <v>3.75</v>
+      </c>
+      <c r="N75">
+        <v>1.909</v>
+      </c>
+      <c r="O75">
         <v>3</v>
       </c>
-      <c r="N75">
-        <v>2.4</v>
-      </c>
-      <c r="O75">
-        <v>2.75</v>
-      </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -7188,25 +7188,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6361485</v>
+        <v>6361629</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,58 +7226,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>51</v>
       </c>
       <c r="K76">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L76">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
         <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,16 +7286,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6758547</v>
+        <v>6361485</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L77">
+        <v>2.8</v>
+      </c>
+      <c r="M77">
         <v>2.9</v>
       </c>
-      <c r="M77">
-        <v>3.4</v>
-      </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
         <v>1.8</v>
       </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6361629</v>
+        <v>6758547</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,49 +7404,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7455,19 +7455,19 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6362556</v>
+        <v>6362383</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y79">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6362383</v>
+        <v>6362556</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,76 +7582,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="N80">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z80">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7671,10 +7671,10 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6362012</v>
+        <v>6361460</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,55 +7760,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>49</v>
       </c>
       <c r="K82">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U82">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7817,19 +7817,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6361460</v>
+        <v>6362012</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
         <v>49</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R83">
+        <v>1.775</v>
+      </c>
+      <c r="S83">
+        <v>2.025</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>2.025</v>
+      </c>
+      <c r="V83">
+        <v>1.775</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>1.875</v>
       </c>
-      <c r="S83">
-        <v>1.925</v>
-      </c>
-      <c r="T83">
-        <v>2</v>
-      </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
-      <c r="V83">
-        <v>1.975</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>3.75</v>
-      </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>45094.6875</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
         <v>45</v>
@@ -8030,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8205,10 +8205,10 @@
         <v>45095.6875</v>
       </c>
       <c r="F87" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s">
         <v>43</v>
-      </c>
-      <c r="G87" t="s">
-        <v>44</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8472,7 +8472,7 @@
         <v>45096.89583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8653,7 +8653,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8742,7 +8742,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8917,10 +8917,10 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9098,7 +9098,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9184,7 +9184,7 @@
         <v>45103.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9451,7 +9451,7 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>39</v>
@@ -9540,10 +9540,10 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
         <v>36</v>
@@ -9899,7 +9899,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9985,10 +9985,10 @@
         <v>45109.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,13 +10252,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -10267,34 +10267,34 @@
         <v>51</v>
       </c>
       <c r="K110">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
         <v>1.9</v>
@@ -10303,7 +10303,7 @@
         <v>1.9</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10312,16 +10312,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,13 +10341,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -10356,34 +10356,34 @@
         <v>51</v>
       </c>
       <c r="K111">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U111">
         <v>1.9</v>
@@ -10392,7 +10392,7 @@
         <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10401,16 +10401,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
         <v>-0</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10608,10 +10608,10 @@
         <v>45115.79166666666</v>
       </c>
       <c r="F114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
         <v>37</v>
-      </c>
-      <c r="G114" t="s">
-        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,55 +10697,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>49</v>
       </c>
       <c r="K115">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L115">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10754,19 +10754,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,55 +10786,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N116">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10843,19 +10843,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M117">
+        <v>3.2</v>
+      </c>
+      <c r="N117">
+        <v>2.3</v>
+      </c>
+      <c r="O117">
         <v>3.1</v>
       </c>
-      <c r="N117">
-        <v>2.15</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
+        <v>2.25</v>
+      </c>
+      <c r="L118">
+        <v>2.875</v>
+      </c>
+      <c r="M118">
+        <v>3.1</v>
+      </c>
+      <c r="N118">
         <v>2.15</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>3.2</v>
-      </c>
-      <c r="N118">
-        <v>2.3</v>
-      </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W118">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB118">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11053,7 +11053,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -11142,10 +11142,10 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11234,7 +11234,7 @@
         <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N122">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,10 +11498,10 @@
         <v>45122.6875</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,76 +11676,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N127">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X127">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11854,7 +11854,7 @@
         <v>45123.6875</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -11943,10 +11943,10 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6362496</v>
+        <v>6361639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
+        <v>2.025</v>
+      </c>
+      <c r="V132">
         <v>1.775</v>
       </c>
-      <c r="V132">
-        <v>2.025</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6361639</v>
+        <v>6362496</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
         <v>3.3</v>
       </c>
-      <c r="M133">
-        <v>3.8</v>
-      </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
         <v>2.025</v>
       </c>
-      <c r="V133">
-        <v>1.775</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,10 +12388,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12477,7 +12477,7 @@
         <v>45129.79166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
@@ -12655,7 +12655,7 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,40 +12744,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N138">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
         <v>1.85</v>
@@ -12789,31 +12789,31 @@
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,40 +12833,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
+        <v>4.5</v>
+      </c>
+      <c r="N139">
+        <v>1.85</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
         <v>4.2</v>
       </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
-      <c r="P139">
-        <v>3.5</v>
-      </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12878,31 +12878,31 @@
         <v>2</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,76 +13100,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
         <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
         <v>-0.5</v>
       </c>
       <c r="R142">
+        <v>1.85</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
+        <v>1.75</v>
+      </c>
+      <c r="U142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
+        <v>0.4</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AC142">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L143">
         <v>3.1</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N143">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q143">
         <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,58 +13278,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
+        <v>3.25</v>
+      </c>
+      <c r="P144">
         <v>3.75</v>
       </c>
-      <c r="P144">
-        <v>7</v>
-      </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W144">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13338,16 +13338,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,58 +13367,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13427,16 +13427,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13723,7 +13723,7 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13904,7 +13904,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,46 +13990,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L152">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N152">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O152">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T152">
         <v>2</v>
@@ -14044,16 +14044,16 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y152">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,46 +14079,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M153">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N153">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
         <v>2</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -14257,7 +14257,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14346,7 +14346,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6361963</v>
+        <v>6362219</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O157">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
+        <v>1.775</v>
+      </c>
+      <c r="V157">
         <v>2.025</v>
       </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6362016</v>
+        <v>6361963</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,76 +14524,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" t="s">
         <v>38</v>
       </c>
-      <c r="G158" t="s">
-        <v>34</v>
-      </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N158">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P158">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
         <v>2</v>
       </c>
       <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
         <v>1.775</v>
       </c>
-      <c r="V158">
-        <v>2.025</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6362219</v>
+        <v>6362016</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14613,49 +14613,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>50</v>
       </c>
       <c r="K159">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>2.5</v>
+      </c>
+      <c r="N159">
+        <v>3.2</v>
+      </c>
+      <c r="O159">
         <v>3.1</v>
       </c>
-      <c r="M159">
-        <v>4</v>
-      </c>
-      <c r="N159">
-        <v>1.85</v>
-      </c>
-      <c r="O159">
-        <v>3</v>
-      </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U159">
         <v>1.775</v>
@@ -14667,22 +14667,22 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA159">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
         <v>3</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N162">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P162">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15061,7 +15061,7 @@
         <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15150,7 +15150,7 @@
         <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15328,7 +15328,7 @@
         <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P169">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
+        <v>1.85</v>
+      </c>
+      <c r="T169">
+        <v>1.75</v>
+      </c>
+      <c r="U169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N170">
+        <v>1.533</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
+        <v>5.5</v>
+      </c>
+      <c r="Q170">
+        <v>-1</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.8</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.85</v>
       </c>
-      <c r="O170">
-        <v>3</v>
-      </c>
-      <c r="P170">
-        <v>4.2</v>
-      </c>
-      <c r="Q170">
+      <c r="W170">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="R170">
-        <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>1.75</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>2</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>-1</v>
-      </c>
-      <c r="AA170">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB170">
-        <v>0.8</v>
-      </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15862,7 +15862,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15948,10 +15948,10 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16307,7 +16307,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16396,7 +16396,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.8</v>
+      </c>
+      <c r="N180">
+        <v>1.8</v>
+      </c>
+      <c r="O180">
         <v>3</v>
       </c>
-      <c r="M180">
-        <v>3.9</v>
-      </c>
-      <c r="N180">
-        <v>1.7</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
       <c r="P180">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M181">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N181">
+        <v>1.7</v>
+      </c>
+      <c r="O181">
+        <v>3.1</v>
+      </c>
+      <c r="P181">
+        <v>5</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
         <v>1.8</v>
       </c>
-      <c r="O181">
-        <v>3</v>
-      </c>
-      <c r="P181">
-        <v>4.333</v>
-      </c>
-      <c r="Q181">
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>1.775</v>
+      </c>
+      <c r="V181">
+        <v>2.025</v>
+      </c>
+      <c r="W181">
+        <v>0.7</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.5</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>1.875</v>
-      </c>
-      <c r="S181">
-        <v>1.925</v>
-      </c>
-      <c r="T181">
-        <v>1.75</v>
-      </c>
-      <c r="U181">
-        <v>1.75</v>
-      </c>
-      <c r="V181">
-        <v>2.05</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>2</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
-      <c r="AA181">
-        <v>0.925</v>
-      </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6362459</v>
+        <v>6361470</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,10 +16660,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16675,22 +16675,22 @@
         <v>51</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M182">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
         <v>3.1</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q182">
         <v>-0.5</v>
@@ -16705,13 +16705,13 @@
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16729,7 +16729,7 @@
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6362222</v>
+        <v>6361495</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L183">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P183">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S183">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X183">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6363212</v>
+        <v>6361647</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,61 +16838,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L184">
         <v>3</v>
       </c>
       <c r="M184">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N184">
+        <v>1.615</v>
+      </c>
+      <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
+        <v>5</v>
+      </c>
+      <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
         <v>1.85</v>
       </c>
-      <c r="O184">
-        <v>3.1</v>
-      </c>
-      <c r="P184">
-        <v>4.2</v>
-      </c>
-      <c r="Q184">
-        <v>-0.5</v>
-      </c>
-      <c r="R184">
-        <v>1.925</v>
-      </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
         <v>2</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y184">
         <v>-1</v>
@@ -16901,13 +16901,13 @@
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6361965</v>
+        <v>6361815</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,19 +16927,19 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>2.15</v>
@@ -16951,52 +16951,52 @@
         <v>3.3</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P185">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
         <v>2</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z185">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6362018</v>
+        <v>6361648</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,73 +17016,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186" t="s">
+        <v>49</v>
+      </c>
+      <c r="K186">
+        <v>3.25</v>
+      </c>
+      <c r="L186">
+        <v>2.75</v>
+      </c>
+      <c r="M186">
+        <v>2.25</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
         <v>3</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" t="s">
-        <v>51</v>
-      </c>
-      <c r="K186">
-        <v>1.333</v>
-      </c>
-      <c r="L186">
-        <v>4.5</v>
-      </c>
-      <c r="M186">
-        <v>7</v>
-      </c>
-      <c r="N186">
-        <v>1.25</v>
-      </c>
-      <c r="O186">
-        <v>5.25</v>
-      </c>
       <c r="P186">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q186">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
+        <v>1.8</v>
+      </c>
+      <c r="S186">
+        <v>2</v>
+      </c>
+      <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
+        <v>1.875</v>
+      </c>
+      <c r="V186">
         <v>1.925</v>
       </c>
-      <c r="S186">
-        <v>1.875</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.85</v>
-      </c>
       <c r="W186">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6361815</v>
+        <v>6362018</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,49 +17105,49 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M187">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N187">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O187">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P187">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
         <v>1.95</v>
@@ -17156,19 +17156,19 @@
         <v>1.85</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
         <v>0.95</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6361647</v>
+        <v>6362222</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,61 +17194,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>50</v>
       </c>
       <c r="K188">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N188">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17257,13 +17257,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6361648</v>
+        <v>6362459</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,46 +17283,46 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O189">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2</v>
@@ -17334,25 +17334,25 @@
         <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6361470</v>
+        <v>6363212</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,73 +17375,73 @@
         <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L190">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O190">
         <v>3.1</v>
       </c>
       <c r="P190">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q190">
         <v>-0.5</v>
       </c>
       <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
         <v>1.85</v>
       </c>
-      <c r="S190">
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.8</v>
-      </c>
-      <c r="V190">
-        <v>2</v>
-      </c>
       <c r="W190">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6361495</v>
+        <v>6361965</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,10 +17461,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17476,43 +17476,43 @@
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L191">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M191">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N191">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O191">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17521,16 +17521,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17639,10 +17639,10 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17998,7 +17998,7 @@
         <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>45179.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18262,7 +18262,7 @@
         <v>45185.66666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
         <v>30</v>
@@ -18532,7 +18532,7 @@
         <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,46 +18618,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
         <v>3.1</v>
       </c>
       <c r="M204">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O204">
         <v>3</v>
       </c>
       <c r="P204">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T204">
         <v>2</v>
@@ -18669,19 +18669,19 @@
         <v>1.8</v>
       </c>
       <c r="W204">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB204">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,46 +18707,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
         <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T205">
         <v>2</v>
@@ -18758,19 +18758,19 @@
         <v>1.8</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>1</v>
@@ -18796,7 +18796,7 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18974,7 +18974,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
@@ -19155,7 +19155,7 @@
         <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7141426</v>
+        <v>7141425</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,13 +19330,13 @@
         <v>45206.75</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19345,43 +19345,43 @@
         <v>51</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O212">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
       <c r="W212">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19390,7 +19390,7 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -19399,7 +19399,7 @@
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7141425</v>
+        <v>7141426</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,13 +19419,13 @@
         <v>45206.75</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19434,43 +19434,43 @@
         <v>51</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
         <v>1.975</v>
       </c>
-      <c r="V213">
-        <v>1.825</v>
-      </c>
       <c r="W213">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19479,7 +19479,7 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19597,10 +19597,10 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>1</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -145,10 +145,10 @@
     <t>Pouso Alegre</t>
   </si>
   <si>
-    <t>Operario PR</t>
+    <t>Ypiranga</t>
   </si>
   <si>
-    <t>Ypiranga</t>
+    <t>Operario PR</t>
   </si>
   <si>
     <t>Clube Do Remo</t>
@@ -157,10 +157,10 @@
     <t>Aparecidense</t>
   </si>
   <si>
-    <t>Figueirense</t>
+    <t>AD Confianca</t>
   </si>
   <si>
-    <t>AD Confianca</t>
+    <t>Figueirense</t>
   </si>
   <si>
     <t>A</t>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6361954</v>
+        <v>6361617</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,43 +1889,43 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1937,19 +1937,19 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6361617</v>
+        <v>6361954</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,43 +1978,43 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>2.25</v>
@@ -2026,19 +2026,19 @@
         <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6362379</v>
+        <v>6361456</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,55 +2245,55 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6361456</v>
+        <v>6362379</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,55 +2334,55 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2420,7 +2420,7 @@
         <v>45057.83333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6361457</v>
+        <v>6362555</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6362555</v>
+        <v>6361457</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3313,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3402,7 +3402,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3488,7 +3488,7 @@
         <v>45066.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
+        <v>1.666</v>
+      </c>
+      <c r="O35">
+        <v>3.25</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1.775</v>
+      </c>
+      <c r="V35">
+        <v>2.025</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
         <v>2.25</v>
       </c>
-      <c r="O35">
-        <v>2.75</v>
-      </c>
-      <c r="P35">
-        <v>3.2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>1.75</v>
-      </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M36">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3758,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6361481</v>
+        <v>6362381</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,13 +3844,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3859,43 +3859,43 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W38">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6362381</v>
+        <v>6361481</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,13 +3933,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3948,43 +3948,43 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4200,7 +4200,7 @@
         <v>45073.6875</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4556,7 +4556,7 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -5004,7 +5004,7 @@
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N53">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P53">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
         <v>1.875</v>
       </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
       <c r="W53">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
+        <v>2.375</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
         <v>2.8</v>
       </c>
-      <c r="L54">
-        <v>2.9</v>
-      </c>
-      <c r="M54">
-        <v>2.4</v>
-      </c>
       <c r="N54">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
+        <v>1.775</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>1.875</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,10 +5535,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5550,46 +5550,46 @@
         <v>50</v>
       </c>
       <c r="K57">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
+        <v>5.5</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>2.1</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.8</v>
       </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5639,46 +5639,46 @@
         <v>50</v>
       </c>
       <c r="K58">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5802,7 +5802,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5894,7 +5894,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6781,10 +6781,10 @@
         <v>45085.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,46 +7048,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M74">
+        <v>3.75</v>
+      </c>
+      <c r="N74">
+        <v>1.909</v>
+      </c>
+      <c r="O74">
         <v>3</v>
       </c>
-      <c r="N74">
-        <v>2.4</v>
-      </c>
-      <c r="O74">
-        <v>2.75</v>
-      </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -7099,25 +7099,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,46 +7137,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L75">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -7188,25 +7188,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7582,7 +7582,7 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
         <v>42</v>
@@ -7671,7 +7671,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6361460</v>
+        <v>6362012</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
         <v>49</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
+        <v>1.775</v>
+      </c>
+      <c r="S82">
+        <v>2.025</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>2.025</v>
+      </c>
+      <c r="V82">
+        <v>1.775</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
         <v>1.875</v>
       </c>
-      <c r="S82">
-        <v>1.925</v>
-      </c>
-      <c r="T82">
-        <v>2</v>
-      </c>
-      <c r="U82">
-        <v>1.825</v>
-      </c>
-      <c r="V82">
-        <v>1.975</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>3.75</v>
-      </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6362012</v>
+        <v>6361460</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,55 +7849,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>49</v>
       </c>
       <c r="K83">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M83">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N83">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7906,19 +7906,19 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8205,10 +8205,10 @@
         <v>45095.6875</v>
       </c>
       <c r="F87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s">
         <v>44</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8742,7 +8742,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9009,7 +9009,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9184,7 +9184,7 @@
         <v>45103.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,16 +9540,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>50</v>
@@ -9564,52 +9564,52 @@
         <v>3.6</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,16 +9629,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>50</v>
@@ -9653,52 +9653,52 @@
         <v>3.6</v>
       </c>
       <c r="N103">
+        <v>2.15</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>3.25</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.2</v>
-      </c>
-      <c r="P103">
-        <v>4.333</v>
-      </c>
-      <c r="Q103">
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.85</v>
-      </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.775</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.2</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9985,10 +9985,10 @@
         <v>45109.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6361804</v>
+        <v>6361945</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>50</v>
       </c>
       <c r="K108">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M108">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6361945</v>
+        <v>6361804</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L109">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N109">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
+        <v>0.825</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
         <v>-0</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>1.05</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,55 +10697,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10754,19 +10754,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,55 +10786,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10843,19 +10843,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
+        <v>2.25</v>
+      </c>
+      <c r="L117">
+        <v>2.875</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
         <v>2.15</v>
       </c>
-      <c r="L117">
-        <v>3</v>
-      </c>
-      <c r="M117">
-        <v>3.2</v>
-      </c>
-      <c r="N117">
-        <v>2.3</v>
-      </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U117">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB117">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M118">
+        <v>3.2</v>
+      </c>
+      <c r="N118">
+        <v>2.3</v>
+      </c>
+      <c r="O118">
         <v>3.1</v>
       </c>
-      <c r="N118">
-        <v>2.15</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V118">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>49</v>
+      </c>
+      <c r="K120">
+        <v>2.3</v>
+      </c>
+      <c r="L120">
+        <v>2.875</v>
+      </c>
+      <c r="M120">
         <v>3</v>
       </c>
-      <c r="I120">
+      <c r="N120">
+        <v>2.3</v>
+      </c>
+      <c r="O120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>50</v>
-      </c>
-      <c r="K120">
+      <c r="P120">
+        <v>3.1</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.775</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
-      <c r="P120">
-        <v>3.8</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.975</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11234,7 +11234,7 @@
         <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11501,7 +11501,7 @@
         <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11854,7 +11854,7 @@
         <v>45123.6875</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -11943,7 +11943,7 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361639</v>
+        <v>6361465</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
         <v>44</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
+        <v>2.025</v>
+      </c>
+      <c r="S132">
+        <v>1.775</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.025</v>
-      </c>
-      <c r="V132">
-        <v>1.775</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361465</v>
+        <v>6361639</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>43</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
         <v>2.025</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.775</v>
       </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,40 +12744,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
+        <v>4.5</v>
+      </c>
+      <c r="N138">
+        <v>1.85</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
         <v>4.2</v>
       </c>
-      <c r="N138">
-        <v>2.15</v>
-      </c>
-      <c r="O138">
-        <v>2.9</v>
-      </c>
-      <c r="P138">
-        <v>3.5</v>
-      </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
         <v>1.85</v>
@@ -12789,31 +12789,31 @@
         <v>2</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,40 +12833,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N139">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12878,31 +12878,31 @@
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6361948</v>
+        <v>6361638</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,61 +12922,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>50</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
         <v>3.1</v>
-      </c>
-      <c r="M140">
-        <v>2.625</v>
       </c>
       <c r="N140">
         <v>2.1</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
         <v>1.75</v>
       </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
       <c r="V140">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12985,13 +12985,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB140">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361638</v>
+        <v>6361948</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,61 +13011,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N141">
         <v>2.1</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13074,13 +13074,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB141">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
         <v>41</v>
@@ -13192,7 +13192,7 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,58 +13278,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>51</v>
       </c>
       <c r="K144">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13338,16 +13338,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,58 +13367,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
         <v>3.75</v>
       </c>
-      <c r="P145">
-        <v>7</v>
-      </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W145">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13427,16 +13427,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N148">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O148">
+        <v>2.875</v>
+      </c>
+      <c r="P148">
         <v>3.4</v>
       </c>
-      <c r="P148">
-        <v>5.75</v>
-      </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,76 +13723,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K149">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L149">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O149">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6361811</v>
+        <v>6361641</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>51</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L154">
         <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N154">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
       <c r="T154">
         <v>2</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6361641</v>
+        <v>6361811</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>51</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L155">
         <v>3.1</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N155">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O155">
         <v>3</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14346,7 +14346,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6362219</v>
+        <v>6361963</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U157">
+        <v>2.025</v>
+      </c>
+      <c r="V157">
         <v>1.775</v>
       </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6361963</v>
+        <v>6362219</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,76 +14524,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
         <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
+        <v>1.775</v>
+      </c>
+      <c r="V158">
         <v>2.025</v>
       </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6361642</v>
+        <v>6361467</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,76 +14702,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L160">
         <v>3</v>
       </c>
       <c r="M160">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N160">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6361467</v>
+        <v>6361642</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,76 +14791,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L161">
         <v>3</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P161">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
         <v>2</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14883,7 +14883,7 @@
         <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6362017</v>
+        <v>6361812</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
         <v>1.775</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB164">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6361812</v>
+        <v>6362017</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N165">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X165">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA165">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6362220</v>
+        <v>6362391</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,46 +15325,46 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O167">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
         <v>2</v>
@@ -15376,25 +15376,25 @@
         <v>1.8</v>
       </c>
       <c r="W167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6362391</v>
+        <v>6362220</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,46 +15414,46 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M168">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P168">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
         <v>2</v>
@@ -15465,25 +15465,25 @@
         <v>1.8</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X168">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15506,7 +15506,7 @@
         <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15684,7 +15684,7 @@
         <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,73 +15770,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
+        <v>1.975</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>1.875</v>
       </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
-      <c r="V172">
-        <v>2</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
       <c r="Y172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,73 +15859,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15951,7 +15951,7 @@
         <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6362393</v>
+        <v>6361950</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,10 +16126,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16141,46 +16141,46 @@
         <v>50</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L176">
         <v>3</v>
       </c>
       <c r="M176">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N176">
         <v>2</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
         <v>2</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16189,13 +16189,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6361950</v>
+        <v>6362393</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,10 +16215,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16230,46 +16230,46 @@
         <v>50</v>
       </c>
       <c r="K177">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L177">
         <v>3</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
         <v>2</v>
       </c>
       <c r="O177">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T177">
         <v>2</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V177">
+        <v>1.8</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>1.875</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>1.9</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16307,7 +16307,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M180">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N180">
+        <v>1.7</v>
+      </c>
+      <c r="O180">
+        <v>3.1</v>
+      </c>
+      <c r="P180">
+        <v>5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
         <v>1.8</v>
       </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>4.333</v>
-      </c>
-      <c r="Q180">
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.775</v>
+      </c>
+      <c r="V180">
+        <v>2.025</v>
+      </c>
+      <c r="W180">
+        <v>0.7</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.5</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="R180">
-        <v>1.875</v>
-      </c>
-      <c r="S180">
-        <v>1.925</v>
-      </c>
-      <c r="T180">
-        <v>1.75</v>
-      </c>
-      <c r="U180">
-        <v>1.75</v>
-      </c>
-      <c r="V180">
-        <v>2.05</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>2</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>0.925</v>
-      </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L181">
+        <v>3.2</v>
+      </c>
+      <c r="M181">
+        <v>3.8</v>
+      </c>
+      <c r="N181">
+        <v>1.8</v>
+      </c>
+      <c r="O181">
         <v>3</v>
       </c>
-      <c r="M181">
-        <v>3.9</v>
-      </c>
-      <c r="N181">
-        <v>1.7</v>
-      </c>
-      <c r="O181">
-        <v>3.1</v>
-      </c>
       <c r="P181">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W181">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6361470</v>
+        <v>6362459</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,10 +16660,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16675,22 +16675,22 @@
         <v>51</v>
       </c>
       <c r="K182">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O182">
         <v>3.1</v>
       </c>
       <c r="P182">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
         <v>-0.5</v>
@@ -16705,13 +16705,13 @@
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16729,7 +16729,7 @@
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6361495</v>
+        <v>6361815</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>3.3</v>
+      </c>
+      <c r="N183">
+        <v>2.2</v>
+      </c>
+      <c r="O183">
         <v>2.9</v>
       </c>
-      <c r="M183">
-        <v>2.625</v>
-      </c>
-      <c r="N183">
-        <v>2.45</v>
-      </c>
-      <c r="O183">
-        <v>2.875</v>
-      </c>
       <c r="P183">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z183">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6361647</v>
+        <v>6361470</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,40 +16838,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L184">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M184">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N184">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
         <v>1.85</v>
@@ -16883,31 +16883,31 @@
         <v>2</v>
       </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6361815</v>
+        <v>6362222</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,73 +16927,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N185">
+        <v>1.909</v>
+      </c>
+      <c r="O185">
+        <v>3.2</v>
+      </c>
+      <c r="P185">
+        <v>4</v>
+      </c>
+      <c r="Q185">
+        <v>-0.5</v>
+      </c>
+      <c r="R185">
+        <v>1.775</v>
+      </c>
+      <c r="S185">
+        <v>2.025</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
         <v>2.2</v>
       </c>
-      <c r="O185">
-        <v>2.9</v>
-      </c>
-      <c r="P185">
-        <v>3.25</v>
-      </c>
-      <c r="Q185">
-        <v>-0.25</v>
-      </c>
-      <c r="R185">
-        <v>1.975</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.95</v>
-      </c>
-      <c r="V185">
-        <v>1.85</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
       <c r="Y185">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6361648</v>
+        <v>6363212</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K186">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M186">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T186">
         <v>2</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y186">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6362018</v>
+        <v>6361965</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,58 +17105,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N187">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O187">
+        <v>3.2</v>
+      </c>
+      <c r="P187">
         <v>5.25</v>
       </c>
-      <c r="P187">
-        <v>8</v>
-      </c>
       <c r="Q187">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
         <v>1.925</v>
       </c>
-      <c r="S187">
+      <c r="V187">
         <v>1.875</v>
       </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.85</v>
-      </c>
       <c r="W187">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17165,16 +17165,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6362222</v>
+        <v>6362018</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.5</v>
+      </c>
+      <c r="M188">
+        <v>7</v>
+      </c>
+      <c r="N188">
+        <v>1.25</v>
+      </c>
+      <c r="O188">
+        <v>5.25</v>
+      </c>
+      <c r="P188">
+        <v>8</v>
+      </c>
+      <c r="Q188">
+        <v>-1.5</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.875</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
         <v>1.85</v>
       </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
-        <v>4</v>
-      </c>
-      <c r="N188">
-        <v>1.909</v>
-      </c>
-      <c r="O188">
-        <v>3.2</v>
-      </c>
-      <c r="P188">
-        <v>4</v>
-      </c>
-      <c r="Q188">
-        <v>-0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.775</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.8</v>
-      </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X188">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6362459</v>
+        <v>6361647</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,40 +17283,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L189">
         <v>3</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N189">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
         <v>1.85</v>
@@ -17328,31 +17328,31 @@
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6363212</v>
+        <v>6361648</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K190">
+        <v>3.25</v>
+      </c>
+      <c r="L190">
+        <v>2.75</v>
+      </c>
+      <c r="M190">
+        <v>2.25</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190">
+        <v>3</v>
+      </c>
+      <c r="P190">
         <v>1.909</v>
       </c>
-      <c r="L190">
-        <v>3</v>
-      </c>
-      <c r="M190">
-        <v>4</v>
-      </c>
-      <c r="N190">
-        <v>1.85</v>
-      </c>
-      <c r="O190">
-        <v>3.1</v>
-      </c>
-      <c r="P190">
-        <v>4.2</v>
-      </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
+        <v>1.875</v>
+      </c>
+      <c r="V190">
         <v>1.925</v>
       </c>
-      <c r="S190">
-        <v>1.875</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
-      <c r="V190">
-        <v>1.95</v>
-      </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
+        <v>1</v>
+      </c>
+      <c r="AB190">
         <v>0.875</v>
       </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6361965</v>
+        <v>6361495</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,10 +17461,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17476,43 +17476,43 @@
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M191">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N191">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O191">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P191">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17521,16 +17521,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17642,7 +17642,7 @@
         <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -18084,7 +18084,7 @@
         <v>45179.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18532,7 +18532,7 @@
         <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,46 +18618,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L204">
         <v>3.1</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O204">
         <v>3</v>
       </c>
       <c r="P204">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>2</v>
@@ -18669,19 +18669,19 @@
         <v>1.8</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,46 +18707,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
         <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="P205">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T205">
         <v>2</v>
@@ -18758,19 +18758,19 @@
         <v>1.8</v>
       </c>
       <c r="W205">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB205">
         <v>1</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7141410</v>
+        <v>7141422</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,13 +18796,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18811,40 +18811,40 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L206">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N206">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18853,19 +18853,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7141422</v>
+        <v>7141410</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,13 +18885,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18900,40 +18900,40 @@
         <v>49</v>
       </c>
       <c r="K207">
+        <v>2.05</v>
+      </c>
+      <c r="L207">
+        <v>3.1</v>
+      </c>
+      <c r="M207">
+        <v>3.3</v>
+      </c>
+      <c r="N207">
         <v>1.909</v>
       </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>3.6</v>
-      </c>
-      <c r="N207">
-        <v>1.85</v>
-      </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q207">
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18942,19 +18942,19 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC207">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,76 +19508,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N214">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
         <v>3.2</v>
       </c>
       <c r="P214">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N215">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
         <v>3.2</v>
       </c>
       <c r="P215">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -103,19 +103,19 @@
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Volta Redonda</t>
+    <t>Sao Jose PA</t>
   </si>
   <si>
-    <t>Sao Jose PA</t>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Manaus</t>
   </si>
   <si>
-    <t>America RN</t>
+    <t>Brusque</t>
   </si>
   <si>
-    <t>Brusque</t>
+    <t>America RN</t>
   </si>
   <si>
     <t>Paysandu</t>
@@ -127,10 +127,10 @@
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>AE Altos</t>
+    <t>Sao Bernardo SP</t>
   </si>
   <si>
-    <t>Sao Bernardo SP</t>
+    <t>AE Altos</t>
   </si>
   <si>
     <t>Amazonas FC</t>
@@ -139,10 +139,10 @@
     <t>Floresta EC</t>
   </si>
   <si>
-    <t>Nautico</t>
+    <t>Pouso Alegre</t>
   </si>
   <si>
-    <t>Pouso Alegre</t>
+    <t>Nautico</t>
   </si>
   <si>
     <t>Ypiranga</t>
@@ -151,22 +151,22 @@
     <t>Operario PR</t>
   </si>
   <si>
+    <t>Aparecidense</t>
+  </si>
+  <si>
     <t>Clube Do Remo</t>
   </si>
   <si>
-    <t>Aparecidense</t>
+    <t>Figueirense</t>
   </si>
   <si>
     <t>AD Confianca</t>
   </si>
   <si>
-    <t>Figueirense</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6361787</v>
+        <v>6361616</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2">
+        <v>1.7</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
+        <v>4.75</v>
+      </c>
+      <c r="Q2">
+        <v>-0.75</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
       </c>
-      <c r="O2">
-        <v>3.3</v>
-      </c>
-      <c r="P2">
-        <v>4.333</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
       <c r="T2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
+        <v>1.975</v>
+      </c>
+      <c r="V2">
         <v>1.825</v>
       </c>
-      <c r="V2">
-        <v>1.975</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6361616</v>
+        <v>6361787</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6361478</v>
+        <v>6363208</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N5">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6363208</v>
+        <v>6361478</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W6">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z6">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>1.666</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6362008</v>
+        <v>6362378</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6362378</v>
+        <v>6362008</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6361618</v>
+        <v>6362554</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,55 +1711,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
         <v>1.775</v>
       </c>
-      <c r="S14">
-        <v>2.025</v>
-      </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6362554</v>
+        <v>6361618</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,55 +1800,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.775</v>
+      </c>
+      <c r="S15">
         <v>2.025</v>
       </c>
-      <c r="S15">
-        <v>1.775</v>
-      </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W15">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>2.25</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6361789</v>
+        <v>6362492</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2076,43 +2076,43 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,16 +2121,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6362492</v>
+        <v>6361789</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2165,43 +2165,43 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>1.15</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6361456</v>
+        <v>6362379</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,55 +2245,55 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6362379</v>
+        <v>6361456</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,55 +2334,55 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6362555</v>
+        <v>6361457</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6361457</v>
+        <v>6362555</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,10 +2687,10 @@
         <v>45059.79166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2776,7 +2776,7 @@
         <v>45059.89583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
@@ -2788,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2868,7 +2868,7 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>45060.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -2966,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6361938</v>
+        <v>6361791</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6361791</v>
+        <v>6361938</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P30">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
+        <v>1.75</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>1.975</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3224,7 +3224,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>1.666</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6361622</v>
+        <v>6364923</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,55 +3313,55 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6364923</v>
+        <v>6361622</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,55 +3402,55 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,13 +3459,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3488,10 +3488,10 @@
         <v>45066.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
+        <v>1.666</v>
+      </c>
+      <c r="O36">
+        <v>3.25</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
+        <v>1.825</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1.775</v>
+      </c>
+      <c r="V36">
+        <v>2.025</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
         <v>2.25</v>
       </c>
-      <c r="O36">
-        <v>2.75</v>
-      </c>
-      <c r="P36">
-        <v>3.2</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>2</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>1.75</v>
-      </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6362381</v>
+        <v>6361481</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,13 +3844,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3859,43 +3859,43 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6361481</v>
+        <v>6362381</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,13 +3933,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3948,43 +3948,43 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6361939</v>
+        <v>6361621</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,13 +4022,13 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4037,43 +4037,43 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
+        <v>1.75</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.825</v>
+      </c>
+      <c r="V40">
         <v>1.975</v>
       </c>
-      <c r="S40">
-        <v>1.825</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6361621</v>
+        <v>6361939</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,13 +4111,13 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4126,43 +4126,43 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4171,13 +4171,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4289,10 +4289,10 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>1.666</v>
@@ -4378,10 +4378,10 @@
         <v>45073.79166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>1.75</v>
@@ -4470,7 +4470,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4645,7 +4645,7 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4823,10 +4823,10 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49">
         <v>1.8</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>1.95</v>
@@ -5001,10 +5001,10 @@
         <v>45076.83333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>45079.83333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>44</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53">
+        <v>2.375</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
         <v>2.8</v>
       </c>
-      <c r="L53">
-        <v>2.9</v>
-      </c>
-      <c r="M53">
-        <v>2.4</v>
-      </c>
       <c r="N53">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O53">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P53">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>1.875</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.925</v>
       </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X53">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O54">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P54">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
         <v>1.875</v>
       </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
       <c r="W54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5357,11 +5357,11 @@
         <v>45080.6875</v>
       </c>
       <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
         <v>42</v>
       </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
       <c r="H55">
         <v>0</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5446,10 +5446,10 @@
         <v>45080.79166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.533</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.533</v>
@@ -5627,7 +5627,7 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5636,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>1.85</v>
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>1.533</v>
@@ -5802,7 +5802,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5814,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60">
         <v>1.85</v>
@@ -5891,10 +5891,10 @@
         <v>45082.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5980,10 +5980,10 @@
         <v>45083.83333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.2</v>
@@ -6158,10 +6158,10 @@
         <v>45084.75</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>1.909</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.833</v>
@@ -6336,10 +6336,10 @@
         <v>45084.89583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6425,10 +6425,10 @@
         <v>45085.6875</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6517,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6603,10 +6603,10 @@
         <v>45085.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>2.375</v>
@@ -6781,7 +6781,7 @@
         <v>45085.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>43</v>
@@ -6870,7 +6870,7 @@
         <v>45087.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,46 +7048,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L74">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -7099,25 +7099,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,46 +7137,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M75">
+        <v>3.75</v>
+      </c>
+      <c r="N75">
+        <v>1.909</v>
+      </c>
+      <c r="O75">
         <v>3</v>
       </c>
-      <c r="N75">
-        <v>2.4</v>
-      </c>
-      <c r="O75">
-        <v>2.75</v>
-      </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -7188,25 +7188,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6361629</v>
+        <v>6758547</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,49 +7226,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
         <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <v>1.825</v>
@@ -7277,19 +7277,19 @@
         <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7315,10 +7315,10 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
         <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6758547</v>
+        <v>6361629</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,49 +7404,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7455,19 +7455,19 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7496,7 +7496,7 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7582,10 +7582,10 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7671,10 +7671,10 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6362012</v>
+        <v>6361460</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,55 +7760,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U82">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7817,19 +7817,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6361460</v>
+        <v>6362012</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R83">
+        <v>1.775</v>
+      </c>
+      <c r="S83">
+        <v>2.025</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>2.025</v>
+      </c>
+      <c r="V83">
+        <v>1.775</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>1.875</v>
       </c>
-      <c r="S83">
-        <v>1.925</v>
-      </c>
-      <c r="T83">
-        <v>2</v>
-      </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
-      <c r="V83">
-        <v>1.975</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>3.75</v>
-      </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,10 +7938,10 @@
         <v>45094.6875</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <v>2.2</v>
@@ -8027,10 +8027,10 @@
         <v>45094.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8119,7 +8119,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
         <v>1.909</v>
@@ -8217,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8386,7 +8386,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.2</v>
@@ -8472,10 +8472,10 @@
         <v>45096.89583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>1.571</v>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8653,7 +8653,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8662,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>2.1</v>
@@ -8739,10 +8739,10 @@
         <v>45101.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8828,7 +8828,7 @@
         <v>45101.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -8917,10 +8917,10 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>2.25</v>
@@ -9006,7 +9006,7 @@
         <v>45102.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -9095,10 +9095,10 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9187,7 +9187,7 @@
         <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9451,7 +9451,7 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
         <v>39</v>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G103" t="s">
         <v>43</v>
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.05</v>
@@ -9721,7 +9721,7 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>1.833</v>
@@ -9807,7 +9807,7 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -9899,7 +9899,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9985,7 +9985,7 @@
         <v>45109.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10077,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>2.8</v>
@@ -10163,7 +10163,7 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>1.833</v>
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,13 +10252,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -10267,34 +10267,34 @@
         <v>51</v>
       </c>
       <c r="K110">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
         <v>1.9</v>
@@ -10303,7 +10303,7 @@
         <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10312,16 +10312,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
         <v>-0</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,13 +10341,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -10356,34 +10356,34 @@
         <v>51</v>
       </c>
       <c r="K111">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L111">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
         <v>1.9</v>
@@ -10392,7 +10392,7 @@
         <v>1.9</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10401,16 +10401,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,10 +10430,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10442,44 +10442,44 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M112">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
         <v>1.925</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="T112">
-        <v>2</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10487,16 +10487,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,10 +10519,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10531,43 +10531,43 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10576,16 +10576,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10608,11 +10608,11 @@
         <v>45115.79166666666</v>
       </c>
       <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
         <v>38</v>
       </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
       <c r="H114">
         <v>1</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.55</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,55 +10697,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L115">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10754,19 +10754,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,55 +10786,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N116">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10843,19 +10843,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M117">
+        <v>3.2</v>
+      </c>
+      <c r="N117">
+        <v>2.3</v>
+      </c>
+      <c r="O117">
         <v>3.1</v>
       </c>
-      <c r="N117">
-        <v>2.15</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K118">
+        <v>2.25</v>
+      </c>
+      <c r="L118">
+        <v>2.875</v>
+      </c>
+      <c r="M118">
+        <v>3.1</v>
+      </c>
+      <c r="N118">
         <v>2.15</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>3.2</v>
-      </c>
-      <c r="N118">
-        <v>2.3</v>
-      </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W118">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB118">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11056,7 +11056,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11142,10 +11142,10 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.3</v>
@@ -11231,7 +11231,7 @@
         <v>45117.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11243,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>2.1</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N122">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W123">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,10 +11498,10 @@
         <v>45122.6875</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11676,10 +11676,10 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11768,7 +11768,7 @@
         <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11946,7 +11946,7 @@
         <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12032,7 +12032,7 @@
         <v>45124.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12124,7 +12124,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361465</v>
+        <v>6361639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
         <v>2.025</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.775</v>
       </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6362496</v>
+        <v>6361465</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
+        <v>1.85</v>
+      </c>
+      <c r="W133">
         <v>1.75</v>
       </c>
-      <c r="U133">
-        <v>1.775</v>
-      </c>
-      <c r="V133">
-        <v>2.025</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361639</v>
+        <v>6362496</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
         <v>3.3</v>
       </c>
-      <c r="M134">
-        <v>3.8</v>
-      </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
         <v>2.025</v>
       </c>
-      <c r="V134">
-        <v>1.775</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,10 +12477,10 @@
         <v>45129.79166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12569,7 +12569,7 @@
         <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>2.875</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,40 +12744,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N138">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
         <v>1.85</v>
@@ -12789,31 +12789,31 @@
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,40 +12833,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
+        <v>4.5</v>
+      </c>
+      <c r="N139">
+        <v>1.85</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
         <v>4.2</v>
       </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
-      <c r="P139">
-        <v>3.5</v>
-      </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12878,31 +12878,31 @@
         <v>2</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,11 +12922,11 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
         <v>30</v>
       </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
       <c r="H140">
         <v>2</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.2</v>
@@ -13014,7 +13014,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2.55</v>
@@ -13103,7 +13103,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>1.833</v>
@@ -13189,10 +13189,10 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13278,10 +13278,10 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13367,7 +13367,7 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
         <v>43</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
         <v>3.1</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
+        <v>1.85</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
       </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O147">
         <v>3.1</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.475</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.85</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>1.775</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.95</v>
-      </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>2.4</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6361949</v>
+        <v>6362619</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,10 +13812,10 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13824,49 +13824,49 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N150">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -13875,13 +13875,13 @@
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6362619</v>
+        <v>6361949</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,10 +13901,10 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13913,49 +13913,49 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N151">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y151">
         <v>-1</v>
@@ -13964,13 +13964,13 @@
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13993,7 +13993,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>1.666</v>
@@ -14079,7 +14079,7 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6361641</v>
+        <v>6361811</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>51</v>
       </c>
       <c r="K154">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L154">
         <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N154">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6361811</v>
+        <v>6361641</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>51</v>
       </c>
       <c r="K155">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
         <v>3.1</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O155">
         <v>3</v>
       </c>
       <c r="P155">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
         <v>1.8</v>
       </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14346,10 +14346,10 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6361963</v>
+        <v>6362219</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O157">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
+        <v>1.775</v>
+      </c>
+      <c r="V157">
         <v>2.025</v>
       </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6362219</v>
+        <v>6362016</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,49 +14524,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>2.5</v>
+      </c>
+      <c r="N158">
+        <v>3.2</v>
+      </c>
+      <c r="O158">
         <v>3.1</v>
       </c>
-      <c r="M158">
-        <v>4</v>
-      </c>
-      <c r="N158">
-        <v>1.85</v>
-      </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U158">
         <v>1.775</v>
@@ -14578,22 +14578,22 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA158">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6362016</v>
+        <v>6361963</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14613,76 +14613,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F159" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" t="s">
         <v>37</v>
       </c>
-      <c r="G159" t="s">
-        <v>34</v>
-      </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N159">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P159">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
+        <v>2.025</v>
+      </c>
+      <c r="V159">
         <v>1.775</v>
       </c>
-      <c r="V159">
-        <v>2.025</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -14794,7 +14794,7 @@
         <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
         <v>3</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O162">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P163">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6361812</v>
+        <v>6362017</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6362017</v>
+        <v>6361812</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
         <v>1.775</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>2.025</v>
       </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
       <c r="W165">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>1.95</v>
@@ -15328,7 +15328,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>2.2</v>
@@ -15417,7 +15417,7 @@
         <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15503,10 +15503,10 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15515,7 +15515,7 @@
         <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -15592,10 +15592,10 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,73 +15770,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>50</v>
       </c>
       <c r="K172">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,73 +15859,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
+        <v>1.975</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
         <v>1.875</v>
       </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
-      <c r="V173">
-        <v>2</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
       <c r="Y173">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15948,7 +15948,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
         <v>44</v>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
         <v>3.25</v>
@@ -16037,7 +16037,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6361950</v>
+        <v>6362393</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,10 +16126,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16138,49 +16138,49 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L176">
         <v>3</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N176">
         <v>2</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T176">
         <v>2</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V176">
+        <v>1.8</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>1.875</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>1.9</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16189,13 +16189,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6362393</v>
+        <v>6361950</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,10 +16215,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16227,49 +16227,49 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
         <v>3</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
         <v>2</v>
       </c>
       <c r="O177">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
         <v>2</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16304,10 +16304,10 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16396,7 +16396,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.8</v>
+      </c>
+      <c r="N180">
+        <v>1.8</v>
+      </c>
+      <c r="O180">
         <v>3</v>
       </c>
-      <c r="M180">
-        <v>3.9</v>
-      </c>
-      <c r="N180">
-        <v>1.7</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
       <c r="P180">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M181">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N181">
+        <v>1.7</v>
+      </c>
+      <c r="O181">
+        <v>3.1</v>
+      </c>
+      <c r="P181">
+        <v>5</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
         <v>1.8</v>
       </c>
-      <c r="O181">
-        <v>3</v>
-      </c>
-      <c r="P181">
-        <v>4.333</v>
-      </c>
-      <c r="Q181">
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>1.775</v>
+      </c>
+      <c r="V181">
+        <v>2.025</v>
+      </c>
+      <c r="W181">
+        <v>0.7</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.5</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>1.875</v>
-      </c>
-      <c r="S181">
-        <v>1.925</v>
-      </c>
-      <c r="T181">
-        <v>1.75</v>
-      </c>
-      <c r="U181">
-        <v>1.75</v>
-      </c>
-      <c r="V181">
-        <v>2.05</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>2</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
-      <c r="AA181">
-        <v>0.925</v>
-      </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6362459</v>
+        <v>6362018</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,58 +16660,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>51</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M182">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O182">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2.5</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
         <v>1.85</v>
       </c>
-      <c r="S182">
-        <v>1.95</v>
-      </c>
-      <c r="T182">
-        <v>2</v>
-      </c>
-      <c r="U182">
-        <v>1.875</v>
-      </c>
-      <c r="V182">
-        <v>1.925</v>
-      </c>
       <c r="W182">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16720,16 +16720,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6361815</v>
+        <v>6361470</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M183">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N183">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O183">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6361470</v>
+        <v>6362222</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,46 +16838,46 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L184">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M184">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q184">
         <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T184">
         <v>2</v>
@@ -16889,25 +16889,25 @@
         <v>2</v>
       </c>
       <c r="W184">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6362222</v>
+        <v>6361815</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,73 +16927,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
+        <v>2.15</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>3.3</v>
+      </c>
+      <c r="N185">
+        <v>2.2</v>
+      </c>
+      <c r="O185">
+        <v>2.9</v>
+      </c>
+      <c r="P185">
+        <v>3.25</v>
+      </c>
+      <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.975</v>
+      </c>
+      <c r="S185">
+        <v>1.825</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
         <v>1.85</v>
       </c>
-      <c r="L185">
-        <v>3.2</v>
-      </c>
-      <c r="M185">
-        <v>4</v>
-      </c>
-      <c r="N185">
-        <v>1.909</v>
-      </c>
-      <c r="O185">
-        <v>3.2</v>
-      </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
-      <c r="Q185">
-        <v>-0.5</v>
-      </c>
-      <c r="R185">
-        <v>1.775</v>
-      </c>
-      <c r="S185">
-        <v>2.025</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.8</v>
-      </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6363212</v>
+        <v>6361648</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>50</v>
       </c>
       <c r="K186">
+        <v>3.25</v>
+      </c>
+      <c r="L186">
+        <v>2.75</v>
+      </c>
+      <c r="M186">
+        <v>2.25</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
+        <v>3</v>
+      </c>
+      <c r="P186">
         <v>1.909</v>
       </c>
-      <c r="L186">
-        <v>3</v>
-      </c>
-      <c r="M186">
-        <v>4</v>
-      </c>
-      <c r="N186">
-        <v>1.85</v>
-      </c>
-      <c r="O186">
-        <v>3.1</v>
-      </c>
-      <c r="P186">
-        <v>4.2</v>
-      </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
+        <v>1.8</v>
+      </c>
+      <c r="S186">
+        <v>2</v>
+      </c>
+      <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
+        <v>1.875</v>
+      </c>
+      <c r="V186">
         <v>1.925</v>
       </c>
-      <c r="S186">
-        <v>1.875</v>
-      </c>
-      <c r="T186">
-        <v>2</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186">
         <v>0.875</v>
       </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17108,7 +17108,7 @@
         <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6362018</v>
+        <v>6362459</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,58 +17194,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>51</v>
       </c>
       <c r="K188">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L188">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N188">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O188">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
+        <v>1.95</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.875</v>
+      </c>
+      <c r="V188">
         <v>1.925</v>
       </c>
-      <c r="S188">
-        <v>1.875</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.95</v>
-      </c>
-      <c r="V188">
-        <v>1.85</v>
-      </c>
       <c r="W188">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17254,16 +17254,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.925</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>0.95</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17295,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>2.45</v>
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6361648</v>
+        <v>6361495</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O190">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P190">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T190">
         <v>2</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6361495</v>
+        <v>6363212</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M191">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O191">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17550,10 +17550,10 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17562,7 +17562,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K192">
         <v>2.15</v>
@@ -17639,7 +17639,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
         <v>44</v>
@@ -17731,7 +17731,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.909</v>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17995,10 +17995,10 @@
         <v>45178.79166666666</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18173,7 +18173,7 @@
         <v>45179.79166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
@@ -18262,10 +18262,10 @@
         <v>45185.66666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>1.75</v>
@@ -18354,7 +18354,7 @@
         <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18529,7 +18529,7 @@
         <v>45186.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18618,10 +18618,10 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18719,7 +18719,7 @@
         <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
         <v>2.1</v>
@@ -18796,7 +18796,7 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
         <v>39</v>
@@ -18808,7 +18808,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
         <v>1.909</v>
@@ -18888,7 +18888,7 @@
         <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18974,10 +18974,10 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19066,7 +19066,7 @@
         <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19075,7 +19075,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>2.05</v>
@@ -19152,7 +19152,7 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>2.3</v>
@@ -19253,7 +19253,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K211">
         <v>1.75</v>
@@ -19419,7 +19419,7 @@
         <v>45206.75</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
         <v>34</v>
@@ -19511,7 +19511,7 @@
         <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19597,10 +19597,10 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K215">
         <v>2.6</v>
@@ -19689,7 +19689,7 @@
         <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19775,7 +19775,7 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
         <v>39</v>
@@ -19787,7 +19787,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K217">
         <v>1.833</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -103,10 +103,10 @@
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Volta Redonda</t>
+    <t>Sao Jose PA</t>
   </si>
   <si>
-    <t>Sao Jose PA</t>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Manaus</t>
@@ -127,10 +127,10 @@
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>AE Altos</t>
+    <t>Sao Bernardo SP</t>
   </si>
   <si>
-    <t>Sao Bernardo SP</t>
+    <t>AE Altos</t>
   </si>
   <si>
     <t>Amazonas FC</t>
@@ -139,10 +139,10 @@
     <t>Floresta EC</t>
   </si>
   <si>
-    <t>Nautico</t>
+    <t>Pouso Alegre</t>
   </si>
   <si>
-    <t>Pouso Alegre</t>
+    <t>Nautico</t>
   </si>
   <si>
     <t>Ypiranga</t>
@@ -151,10 +151,10 @@
     <t>Operario PR</t>
   </si>
   <si>
-    <t>Aparecidense</t>
+    <t>Clube Do Remo</t>
   </si>
   <si>
-    <t>Clube Do Remo</t>
+    <t>Aparecidense</t>
   </si>
   <si>
     <t>AD Confianca</t>
@@ -163,10 +163,10 @@
     <t>Figueirense</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6361787</v>
+        <v>6361616</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2">
+        <v>1.7</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
+        <v>4.75</v>
+      </c>
+      <c r="Q2">
+        <v>-0.75</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
       </c>
-      <c r="O2">
-        <v>3.3</v>
-      </c>
-      <c r="P2">
-        <v>4.333</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
       <c r="T2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
+        <v>1.975</v>
+      </c>
+      <c r="V2">
         <v>1.825</v>
       </c>
-      <c r="V2">
-        <v>1.975</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6361616</v>
+        <v>6361787</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>1.666</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6362008</v>
+        <v>6362378</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6362378</v>
+        <v>6362008</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6361618</v>
+        <v>6362554</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,55 +1711,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
         <v>1.775</v>
       </c>
-      <c r="S14">
-        <v>2.025</v>
-      </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6362554</v>
+        <v>6361618</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,55 +1800,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.775</v>
+      </c>
+      <c r="S15">
         <v>2.025</v>
       </c>
-      <c r="S15">
-        <v>1.775</v>
-      </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W15">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>2.25</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6362492</v>
+        <v>6361789</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2076,43 +2076,43 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,16 +2121,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>1.15</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6361789</v>
+        <v>6362492</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2165,43 +2165,43 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2245,7 +2245,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6362555</v>
+        <v>6361457</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6361457</v>
+        <v>6362555</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,10 +2687,10 @@
         <v>45059.79166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2788,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2868,7 +2868,7 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>45060.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -2966,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>2.375</v>
@@ -3135,7 +3135,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3224,7 +3224,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>1.666</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6364923</v>
+        <v>6361622</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,55 +3313,55 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6361622</v>
+        <v>6364923</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,55 +3402,55 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,13 +3459,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3491,7 +3491,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
+        <v>1.666</v>
+      </c>
+      <c r="O36">
+        <v>3.25</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
+        <v>1.825</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1.775</v>
+      </c>
+      <c r="V36">
+        <v>2.025</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
         <v>2.25</v>
       </c>
-      <c r="O36">
-        <v>2.75</v>
-      </c>
-      <c r="P36">
-        <v>3.2</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>2</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>1.75</v>
-      </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3933,7 +3933,7 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -4022,10 +4022,10 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>40</v>
@@ -4292,7 +4292,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>1.666</v>
@@ -4378,7 +4378,7 @@
         <v>45073.79166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>1.75</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6362454</v>
+        <v>6361794</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45074.6875</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
+        <v>3.25</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>1.85</v>
+      </c>
+      <c r="O45">
+        <v>3.1</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>-0.5</v>
+      </c>
+      <c r="R45">
+        <v>1.875</v>
+      </c>
+      <c r="S45">
+        <v>1.925</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>1.9</v>
+      </c>
+      <c r="V45">
+        <v>1.9</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>3</v>
       </c>
-      <c r="M45">
-        <v>2.625</v>
-      </c>
-      <c r="N45">
-        <v>2.3</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
-      </c>
-      <c r="P45">
-        <v>2.875</v>
-      </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
-      <c r="R45">
-        <v>2.05</v>
-      </c>
-      <c r="S45">
-        <v>1.75</v>
-      </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
-      <c r="U45">
-        <v>1.975</v>
-      </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
-      <c r="W45">
-        <v>1.3</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6361794</v>
+        <v>6362454</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4645,7 +4645,7 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6361940</v>
+        <v>6362010</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,76 +4823,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6362010</v>
+        <v>6361940</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L50">
+        <v>3.3</v>
+      </c>
+      <c r="M50">
         <v>3.4</v>
       </c>
-      <c r="M50">
-        <v>3.75</v>
-      </c>
       <c r="N50">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5001,7 +5001,7 @@
         <v>45076.83333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
@@ -5179,7 +5179,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>2.8</v>
@@ -5271,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5357,11 +5357,11 @@
         <v>45080.6875</v>
       </c>
       <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
         <v>42</v>
       </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
       <c r="H55">
         <v>0</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5449,7 +5449,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.533</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,10 +5535,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5547,49 +5547,49 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
+        <v>5.5</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>2.1</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.8</v>
       </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5636,49 +5636,49 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>1.533</v>
@@ -5814,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60">
         <v>1.85</v>
@@ -5891,7 +5891,7 @@
         <v>45082.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
         <v>48</v>
@@ -5980,10 +5980,10 @@
         <v>45083.83333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.2</v>
@@ -6158,7 +6158,7 @@
         <v>45084.75</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>47</v>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>1.909</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.833</v>
@@ -6336,10 +6336,10 @@
         <v>45084.89583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6425,7 +6425,7 @@
         <v>45085.6875</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6517,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>45085.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>2.375</v>
@@ -6870,7 +6870,7 @@
         <v>45087.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -7137,11 +7137,11 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s">
         <v>45</v>
       </c>
-      <c r="G75" t="s">
-        <v>46</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>2.4</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6361629</v>
+        <v>6361485</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,58 +7226,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>51</v>
       </c>
       <c r="K76">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q76">
         <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,16 +7286,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6758547</v>
+        <v>6361629</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,49 +7315,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7366,19 +7366,19 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6361485</v>
+        <v>6758547</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L78">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6362383</v>
+        <v>6362556</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>50</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="N79">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z79">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6362556</v>
+        <v>6362383</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,76 +7582,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7674,7 +7674,7 @@
         <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -7849,7 +7849,7 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -7861,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>2.45</v>
@@ -7938,10 +7938,10 @@
         <v>45094.6875</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <v>2.2</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8119,7 +8119,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
         <v>1.909</v>
@@ -8217,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8386,7 +8386,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.2</v>
@@ -8472,10 +8472,10 @@
         <v>45096.89583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>1.571</v>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8662,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>2.1</v>
@@ -8739,7 +8739,7 @@
         <v>45101.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>48</v>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8917,10 +8917,10 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>2.25</v>
@@ -9006,7 +9006,7 @@
         <v>45102.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -9095,10 +9095,10 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9187,7 +9187,7 @@
         <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9451,7 +9451,7 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
         <v>39</v>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,19 +9540,19 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>2.05</v>
@@ -9564,52 +9564,52 @@
         <v>3.6</v>
       </c>
       <c r="N102">
+        <v>2.15</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>3.25</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
         <v>1.8</v>
       </c>
-      <c r="O102">
-        <v>3.2</v>
-      </c>
-      <c r="P102">
-        <v>4.333</v>
-      </c>
-      <c r="Q102">
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>2</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>-0.5</v>
       </c>
-      <c r="R102">
-        <v>1.85</v>
-      </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>2.025</v>
-      </c>
-      <c r="V102">
-        <v>1.775</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2.2</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,19 +9629,19 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.05</v>
@@ -9653,52 +9653,52 @@
         <v>3.6</v>
       </c>
       <c r="N103">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>1.833</v>
@@ -9807,7 +9807,7 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -9899,7 +9899,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10077,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>2.8</v>
@@ -10163,7 +10163,7 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>1.833</v>
@@ -10252,10 +10252,10 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10442,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>1.615</v>
@@ -10531,7 +10531,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>2.15</v>
@@ -10608,11 +10608,11 @@
         <v>45115.79166666666</v>
       </c>
       <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
         <v>38</v>
       </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
       <c r="H114">
         <v>1</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.55</v>
@@ -10709,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
         <v>1.533</v>
@@ -10786,7 +10786,7 @@
         <v>45116.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10798,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2.25</v>
@@ -10964,10 +10964,10 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>50</v>
       </c>
       <c r="K120">
+        <v>2.3</v>
+      </c>
+      <c r="L120">
+        <v>2.875</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>2.3</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>3.1</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.775</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
-      <c r="P120">
-        <v>3.8</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.975</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11231,7 +11231,7 @@
         <v>45117.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11243,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>2.1</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N122">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W123">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>45122.6875</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
         <v>48</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,76 +11676,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N127">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X127">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12032,7 +12032,7 @@
         <v>45124.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12124,7 +12124,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361465</v>
+        <v>6361639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
         <v>2.025</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.775</v>
       </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6361639</v>
+        <v>6361465</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R133">
+        <v>2.025</v>
+      </c>
+      <c r="S133">
+        <v>1.775</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>1.95</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>2.025</v>
-      </c>
-      <c r="V133">
-        <v>1.775</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,10 +12388,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12400,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>2.2</v>
@@ -12477,7 +12477,7 @@
         <v>45129.79166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,55 +12566,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O136">
         <v>3.1</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
         <v>1.8</v>
       </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12623,19 +12623,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,55 +12655,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,19 +12712,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,40 +12744,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
+        <v>4.5</v>
+      </c>
+      <c r="N138">
+        <v>1.85</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
         <v>4.2</v>
       </c>
-      <c r="N138">
-        <v>2.15</v>
-      </c>
-      <c r="O138">
-        <v>2.9</v>
-      </c>
-      <c r="P138">
-        <v>3.5</v>
-      </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
         <v>1.85</v>
@@ -12789,31 +12789,31 @@
         <v>2</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,40 +12833,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N139">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12878,31 +12878,31 @@
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.55</v>
@@ -13011,11 +13011,11 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
         <v>30</v>
       </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
       <c r="H141">
         <v>2</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2.2</v>
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,76 +13100,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L142">
         <v>3.1</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
         <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L143">
         <v>3.1</v>
       </c>
       <c r="M143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q143">
         <v>-0.5</v>
       </c>
       <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
+        <v>1.75</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
+        <v>0.4</v>
+      </c>
+      <c r="AC143">
         <v>-0.5</v>
-      </c>
-      <c r="AC143">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,58 +13278,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
+        <v>3.25</v>
+      </c>
+      <c r="P144">
         <v>3.75</v>
       </c>
-      <c r="P144">
-        <v>7</v>
-      </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W144">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13338,16 +13338,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,58 +13367,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13427,16 +13427,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
         <v>3.1</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
+        <v>1.85</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
       </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O147">
         <v>3.1</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.475</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.85</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>1.775</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.95</v>
-      </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O148">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,76 +13723,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K149">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
+        <v>2.875</v>
+      </c>
+      <c r="P149">
         <v>3.4</v>
       </c>
-      <c r="P149">
-        <v>5.75</v>
-      </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13812,7 +13812,7 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>2.1</v>
@@ -13904,7 +13904,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -13993,7 +13993,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>1.666</v>
@@ -14079,7 +14079,7 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14168,10 +14168,10 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6362219</v>
+        <v>6361963</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U157">
+        <v>2.025</v>
+      </c>
+      <c r="V157">
         <v>1.775</v>
       </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6361963</v>
+        <v>6362016</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,76 +14524,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L158">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O158">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.775</v>
+      </c>
+      <c r="V158">
+        <v>2.025</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>2.1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.45</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.925</v>
-      </c>
-      <c r="S158">
-        <v>1.875</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>2.025</v>
-      </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
-      <c r="W158">
-        <v>0.909</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.925</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6362016</v>
+        <v>6362219</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14613,49 +14613,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L159">
+        <v>3.1</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
+        <v>1.85</v>
+      </c>
+      <c r="O159">
         <v>3</v>
       </c>
-      <c r="M159">
-        <v>2.5</v>
-      </c>
-      <c r="N159">
-        <v>3.2</v>
-      </c>
-      <c r="O159">
-        <v>3.1</v>
-      </c>
       <c r="P159">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U159">
         <v>1.775</v>
@@ -14667,22 +14667,22 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6361642</v>
+        <v>6361467</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,76 +14702,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L160">
         <v>3</v>
       </c>
       <c r="M160">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N160">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6361467</v>
+        <v>6361642</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,76 +14791,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L161">
         <v>3</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P161">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
         <v>2</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
         <v>3</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O162">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P163">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6361812</v>
+        <v>6362017</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6362017</v>
+        <v>6361812</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
         <v>1.775</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>2.025</v>
       </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
       <c r="W165">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>1.95</v>
@@ -15328,7 +15328,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>2.2</v>
@@ -15417,7 +15417,7 @@
         <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P169">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
+        <v>1.85</v>
+      </c>
+      <c r="T169">
+        <v>1.75</v>
+      </c>
+      <c r="U169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N170">
+        <v>1.533</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
+        <v>5.5</v>
+      </c>
+      <c r="Q170">
+        <v>-1</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.8</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.85</v>
       </c>
-      <c r="O170">
-        <v>3</v>
-      </c>
-      <c r="P170">
-        <v>4.2</v>
-      </c>
-      <c r="Q170">
+      <c r="W170">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="R170">
-        <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>1.75</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>2</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>-1</v>
-      </c>
-      <c r="AA170">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB170">
-        <v>0.8</v>
-      </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,73 +15770,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>49</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
+        <v>1.975</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>1.875</v>
       </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
-      <c r="V172">
-        <v>2</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
       <c r="Y172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,73 +15859,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L174">
         <v>3</v>
       </c>
       <c r="M174">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
+        <v>1.727</v>
+      </c>
+      <c r="Q174">
+        <v>0.75</v>
+      </c>
+      <c r="R174">
         <v>1.8</v>
       </c>
-      <c r="O174">
-        <v>3</v>
-      </c>
-      <c r="P174">
-        <v>4.75</v>
-      </c>
-      <c r="Q174">
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.875</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z174">
         <v>-0.5</v>
       </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>2.05</v>
-      </c>
-      <c r="V174">
-        <v>1.75</v>
-      </c>
-      <c r="W174">
-        <v>0.8</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L175">
         <v>3</v>
       </c>
       <c r="M175">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N175">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O175">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
+        <v>2.05</v>
+      </c>
+      <c r="V175">
+        <v>1.75</v>
+      </c>
+      <c r="W175">
+        <v>0.8</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.75</v>
-      </c>
-      <c r="R175">
-        <v>1.8</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z175">
-        <v>-0.5</v>
-      </c>
-      <c r="AA175">
-        <v>0.5</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
-      <c r="AC175">
-        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>2.1</v>
@@ -16218,7 +16218,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -16304,7 +16304,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
         <v>48</v>
@@ -16396,7 +16396,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16485,7 +16485,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>1.85</v>
@@ -16571,7 +16571,7 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
         <v>43</v>
@@ -16660,10 +16660,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6362222</v>
+        <v>6361647</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,61 +16749,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K183">
+        <v>2.45</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>2.75</v>
+      </c>
+      <c r="N183">
+        <v>1.615</v>
+      </c>
+      <c r="O183">
+        <v>3.4</v>
+      </c>
+      <c r="P183">
+        <v>5</v>
+      </c>
+      <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
         <v>1.85</v>
       </c>
-      <c r="L183">
-        <v>3.2</v>
-      </c>
-      <c r="M183">
-        <v>4</v>
-      </c>
-      <c r="N183">
-        <v>1.909</v>
-      </c>
-      <c r="O183">
-        <v>3.2</v>
-      </c>
-      <c r="P183">
-        <v>4</v>
-      </c>
-      <c r="Q183">
-        <v>-0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.775</v>
-      </c>
       <c r="S183">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y183">
         <v>-1</v>
@@ -16812,13 +16812,13 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6363212</v>
+        <v>6361965</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L184">
         <v>3</v>
       </c>
       <c r="M184">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N184">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O184">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
+        <v>1.9</v>
+      </c>
+      <c r="S184">
+        <v>1.9</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>1.925</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>0.45</v>
+      </c>
+      <c r="AA184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>1.925</v>
-      </c>
-      <c r="S184">
-        <v>1.875</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>2.1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.875</v>
-      </c>
-      <c r="AB184">
-        <v>-1</v>
-      </c>
-      <c r="AC184">
-        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6361965</v>
+        <v>6363212</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,76 +16927,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
         <v>3</v>
       </c>
       <c r="M185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T185">
         <v>2</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6362459</v>
+        <v>6362222</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L186">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
+        <v>4</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
         <v>3.2</v>
       </c>
-      <c r="N186">
-        <v>1.8</v>
-      </c>
-      <c r="O186">
-        <v>3.1</v>
-      </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q186">
         <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
         <v>2</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.2</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>1.025</v>
+      </c>
+      <c r="AB186">
         <v>0.8</v>
       </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA186">
-        <v>-1</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
       <c r="AC186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6361470</v>
+        <v>6362459</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,10 +17105,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17120,22 +17120,22 @@
         <v>51</v>
       </c>
       <c r="K187">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L187">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N187">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O187">
         <v>3.1</v>
       </c>
       <c r="P187">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
         <v>-0.5</v>
@@ -17150,13 +17150,13 @@
         <v>2</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17174,7 +17174,7 @@
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6361647</v>
+        <v>6361648</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,76 +17194,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>50</v>
       </c>
       <c r="K188">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="L188">
+        <v>2.75</v>
+      </c>
+      <c r="M188">
+        <v>2.25</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188">
         <v>3</v>
       </c>
-      <c r="M188">
-        <v>2.75</v>
-      </c>
-      <c r="N188">
-        <v>1.615</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
       <c r="P188">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6361648</v>
+        <v>6361495</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M189">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O189">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6361815</v>
+        <v>6361470</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M190">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N190">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O190">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
         <v>2</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6361495</v>
+        <v>6361815</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>3.3</v>
+      </c>
+      <c r="N191">
+        <v>2.2</v>
+      </c>
+      <c r="O191">
         <v>2.9</v>
       </c>
-      <c r="M191">
-        <v>2.625</v>
-      </c>
-      <c r="N191">
-        <v>2.45</v>
-      </c>
-      <c r="O191">
-        <v>2.875</v>
-      </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z191">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17550,7 +17550,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
         <v>33</v>
@@ -17562,7 +17562,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K192">
         <v>2.15</v>
@@ -17639,7 +17639,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
         <v>44</v>
@@ -17731,7 +17731,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.909</v>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17998,7 +17998,7 @@
         <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18173,7 +18173,7 @@
         <v>45179.79166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
@@ -18262,10 +18262,10 @@
         <v>45185.66666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>1.75</v>
@@ -18354,7 +18354,7 @@
         <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,46 +18618,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L204">
         <v>3.1</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O204">
         <v>3</v>
       </c>
       <c r="P204">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>2</v>
@@ -18669,19 +18669,19 @@
         <v>1.8</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,46 +18707,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
         <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="P205">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T205">
         <v>2</v>
@@ -18758,19 +18758,19 @@
         <v>1.8</v>
       </c>
       <c r="W205">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB205">
         <v>1</v>
@@ -18808,7 +18808,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
         <v>2.05</v>
@@ -18885,7 +18885,7 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
         <v>39</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K207">
         <v>1.909</v>
@@ -18974,7 +18974,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
@@ -19066,7 +19066,7 @@
         <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19075,7 +19075,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>2.05</v>
@@ -19152,7 +19152,7 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>2.3</v>
@@ -19253,7 +19253,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K211">
         <v>1.75</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7141426</v>
+        <v>7141425</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,13 +19330,13 @@
         <v>45206.75</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19345,43 +19345,43 @@
         <v>51</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O212">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
       <c r="W212">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19390,7 +19390,7 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -19399,7 +19399,7 @@
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7141425</v>
+        <v>7141426</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,13 +19419,13 @@
         <v>45206.75</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19434,43 +19434,43 @@
         <v>51</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
         <v>1.975</v>
       </c>
-      <c r="V213">
-        <v>1.825</v>
-      </c>
       <c r="W213">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19479,7 +19479,7 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,76 +19508,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N214">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
         <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O215">
         <v>3.2</v>
       </c>
       <c r="P215">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19787,7 +19787,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K217">
         <v>1.833</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -145,22 +145,22 @@
     <t>Nautico</t>
   </si>
   <si>
+    <t>Operario PR</t>
+  </si>
+  <si>
     <t>Ypiranga</t>
   </si>
   <si>
-    <t>Operario PR</t>
+    <t>Aparecidense</t>
   </si>
   <si>
     <t>Clube Do Remo</t>
   </si>
   <si>
-    <t>Aparecidense</t>
+    <t>Figueirense</t>
   </si>
   <si>
     <t>AD Confianca</t>
-  </si>
-  <si>
-    <t>Figueirense</t>
   </si>
   <si>
     <t>D</t>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6361617</v>
+        <v>6361954</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,43 +1889,43 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1937,19 +1937,19 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6361954</v>
+        <v>6361617</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,43 +1978,43 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.25</v>
@@ -2026,19 +2026,19 @@
         <v>1.825</v>
       </c>
       <c r="W17">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6361789</v>
+        <v>6362492</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2079,40 +2079,40 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,16 +2121,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6362492</v>
+        <v>6361789</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2168,40 +2168,40 @@
         <v>50</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>1.15</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6361456</v>
+        <v>6362379</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,55 +2245,55 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6362379</v>
+        <v>6361456</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,55 +2334,55 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2420,7 +2420,7 @@
         <v>45057.83333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6361457</v>
+        <v>6362555</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6362555</v>
+        <v>6361457</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>45059.79166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2954,7 +2954,7 @@
         <v>45060.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6361938</v>
+        <v>6361791</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6361791</v>
+        <v>6361938</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P30">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
+        <v>1.75</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>1.975</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6361622</v>
+        <v>6364923</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,58 +3310,58 @@
         <v>45066.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6364923</v>
+        <v>6361622</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,58 +3399,58 @@
         <v>45066.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,13 +3459,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3488,10 +3488,10 @@
         <v>45066.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
+        <v>1.666</v>
+      </c>
+      <c r="O35">
+        <v>3.25</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1.775</v>
+      </c>
+      <c r="V35">
+        <v>2.025</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
         <v>2.25</v>
       </c>
-      <c r="O35">
-        <v>2.75</v>
-      </c>
-      <c r="P35">
-        <v>3.2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>1.75</v>
-      </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M36">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3758,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6362381</v>
+        <v>6361481</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,13 +3844,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3859,43 +3859,43 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6361481</v>
+        <v>6362381</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,13 +3933,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3948,43 +3948,43 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4025,7 +4025,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4200,7 +4200,7 @@
         <v>45073.6875</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6361794</v>
+        <v>6362454</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45074.6875</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6362454</v>
+        <v>6361794</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
+        <v>3.25</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>1.85</v>
+      </c>
+      <c r="O46">
+        <v>3.1</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>-0.5</v>
+      </c>
+      <c r="R46">
+        <v>1.875</v>
+      </c>
+      <c r="S46">
+        <v>1.925</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>1.9</v>
+      </c>
+      <c r="V46">
+        <v>1.9</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
         <v>3</v>
       </c>
-      <c r="M46">
-        <v>2.625</v>
-      </c>
-      <c r="N46">
-        <v>2.3</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>2.875</v>
-      </c>
-      <c r="Q46">
-        <v>-0.25</v>
-      </c>
-      <c r="R46">
-        <v>2.05</v>
-      </c>
-      <c r="S46">
-        <v>1.75</v>
-      </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.975</v>
-      </c>
-      <c r="V46">
-        <v>1.825</v>
-      </c>
-      <c r="W46">
-        <v>1.3</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
       <c r="Z46">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6361793</v>
+        <v>6361956</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,13 +4645,13 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4660,43 +4660,43 @@
         <v>51</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L47">
         <v>3.3</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W47">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4705,16 +4705,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6361956</v>
+        <v>6361793</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,13 +4734,13 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4749,43 +4749,43 @@
         <v>51</v>
       </c>
       <c r="K48">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q48">
         <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4794,16 +4794,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6362010</v>
+        <v>6361940</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,76 +4823,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L49">
+        <v>3.3</v>
+      </c>
+      <c r="M49">
         <v>3.4</v>
       </c>
-      <c r="M49">
-        <v>3.75</v>
-      </c>
       <c r="N49">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y49">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6361940</v>
+        <v>6362010</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5001,10 +5001,10 @@
         <v>45076.83333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K53">
+        <v>2.375</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
         <v>2.8</v>
       </c>
-      <c r="L53">
-        <v>2.9</v>
-      </c>
-      <c r="M53">
-        <v>2.4</v>
-      </c>
       <c r="N53">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O53">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P53">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>1.875</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.925</v>
       </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X53">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O54">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P54">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
         <v>1.875</v>
       </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
       <c r="W54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5713,10 +5713,10 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5894,7 +5894,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6425,7 +6425,7 @@
         <v>45085.6875</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>45085.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6781,10 +6781,10 @@
         <v>45085.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,46 +7048,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L74">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -7099,25 +7099,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,46 +7137,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M75">
+        <v>3.75</v>
+      </c>
+      <c r="N75">
+        <v>1.909</v>
+      </c>
+      <c r="O75">
         <v>3</v>
       </c>
-      <c r="N75">
-        <v>2.4</v>
-      </c>
-      <c r="O75">
-        <v>2.75</v>
-      </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -7188,25 +7188,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6361485</v>
+        <v>6758547</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M76">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
         <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2</v>
       </c>
       <c r="U76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6361629</v>
+        <v>6361485</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,58 +7315,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>51</v>
       </c>
       <c r="K77">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7375,16 +7375,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6758547</v>
+        <v>6361629</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,49 +7404,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7455,19 +7455,19 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6362556</v>
+        <v>6362383</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y79">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6362383</v>
+        <v>6362556</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,76 +7582,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="N80">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z80">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7671,7 +7671,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -7763,7 +7763,7 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8205,10 +8205,10 @@
         <v>45095.6875</v>
       </c>
       <c r="F87" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s">
         <v>43</v>
-      </c>
-      <c r="G87" t="s">
-        <v>44</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>45101.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9009,7 +9009,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9184,10 +9184,10 @@
         <v>45103.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9540,10 +9540,10 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -9985,10 +9985,10 @@
         <v>45109.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,10 +10430,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10445,41 +10445,41 @@
         <v>50</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M112">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
         <v>1.925</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="T112">
-        <v>2</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10487,16 +10487,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,10 +10519,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10534,40 +10534,40 @@
         <v>50</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10576,16 +10576,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,55 +10697,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
       </c>
       <c r="K115">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10754,19 +10754,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,55 +10786,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>50</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10843,19 +10843,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
@@ -10964,7 +10964,7 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11053,7 +11053,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
         <v>42</v>
@@ -11142,7 +11142,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -11231,10 +11231,10 @@
         <v>45117.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N122">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11854,7 +11854,7 @@
         <v>45123.6875</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -11943,7 +11943,7 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12124,7 +12124,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361639</v>
+        <v>6361465</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
+        <v>2.025</v>
+      </c>
+      <c r="S132">
+        <v>1.775</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.025</v>
-      </c>
-      <c r="V132">
-        <v>1.775</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6361465</v>
+        <v>6361639</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N133">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
         <v>2.025</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.775</v>
       </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
-      <c r="U133">
-        <v>1.95</v>
-      </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12391,7 +12391,7 @@
         <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12925,7 +12925,7 @@
         <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13103,7 +13103,7 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13189,7 +13189,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>42</v>
@@ -13278,10 +13278,10 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K146">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N146">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O146">
         <v>3.1</v>
       </c>
       <c r="P146">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
+        <v>1.95</v>
+      </c>
+      <c r="W146">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.475</v>
+      </c>
+      <c r="AA146">
         <v>-0.5</v>
       </c>
-      <c r="R146">
-        <v>1.85</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
-      </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.775</v>
-      </c>
-      <c r="V146">
-        <v>2.025</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>2.1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
-      <c r="AA146">
-        <v>0.95</v>
-      </c>
       <c r="AB146">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
         <v>3.1</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
+        <v>1.85</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
       </c>
-      <c r="S147">
-        <v>1.85</v>
-      </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13723,7 +13723,7 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13812,7 +13812,7 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,46 +13990,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M152">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N152">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2</v>
@@ -14044,16 +14044,16 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,46 +14079,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N153">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T153">
         <v>2</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -14168,7 +14168,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
         <v>30</v>
@@ -14257,7 +14257,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14346,7 +14346,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6361963</v>
+        <v>6362016</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O157">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.775</v>
+      </c>
+      <c r="V157">
+        <v>2.025</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>2.1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.45</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.925</v>
-      </c>
-      <c r="S157">
-        <v>1.875</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>2.025</v>
-      </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
-      <c r="W157">
-        <v>0.909</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.925</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6362016</v>
+        <v>6361963</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,76 +14524,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N158">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P158">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
         <v>2</v>
       </c>
       <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
         <v>1.775</v>
       </c>
-      <c r="V158">
-        <v>2.025</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
         <v>3</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N162">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P162">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6361813</v>
+        <v>6362391</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,10 +15236,10 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15251,46 +15251,46 @@
         <v>49</v>
       </c>
       <c r="K166">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
+        <v>3.25</v>
+      </c>
+      <c r="M166">
+        <v>2.8</v>
+      </c>
+      <c r="N166">
+        <v>2.25</v>
+      </c>
+      <c r="O166">
         <v>3.2</v>
       </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>2.1</v>
-      </c>
-      <c r="O166">
-        <v>3.1</v>
-      </c>
       <c r="P166">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q166">
         <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y166">
         <v>-1</v>
@@ -15299,13 +15299,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AB166">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6362391</v>
+        <v>6361813</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,10 +15325,10 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15340,46 +15340,46 @@
         <v>49</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
+        <v>3.1</v>
+      </c>
+      <c r="P167">
         <v>3.2</v>
-      </c>
-      <c r="P167">
-        <v>2.75</v>
       </c>
       <c r="Q167">
         <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15388,13 +15388,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N169">
+        <v>1.533</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>5.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.85</v>
       </c>
-      <c r="O169">
-        <v>3</v>
-      </c>
-      <c r="P169">
-        <v>4.2</v>
-      </c>
-      <c r="Q169">
+      <c r="W169">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>1.75</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>2</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>-1</v>
-      </c>
-      <c r="AA169">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB169">
-        <v>0.8</v>
-      </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N170">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P170">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>1.75</v>
+      </c>
+      <c r="U170">
         <v>1.8</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,73 +15770,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,73 +15859,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
+        <v>1.975</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
         <v>1.875</v>
       </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
-      <c r="V173">
-        <v>2</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
       <c r="Y173">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
         <v>3</v>
       </c>
       <c r="M174">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N174">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P174">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q174">
+        <v>-0.5</v>
+      </c>
+      <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
+        <v>1.95</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
+        <v>1.75</v>
+      </c>
+      <c r="W174">
+        <v>0.8</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.75</v>
-      </c>
-      <c r="R174">
-        <v>1.8</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>1.875</v>
-      </c>
-      <c r="V174">
-        <v>1.925</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z174">
-        <v>-0.5</v>
-      </c>
-      <c r="AA174">
-        <v>0.5</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
-      <c r="AC174">
-        <v>0.925</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L175">
         <v>3</v>
       </c>
       <c r="M175">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N175">
+        <v>5</v>
+      </c>
+      <c r="O175">
+        <v>3.1</v>
+      </c>
+      <c r="P175">
+        <v>1.727</v>
+      </c>
+      <c r="Q175">
+        <v>0.75</v>
+      </c>
+      <c r="R175">
         <v>1.8</v>
       </c>
-      <c r="O175">
-        <v>3</v>
-      </c>
-      <c r="P175">
-        <v>4.75</v>
-      </c>
-      <c r="Q175">
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>1.875</v>
+      </c>
+      <c r="V175">
+        <v>1.925</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z175">
         <v>-0.5</v>
       </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>1.95</v>
-      </c>
-      <c r="T175">
-        <v>2.25</v>
-      </c>
-      <c r="U175">
-        <v>2.05</v>
-      </c>
-      <c r="V175">
-        <v>1.75</v>
-      </c>
-      <c r="W175">
-        <v>0.8</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
-      <c r="Z175">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6361950</v>
+        <v>6362393</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,10 +16126,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16141,46 +16141,46 @@
         <v>49</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L176">
         <v>3</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N176">
         <v>2</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T176">
         <v>2</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V176">
+        <v>1.8</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>1.875</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>1.9</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16189,13 +16189,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6362393</v>
+        <v>6361950</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,10 +16215,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16230,46 +16230,46 @@
         <v>49</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
         <v>3</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
         <v>2</v>
       </c>
       <c r="O177">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
         <v>2</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6361814</v>
+        <v>6362392</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,58 +16304,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L178">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M178">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N178">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
         <v>1.775</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>2.025</v>
       </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.75</v>
-      </c>
-      <c r="V178">
-        <v>2.05</v>
-      </c>
       <c r="W178">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16364,16 +16364,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.95</v>
+      </c>
+      <c r="AB178">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>0</v>
-      </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6362392</v>
+        <v>6361814</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,58 +16393,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M179">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N179">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W179">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16574,7 +16574,7 @@
         <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6362018</v>
+        <v>6362459</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,58 +16660,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>51</v>
       </c>
       <c r="K182">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N182">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O182">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P182">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>1.95</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
         <v>1.925</v>
       </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
-      <c r="U182">
-        <v>1.95</v>
-      </c>
-      <c r="V182">
-        <v>1.85</v>
-      </c>
       <c r="W182">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16720,16 +16720,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>0.925</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>0.95</v>
-      </c>
-      <c r="AC182">
-        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16749,7 +16749,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
         <v>36</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6361965</v>
+        <v>6361648</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K184">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L184">
+        <v>2.75</v>
+      </c>
+      <c r="M184">
+        <v>2.25</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184">
         <v>3</v>
       </c>
-      <c r="M184">
-        <v>3.3</v>
-      </c>
-      <c r="N184">
-        <v>1.65</v>
-      </c>
-      <c r="O184">
-        <v>3.2</v>
-      </c>
       <c r="P184">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T184">
         <v>2</v>
       </c>
       <c r="U184">
+        <v>1.875</v>
+      </c>
+      <c r="V184">
         <v>1.925</v>
       </c>
-      <c r="V184">
-        <v>1.875</v>
-      </c>
       <c r="W184">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z184">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6363212</v>
+        <v>6361815</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,76 +16927,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L185">
         <v>3</v>
       </c>
       <c r="M185">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N185">
+        <v>2.2</v>
+      </c>
+      <c r="O185">
+        <v>2.9</v>
+      </c>
+      <c r="P185">
+        <v>3.25</v>
+      </c>
+      <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.975</v>
+      </c>
+      <c r="S185">
+        <v>1.825</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
         <v>1.85</v>
       </c>
-      <c r="O185">
-        <v>3.1</v>
-      </c>
-      <c r="P185">
-        <v>4.2</v>
-      </c>
-      <c r="Q185">
-        <v>-0.5</v>
-      </c>
-      <c r="R185">
-        <v>1.925</v>
-      </c>
-      <c r="S185">
-        <v>1.875</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
-      <c r="V185">
-        <v>1.95</v>
-      </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6362222</v>
+        <v>6361965</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N186">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O186">
         <v>3.2</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
+        <v>1.925</v>
+      </c>
+      <c r="V186">
+        <v>1.875</v>
+      </c>
+      <c r="W186">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.45</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.775</v>
-      </c>
-      <c r="S186">
-        <v>2.025</v>
-      </c>
-      <c r="T186">
-        <v>2</v>
-      </c>
-      <c r="U186">
-        <v>1.8</v>
-      </c>
-      <c r="V186">
-        <v>2</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.2</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
-        <v>1.025</v>
-      </c>
       <c r="AB186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6362459</v>
+        <v>6362018</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,58 +17105,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M187">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R187">
+        <v>1.925</v>
+      </c>
+      <c r="S187">
+        <v>1.875</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
         <v>1.85</v>
       </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.875</v>
-      </c>
-      <c r="V187">
-        <v>1.925</v>
-      </c>
       <c r="W187">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17165,16 +17165,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6361648</v>
+        <v>6362222</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N188">
+        <v>1.909</v>
+      </c>
+      <c r="O188">
+        <v>3.2</v>
+      </c>
+      <c r="P188">
         <v>4</v>
       </c>
-      <c r="O188">
-        <v>3</v>
-      </c>
-      <c r="P188">
-        <v>1.909</v>
-      </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.025</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
         <v>1.8</v>
       </c>
-      <c r="S188">
-        <v>2</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y188">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB188">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
         <v>34</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6361815</v>
+        <v>6363212</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K191">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
         <v>3</v>
       </c>
       <c r="M191">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O191">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
         <v>1.95</v>
       </c>
-      <c r="V191">
-        <v>1.85</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y191">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.95</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17642,7 +17642,7 @@
         <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -18084,7 +18084,7 @@
         <v>45179.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18532,7 +18532,7 @@
         <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,46 +18618,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K204">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
         <v>3.1</v>
       </c>
       <c r="M204">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O204">
         <v>3</v>
       </c>
       <c r="P204">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T204">
         <v>2</v>
@@ -18669,19 +18669,19 @@
         <v>1.8</v>
       </c>
       <c r="W204">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB204">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,46 +18707,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
         <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T205">
         <v>2</v>
@@ -18758,19 +18758,19 @@
         <v>1.8</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>1</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7141410</v>
+        <v>7141422</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,13 +18796,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18811,40 +18811,40 @@
         <v>50</v>
       </c>
       <c r="K206">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L206">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N206">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18853,19 +18853,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7141422</v>
+        <v>7141410</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,13 +18885,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18900,40 +18900,40 @@
         <v>50</v>
       </c>
       <c r="K207">
+        <v>2.05</v>
+      </c>
+      <c r="L207">
+        <v>3.1</v>
+      </c>
+      <c r="M207">
+        <v>3.3</v>
+      </c>
+      <c r="N207">
         <v>1.909</v>
       </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>3.6</v>
-      </c>
-      <c r="N207">
-        <v>1.85</v>
-      </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q207">
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18942,19 +18942,19 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC207">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7141425</v>
+        <v>7141426</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,13 +19330,13 @@
         <v>45206.75</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19345,43 +19345,43 @@
         <v>51</v>
       </c>
       <c r="K212">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N212">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q212">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
       <c r="W212">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19390,7 +19390,7 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -19399,7 +19399,7 @@
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7141426</v>
+        <v>7141425</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,13 +19419,13 @@
         <v>45206.75</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19434,43 +19434,43 @@
         <v>51</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
         <v>1.825</v>
       </c>
-      <c r="V213">
-        <v>1.975</v>
-      </c>
       <c r="W213">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19479,7 +19479,7 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -103,10 +103,10 @@
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Sao Jose PA</t>
+    <t>Volta Redonda</t>
   </si>
   <si>
-    <t>Volta Redonda</t>
+    <t>Sao Jose PA</t>
   </si>
   <si>
     <t>Manaus</t>
@@ -127,10 +127,10 @@
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Sao Bernardo SP</t>
+    <t>AE Altos</t>
   </si>
   <si>
-    <t>AE Altos</t>
+    <t>Sao Bernardo SP</t>
   </si>
   <si>
     <t>Amazonas FC</t>
@@ -157,16 +157,16 @@
     <t>Clube Do Remo</t>
   </si>
   <si>
+    <t>AD Confianca</t>
+  </si>
+  <si>
     <t>Figueirense</t>
   </si>
   <si>
-    <t>AD Confianca</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6361616</v>
+        <v>6361787</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
+        <v>1.825</v>
+      </c>
+      <c r="V2">
         <v>1.975</v>
       </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6361787</v>
+        <v>6361616</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3">
+        <v>1.7</v>
+      </c>
+      <c r="O3">
+        <v>3.1</v>
+      </c>
+      <c r="P3">
+        <v>4.75</v>
+      </c>
+      <c r="Q3">
+        <v>-0.75</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1.8</v>
       </c>
-      <c r="O3">
-        <v>3.3</v>
-      </c>
-      <c r="P3">
-        <v>4.333</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.666</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6362378</v>
+        <v>6362008</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6362008</v>
+        <v>6362378</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>2.3</v>
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6362379</v>
+        <v>6361456</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,55 +2245,55 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6361456</v>
+        <v>6362379</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,55 +2334,55 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.55</v>
@@ -2598,10 +2598,10 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
         <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2868,7 +2868,7 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3046,7 +3046,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>2.375</v>
@@ -3224,7 +3224,7 @@
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>1.666</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6364923</v>
+        <v>6361622</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,55 +3313,55 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6361622</v>
+        <v>6364923</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,55 +3402,55 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,13 +3459,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3488,7 +3488,7 @@
         <v>45066.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6361481</v>
+        <v>6362381</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,13 +3844,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3859,43 +3859,43 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W38">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6362381</v>
+        <v>6361481</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,13 +3933,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3948,43 +3948,43 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6361621</v>
+        <v>6361939</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,13 +4022,13 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4037,43 +4037,43 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6361939</v>
+        <v>6361621</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,13 +4111,13 @@
         <v>45068.83333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4126,43 +4126,43 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>1.75</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="S41">
-        <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4171,13 +4171,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4292,7 +4292,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>1.666</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>1.75</v>
@@ -4470,7 +4470,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6361956</v>
+        <v>6361793</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,13 +4645,13 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4660,43 +4660,43 @@
         <v>51</v>
       </c>
       <c r="K47">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
         <v>3.3</v>
       </c>
       <c r="M47">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
         <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4705,16 +4705,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6361793</v>
+        <v>6361956</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,13 +4734,13 @@
         <v>45074.79166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4749,43 +4749,43 @@
         <v>51</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q48">
         <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W48">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4794,16 +4794,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6361940</v>
+        <v>6362010</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,76 +4823,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>49</v>
       </c>
       <c r="K49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6362010</v>
+        <v>6361940</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L50">
+        <v>3.3</v>
+      </c>
+      <c r="M50">
         <v>3.4</v>
       </c>
-      <c r="M50">
-        <v>3.75</v>
-      </c>
       <c r="N50">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>35</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
         <v>2.8</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>1.533</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,10 +5535,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5547,49 +5547,49 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5636,49 +5636,49 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
+        <v>1.5</v>
+      </c>
+      <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
+        <v>5.5</v>
+      </c>
+      <c r="Q58">
+        <v>-0.75</v>
+      </c>
+      <c r="R58">
+        <v>1.7</v>
+      </c>
+      <c r="S58">
+        <v>2.1</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>1.8</v>
       </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
-      <c r="P58">
-        <v>4.5</v>
-      </c>
-      <c r="Q58">
-        <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>1.533</v>
@@ -5802,7 +5802,7 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5814,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>1.85</v>
@@ -5891,10 +5891,10 @@
         <v>45082.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5983,7 +5983,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2.2</v>
@@ -6161,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>1.909</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>1.833</v>
@@ -6336,10 +6336,10 @@
         <v>45084.89583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6517,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>2.375</v>
@@ -6781,7 +6781,7 @@
         <v>45085.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
         <v>44</v>
@@ -6870,7 +6870,7 @@
         <v>45087.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.4</v>
@@ -7229,7 +7229,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6361485</v>
+        <v>6361629</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,58 +7315,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>51</v>
       </c>
       <c r="K77">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N77">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7375,16 +7375,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6361629</v>
+        <v>6361485</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,58 +7404,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M78">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,16 +7464,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6362383</v>
+        <v>6362556</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="N79">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z79">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6362556</v>
+        <v>6362383</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,76 +7582,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>50</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7671,7 +7671,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7763,7 +7763,7 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -7849,7 +7849,7 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -7861,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>2.45</v>
@@ -7950,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2.2</v>
@@ -8030,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8119,7 +8119,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>1.909</v>
@@ -8217,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.2</v>
@@ -8472,10 +8472,10 @@
         <v>45096.89583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>1.571</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8653,7 +8653,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8662,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>2.1</v>
@@ -8742,7 +8742,7 @@
         <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8917,7 +8917,7 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>41</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>2.25</v>
@@ -9006,7 +9006,7 @@
         <v>45102.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9095,10 +9095,10 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
         <v>44</v>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
         <v>36</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>2.05</v>
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>1.833</v>
@@ -9985,7 +9985,7 @@
         <v>45109.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
         <v>43</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6361945</v>
+        <v>6361804</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L108">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N108">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
+        <v>0.825</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
         <v>-0</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>1.05</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6361804</v>
+        <v>6361945</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M109">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P109">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,13 +10252,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -10267,34 +10267,34 @@
         <v>51</v>
       </c>
       <c r="K110">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
         <v>1.9</v>
@@ -10303,7 +10303,7 @@
         <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10312,16 +10312,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
         <v>-0</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,13 +10341,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -10356,34 +10356,34 @@
         <v>51</v>
       </c>
       <c r="K111">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L111">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
         <v>1.9</v>
@@ -10392,7 +10392,7 @@
         <v>1.9</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10401,16 +10401,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,10 +10430,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10442,43 +10442,43 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N112">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10487,16 +10487,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,10 +10519,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10531,44 +10531,44 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.8</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
         <v>1.925</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.875</v>
       </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
@@ -10576,16 +10576,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10608,11 +10608,11 @@
         <v>45115.79166666666</v>
       </c>
       <c r="F114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
         <v>37</v>
       </c>
-      <c r="G114" t="s">
-        <v>38</v>
-      </c>
       <c r="H114">
         <v>1</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
         <v>1.55</v>
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -10798,7 +10798,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M117">
+        <v>3.2</v>
+      </c>
+      <c r="N117">
+        <v>2.3</v>
+      </c>
+      <c r="O117">
         <v>3.1</v>
       </c>
-      <c r="N117">
-        <v>2.15</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
+        <v>2.25</v>
+      </c>
+      <c r="L118">
+        <v>2.875</v>
+      </c>
+      <c r="M118">
+        <v>3.1</v>
+      </c>
+      <c r="N118">
         <v>2.15</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>3.2</v>
-      </c>
-      <c r="N118">
-        <v>2.3</v>
-      </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W118">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB118">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
+        <v>2.3</v>
+      </c>
+      <c r="L119">
+        <v>2.875</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>2.3</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
+        <v>3.1</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>2.025</v>
+      </c>
+      <c r="S119">
+        <v>1.775</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>3.8</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
-      <c r="P119">
-        <v>3.8</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>1.975</v>
-      </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>50</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>2.1</v>
@@ -11323,7 +11323,7 @@
         <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11501,7 +11501,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,76 +11676,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K126">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N127">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P127">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>45124.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12210,7 +12210,7 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>1.909</v>
@@ -12400,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>2.2</v>
@@ -12477,7 +12477,7 @@
         <v>45129.79166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12566,7 +12566,7 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
         <v>36</v>
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
         <v>2.875</v>
@@ -12667,7 +12667,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>3</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,40 +12744,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N138">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
         <v>1.85</v>
@@ -12789,31 +12789,31 @@
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,40 +12833,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
+        <v>4.5</v>
+      </c>
+      <c r="N139">
+        <v>1.85</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
         <v>4.2</v>
       </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
-      <c r="P139">
-        <v>3.5</v>
-      </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12878,31 +12878,31 @@
         <v>2</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6361948</v>
+        <v>6361638</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,61 +12922,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
         <v>3.1</v>
-      </c>
-      <c r="M140">
-        <v>2.625</v>
       </c>
       <c r="N140">
         <v>2.1</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
         <v>1.75</v>
       </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
       <c r="V140">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12985,13 +12985,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB140">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361638</v>
+        <v>6361948</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,61 +13011,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N141">
         <v>2.1</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13074,13 +13074,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB141">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,10 +13100,10 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,58 +13278,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>51</v>
       </c>
       <c r="K144">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13338,16 +13338,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,58 +13367,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
         <v>3.75</v>
       </c>
-      <c r="P145">
-        <v>7</v>
-      </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W145">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13427,16 +13427,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>1.95</v>
@@ -13723,7 +13723,7 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>2.4</v>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>2.1</v>
@@ -13904,7 +13904,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>1.666</v>
@@ -14171,7 +14171,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14346,7 +14346,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6362016</v>
+        <v>6361963</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" t="s">
         <v>38</v>
       </c>
-      <c r="G157" t="s">
-        <v>34</v>
-      </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M157">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P157">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
+        <v>2.025</v>
+      </c>
+      <c r="V157">
         <v>1.775</v>
       </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6361963</v>
+        <v>6362016</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,76 +14524,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L158">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O158">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.775</v>
+      </c>
+      <c r="V158">
+        <v>2.025</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>2.1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.45</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.925</v>
-      </c>
-      <c r="S158">
-        <v>1.875</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>2.025</v>
-      </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
-      <c r="W158">
-        <v>0.909</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.925</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K159">
         <v>1.833</v>
@@ -14702,7 +14702,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -14794,7 +14794,7 @@
         <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14883,7 +14883,7 @@
         <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14969,7 +14969,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -15061,7 +15061,7 @@
         <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15147,7 +15147,7 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>2.05</v>
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K166">
         <v>2.2</v>
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6361813</v>
+        <v>6362220</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P167">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6362220</v>
+        <v>6361813</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K168">
+        <v>1.95</v>
+      </c>
+      <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
+        <v>3.5</v>
+      </c>
+      <c r="N168">
         <v>2.1</v>
       </c>
-      <c r="L168">
-        <v>2.875</v>
-      </c>
-      <c r="M168">
-        <v>3.4</v>
-      </c>
-      <c r="N168">
-        <v>1.85</v>
-      </c>
       <c r="O168">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
+        <v>-0.25</v>
+      </c>
+      <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>1.975</v>
+      </c>
+      <c r="T168">
+        <v>1.75</v>
+      </c>
+      <c r="U168">
+        <v>1.775</v>
+      </c>
+      <c r="V168">
+        <v>2.025</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>2.1</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
         <v>-0.5</v>
       </c>
-      <c r="R168">
-        <v>1.925</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
-      <c r="U168">
-        <v>2</v>
-      </c>
-      <c r="V168">
-        <v>1.8</v>
-      </c>
-      <c r="W168">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
-      <c r="Z168">
-        <v>0.925</v>
-      </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P169">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
+        <v>1.85</v>
+      </c>
+      <c r="T169">
+        <v>1.75</v>
+      </c>
+      <c r="U169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N170">
+        <v>1.533</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
+        <v>5.5</v>
+      </c>
+      <c r="Q170">
+        <v>-1</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.8</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.85</v>
       </c>
-      <c r="O170">
-        <v>3</v>
-      </c>
-      <c r="P170">
-        <v>4.2</v>
-      </c>
-      <c r="Q170">
+      <c r="W170">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="R170">
-        <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>1.75</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>2</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>-1</v>
-      </c>
-      <c r="AA170">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB170">
-        <v>0.8</v>
-      </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15773,7 +15773,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K172">
         <v>1.75</v>
@@ -15871,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K173">
         <v>1.85</v>
@@ -15948,7 +15948,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>39</v>
@@ -16037,7 +16037,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
         <v>43</v>
@@ -16049,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>3.25</v>
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K176">
         <v>2</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>2.1</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6362392</v>
+        <v>6361814</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,58 +16304,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M178">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N178">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W178">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16364,16 +16364,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6361814</v>
+        <v>6362392</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,58 +16393,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L179">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N179">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
+        <v>1.85</v>
+      </c>
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
         <v>1.775</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.75</v>
-      </c>
-      <c r="V179">
-        <v>2.05</v>
-      </c>
       <c r="W179">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.95</v>
+      </c>
+      <c r="AB179">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M180">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N180">
+        <v>1.7</v>
+      </c>
+      <c r="O180">
+        <v>3.1</v>
+      </c>
+      <c r="P180">
+        <v>5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
         <v>1.8</v>
       </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>4.333</v>
-      </c>
-      <c r="Q180">
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.775</v>
+      </c>
+      <c r="V180">
+        <v>2.025</v>
+      </c>
+      <c r="W180">
+        <v>0.7</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.5</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="R180">
-        <v>1.875</v>
-      </c>
-      <c r="S180">
-        <v>1.925</v>
-      </c>
-      <c r="T180">
-        <v>1.75</v>
-      </c>
-      <c r="U180">
-        <v>1.75</v>
-      </c>
-      <c r="V180">
-        <v>2.05</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>2</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>0.925</v>
-      </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L181">
+        <v>3.2</v>
+      </c>
+      <c r="M181">
+        <v>3.8</v>
+      </c>
+      <c r="N181">
+        <v>1.8</v>
+      </c>
+      <c r="O181">
         <v>3</v>
       </c>
-      <c r="M181">
-        <v>3.9</v>
-      </c>
-      <c r="N181">
-        <v>1.7</v>
-      </c>
-      <c r="O181">
-        <v>3.1</v>
-      </c>
       <c r="P181">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W181">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16761,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K183">
         <v>2.45</v>
@@ -16841,7 +16841,7 @@
         <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>3.25</v>
@@ -16930,7 +16930,7 @@
         <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -16939,7 +16939,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>2.15</v>
@@ -17108,7 +17108,7 @@
         <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17197,7 +17197,7 @@
         <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17206,7 +17206,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>1.85</v>
@@ -17372,7 +17372,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
         <v>34</v>
@@ -17461,7 +17461,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K191">
         <v>1.909</v>
@@ -17550,7 +17550,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
         <v>33</v>
@@ -17562,7 +17562,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>2.15</v>
@@ -17639,7 +17639,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G193" t="s">
         <v>43</v>
@@ -17731,7 +17731,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K194">
         <v>1.909</v>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17998,7 +17998,7 @@
         <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18173,7 +18173,7 @@
         <v>45179.79166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
@@ -18262,10 +18262,10 @@
         <v>45185.66666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K200">
         <v>1.75</v>
@@ -18354,7 +18354,7 @@
         <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>2.1</v>
@@ -18707,10 +18707,10 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18796,7 +18796,7 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>39</v>
@@ -18808,7 +18808,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>1.909</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18974,7 +18974,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
@@ -19066,7 +19066,7 @@
         <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19075,7 +19075,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>2.05</v>
@@ -19152,7 +19152,7 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
         <v>43</v>
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K210">
         <v>2.3</v>
@@ -19253,7 +19253,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.75</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7141426</v>
+        <v>7141425</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,13 +19330,13 @@
         <v>45206.75</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19345,43 +19345,43 @@
         <v>51</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O212">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
       <c r="W212">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19390,7 +19390,7 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -19399,7 +19399,7 @@
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7141425</v>
+        <v>7141426</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,13 +19419,13 @@
         <v>45206.75</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19434,43 +19434,43 @@
         <v>51</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
         <v>1.975</v>
       </c>
-      <c r="V213">
-        <v>1.825</v>
-      </c>
       <c r="W213">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19479,7 +19479,7 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,76 +19508,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N214">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
         <v>3.2</v>
       </c>
       <c r="P214">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N215">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
         <v>3.2</v>
       </c>
       <c r="P215">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19787,7 +19787,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>1.833</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -151,16 +151,16 @@
     <t>Ypiranga</t>
   </si>
   <si>
+    <t>Clube Do Remo</t>
+  </si>
+  <si>
     <t>Aparecidense</t>
   </si>
   <si>
-    <t>Clube Do Remo</t>
+    <t>Figueirense</t>
   </si>
   <si>
     <t>AD Confianca</t>
-  </si>
-  <si>
-    <t>Figueirense</t>
   </si>
   <si>
     <t>A</t>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6362492</v>
+        <v>6361789</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2079,40 +2079,40 @@
         <v>49</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,16 +2121,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>1.15</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6361789</v>
+        <v>6362492</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2168,40 +2168,40 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6361456</v>
+        <v>6362379</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,55 +2245,55 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6362379</v>
+        <v>6361456</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,55 +2334,55 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2598,10 +2598,10 @@
         <v>45059.6875</v>
       </c>
       <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
         <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>45059.79166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2954,7 +2954,7 @@
         <v>45060.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6361791</v>
+        <v>6361938</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P29">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.75</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
         <v>1.825</v>
       </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.8</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6361938</v>
+        <v>6361791</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45060.79166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6361622</v>
+        <v>6364923</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,58 +3310,58 @@
         <v>45066.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6364923</v>
+        <v>6361622</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,58 +3399,58 @@
         <v>45066.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,13 +3459,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3488,10 +3488,10 @@
         <v>45066.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6362453</v>
+        <v>6361792</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6361792</v>
+        <v>6362453</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
+        <v>1.666</v>
+      </c>
+      <c r="O36">
+        <v>3.25</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
+        <v>1.825</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1.775</v>
+      </c>
+      <c r="V36">
+        <v>2.025</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
         <v>2.25</v>
       </c>
-      <c r="O36">
-        <v>2.75</v>
-      </c>
-      <c r="P36">
-        <v>3.2</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>2</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>1.75</v>
-      </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6362381</v>
+        <v>6361481</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,13 +3844,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3859,43 +3859,43 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6361481</v>
+        <v>6362381</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,13 +3933,13 @@
         <v>45067.79166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3948,43 +3948,43 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4556,7 +4556,7 @@
         <v>45074.6875</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4823,7 +4823,7 @@
         <v>45075.83333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -5001,10 +5001,10 @@
         <v>45076.83333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N53">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P53">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
         <v>1.875</v>
       </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
       <c r="W53">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
+        <v>2.375</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
         <v>2.8</v>
       </c>
-      <c r="L54">
-        <v>2.9</v>
-      </c>
-      <c r="M54">
-        <v>2.4</v>
-      </c>
       <c r="N54">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
+        <v>1.775</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>1.875</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,10 +5535,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5550,46 +5550,46 @@
         <v>50</v>
       </c>
       <c r="K57">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
+        <v>5.5</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>2.1</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.8</v>
       </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45081.6875</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5639,46 +5639,46 @@
         <v>50</v>
       </c>
       <c r="K58">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6361625</v>
+        <v>6364922</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,56 +5713,56 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5770,19 +5770,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6364922</v>
+        <v>6361625</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,56 +5802,56 @@
         <v>45081.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
+        <v>1.533</v>
+      </c>
+      <c r="L60">
+        <v>3.6</v>
+      </c>
+      <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.5</v>
+      </c>
+      <c r="O60">
+        <v>3.5</v>
+      </c>
+      <c r="P60">
+        <v>6</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>1.8</v>
+      </c>
+      <c r="T60">
+        <v>2.25</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>4.2</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>2.875</v>
-      </c>
-      <c r="P60">
-        <v>3.75</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
-        <v>1.75</v>
-      </c>
-      <c r="S60">
-        <v>2.05</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
@@ -5859,19 +5859,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>45085.6875</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>45085.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6781,7 +6781,7 @@
         <v>45085.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>44</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,46 +7048,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M74">
+        <v>3.75</v>
+      </c>
+      <c r="N74">
+        <v>1.909</v>
+      </c>
+      <c r="O74">
         <v>3</v>
       </c>
-      <c r="N74">
-        <v>2.4</v>
-      </c>
-      <c r="O74">
-        <v>2.75</v>
-      </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -7099,25 +7099,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,46 +7137,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L75">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -7188,25 +7188,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6758547</v>
+        <v>6361629</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,49 +7226,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L76">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
         <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
         <v>1.825</v>
@@ -7277,19 +7277,19 @@
         <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X76">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6361629</v>
+        <v>6758547</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,49 +7315,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7366,19 +7366,19 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7493,7 +7493,7 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
         <v>41</v>
@@ -7671,7 +7671,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -7763,7 +7763,7 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>45101.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9187,7 +9187,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
         <v>44</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,76 +9718,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
         <v>4</v>
       </c>
       <c r="N104">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,76 +9807,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
         <v>4</v>
       </c>
       <c r="N105">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
+        <v>1.9</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="S105">
-        <v>1.975</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.875</v>
-      </c>
-      <c r="V105">
-        <v>1.925</v>
-      </c>
       <c r="W105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9985,7 +9985,7 @@
         <v>45109.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
         <v>43</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6361804</v>
+        <v>6361945</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>50</v>
       </c>
       <c r="K108">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M108">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6361945</v>
+        <v>6361804</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L109">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N109">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
+        <v>0.825</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
         <v>-0</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>1.05</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
         <v>30</v>
@@ -10964,7 +10964,7 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
         <v>35</v>
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>49</v>
+      </c>
+      <c r="K120">
+        <v>2.3</v>
+      </c>
+      <c r="L120">
+        <v>2.875</v>
+      </c>
+      <c r="M120">
         <v>3</v>
       </c>
-      <c r="I120">
+      <c r="N120">
+        <v>2.3</v>
+      </c>
+      <c r="O120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>50</v>
-      </c>
-      <c r="K120">
+      <c r="P120">
+        <v>3.1</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.775</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
-      <c r="P120">
-        <v>3.8</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.975</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11231,7 +11231,7 @@
         <v>45117.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11501,7 +11501,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,76 +11676,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N127">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X127">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12124,7 +12124,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6361639</v>
+        <v>6362496</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
         <v>3.3</v>
       </c>
-      <c r="M133">
-        <v>3.8</v>
-      </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
         <v>2.025</v>
       </c>
-      <c r="V133">
-        <v>1.775</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6362496</v>
+        <v>6361639</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
+        <v>2.025</v>
+      </c>
+      <c r="V134">
         <v>1.775</v>
       </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,55 +12566,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
         <v>3.1</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
         <v>1.8</v>
       </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
       <c r="T136">
         <v>2</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12623,19 +12623,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,55 +12655,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>49</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
         <v>1.8</v>
       </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,19 +12712,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6361638</v>
+        <v>6361948</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,61 +12922,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>50</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N140">
         <v>2.1</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12985,13 +12985,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB140">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361948</v>
+        <v>6361638</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,61 +13011,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
+        <v>3.2</v>
+      </c>
+      <c r="M141">
         <v>3.1</v>
-      </c>
-      <c r="M141">
-        <v>2.625</v>
       </c>
       <c r="N141">
         <v>2.1</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
         <v>1.75</v>
       </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
       <c r="V141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13074,13 +13074,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13103,7 +13103,7 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13367,7 +13367,7 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
         <v>3.1</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
+        <v>1.85</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
       </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O147">
         <v>3.1</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.475</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.85</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>1.775</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.95</v>
-      </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13723,7 +13723,7 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13812,7 +13812,7 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14082,7 +14082,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6361811</v>
+        <v>6361641</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>51</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L154">
         <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N154">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
       <c r="T154">
         <v>2</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6361641</v>
+        <v>6361811</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>51</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L155">
         <v>3.1</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N155">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O155">
         <v>3</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14346,7 +14346,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6361963</v>
+        <v>6362016</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O157">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.775</v>
+      </c>
+      <c r="V157">
+        <v>2.025</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>2.1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.45</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.925</v>
-      </c>
-      <c r="S157">
-        <v>1.875</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>2.025</v>
-      </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
-      <c r="W157">
-        <v>0.909</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.925</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6362016</v>
+        <v>6362219</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,49 +14524,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>50</v>
       </c>
       <c r="K158">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>4</v>
+      </c>
+      <c r="N158">
+        <v>1.85</v>
+      </c>
+      <c r="O158">
         <v>3</v>
       </c>
-      <c r="M158">
-        <v>2.5</v>
-      </c>
-      <c r="N158">
-        <v>3.2</v>
-      </c>
-      <c r="O158">
-        <v>3.1</v>
-      </c>
       <c r="P158">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
         <v>1.775</v>
@@ -14578,22 +14578,22 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6362219</v>
+        <v>6361963</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14613,76 +14613,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U159">
+        <v>2.025</v>
+      </c>
+      <c r="V159">
         <v>1.775</v>
       </c>
-      <c r="V159">
-        <v>2.025</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6361467</v>
+        <v>6361642</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,76 +14702,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K160">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L160">
         <v>3</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O160">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P160">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
         <v>2</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6361642</v>
+        <v>6361467</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,76 +14791,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L161">
         <v>3</v>
       </c>
       <c r="M161">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P161">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
         <v>2</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X161">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
         <v>3</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O162">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P163">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N169">
+        <v>1.533</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>5.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.85</v>
       </c>
-      <c r="O169">
-        <v>3</v>
-      </c>
-      <c r="P169">
-        <v>4.2</v>
-      </c>
-      <c r="Q169">
+      <c r="W169">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>1.75</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>2</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>-1</v>
-      </c>
-      <c r="AA169">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB169">
-        <v>0.8</v>
-      </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N170">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P170">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>1.75</v>
+      </c>
+      <c r="U170">
         <v>1.8</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,73 +15770,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
+        <v>1.975</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>1.875</v>
       </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
-      <c r="V172">
-        <v>2</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
       <c r="Y172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,73 +15859,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L174">
         <v>3</v>
       </c>
       <c r="M174">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
+        <v>1.727</v>
+      </c>
+      <c r="Q174">
+        <v>0.75</v>
+      </c>
+      <c r="R174">
         <v>1.8</v>
       </c>
-      <c r="O174">
-        <v>3</v>
-      </c>
-      <c r="P174">
-        <v>4.75</v>
-      </c>
-      <c r="Q174">
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.875</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z174">
         <v>-0.5</v>
       </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>2.05</v>
-      </c>
-      <c r="V174">
-        <v>1.75</v>
-      </c>
-      <c r="W174">
-        <v>0.8</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L175">
         <v>3</v>
       </c>
       <c r="M175">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N175">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O175">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
+        <v>2.05</v>
+      </c>
+      <c r="V175">
+        <v>1.75</v>
+      </c>
+      <c r="W175">
+        <v>0.8</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.75</v>
-      </c>
-      <c r="R175">
-        <v>1.8</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z175">
-        <v>-0.5</v>
-      </c>
-      <c r="AA175">
-        <v>0.5</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
-      <c r="AC175">
-        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16129,7 +16129,7 @@
         <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16307,7 +16307,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.8</v>
+      </c>
+      <c r="N180">
+        <v>1.8</v>
+      </c>
+      <c r="O180">
         <v>3</v>
       </c>
-      <c r="M180">
-        <v>3.9</v>
-      </c>
-      <c r="N180">
-        <v>1.7</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
       <c r="P180">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M181">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N181">
+        <v>1.7</v>
+      </c>
+      <c r="O181">
+        <v>3.1</v>
+      </c>
+      <c r="P181">
+        <v>5</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
         <v>1.8</v>
       </c>
-      <c r="O181">
-        <v>3</v>
-      </c>
-      <c r="P181">
-        <v>4.333</v>
-      </c>
-      <c r="Q181">
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>1.775</v>
+      </c>
+      <c r="V181">
+        <v>2.025</v>
+      </c>
+      <c r="W181">
+        <v>0.7</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.5</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>1.875</v>
-      </c>
-      <c r="S181">
-        <v>1.925</v>
-      </c>
-      <c r="T181">
-        <v>1.75</v>
-      </c>
-      <c r="U181">
-        <v>1.75</v>
-      </c>
-      <c r="V181">
-        <v>2.05</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>2</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
-      <c r="AA181">
-        <v>0.925</v>
-      </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6362459</v>
+        <v>6361647</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,40 +16660,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L182">
         <v>3</v>
       </c>
       <c r="M182">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O182">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
         <v>1.85</v>
@@ -16705,31 +16705,31 @@
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6361647</v>
+        <v>6361470</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,40 +16749,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M183">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N183">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
         <v>1.85</v>
@@ -16794,31 +16794,31 @@
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X183">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6361648</v>
+        <v>6361495</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L184">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M184">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P184">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T184">
         <v>2</v>
       </c>
       <c r="U184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6361815</v>
+        <v>6361648</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,55 +16927,55 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>49</v>
       </c>
       <c r="K185">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L185">
+        <v>2.75</v>
+      </c>
+      <c r="M185">
+        <v>2.25</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185">
         <v>3</v>
       </c>
-      <c r="M185">
-        <v>3.3</v>
-      </c>
-      <c r="N185">
-        <v>2.2</v>
-      </c>
-      <c r="O185">
-        <v>2.9</v>
-      </c>
       <c r="P185">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>2</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16984,16 +16984,16 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6361965</v>
+        <v>6361815</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,19 +17016,19 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>2.15</v>
@@ -17040,52 +17040,52 @@
         <v>3.3</v>
       </c>
       <c r="N186">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P186">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z186">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6362018</v>
+        <v>6361965</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,58 +17105,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N187">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O187">
+        <v>3.2</v>
+      </c>
+      <c r="P187">
         <v>5.25</v>
       </c>
-      <c r="P187">
-        <v>8</v>
-      </c>
       <c r="Q187">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
         <v>1.925</v>
       </c>
-      <c r="S187">
+      <c r="V187">
         <v>1.875</v>
       </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.85</v>
-      </c>
       <c r="W187">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17165,16 +17165,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6362222</v>
+        <v>6363212</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,61 +17194,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>50</v>
       </c>
       <c r="K188">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M188">
         <v>4</v>
       </c>
       <c r="N188">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
         <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17257,13 +17257,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6361495</v>
+        <v>6362018</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,58 +17283,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>51</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L189">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M189">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N189">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="P189">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,16 +17343,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6361470</v>
+        <v>6362222</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,46 +17372,46 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L190">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O190">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P190">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q190">
         <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
         <v>2</v>
@@ -17423,25 +17423,25 @@
         <v>2</v>
       </c>
       <c r="W190">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6363212</v>
+        <v>6362459</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,31 +17461,31 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K191">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L191">
         <v>3</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O191">
         <v>3.1</v>
@@ -17497,40 +17497,40 @@
         <v>-0.5</v>
       </c>
       <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
+        <v>1.95</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>1.875</v>
+      </c>
+      <c r="V191">
         <v>1.925</v>
       </c>
-      <c r="S191">
-        <v>1.875</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.85</v>
-      </c>
-      <c r="V191">
-        <v>1.95</v>
-      </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,76 +19508,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N214">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
         <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O215">
         <v>3.2</v>
       </c>
       <c r="P215">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -118,16 +118,16 @@
     <t>Brusque</t>
   </si>
   <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Paysandu</t>
+    <t>Ypiranga</t>
   </si>
   <si>
     <t>AD Confianca</t>
-  </si>
-  <si>
-    <t>Ypiranga</t>
   </si>
   <si>
     <t>Sao Bernardo SP</t>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1100,46 +1100,46 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1189,46 +1189,46 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
+        <v>5.5</v>
+      </c>
+      <c r="Q8">
+        <v>-0.75</v>
+      </c>
+      <c r="R8">
+        <v>1.7</v>
+      </c>
+      <c r="S8">
+        <v>2.1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>4.5</v>
-      </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.85</v>
-      </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6364922</v>
+        <v>6361625</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,53 +1266,53 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
+        <v>1.533</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>5.5</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>4.2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2.875</v>
-      </c>
-      <c r="P9">
-        <v>3.75</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.75</v>
-      </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>1.85</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1320,19 +1320,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6361625</v>
+        <v>6364922</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,53 +1355,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="V10">
-        <v>1.85</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1409,19 +1409,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2423,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,46 +2598,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
+        <v>3.75</v>
+      </c>
+      <c r="N24">
+        <v>1.909</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>2.4</v>
-      </c>
-      <c r="O24">
-        <v>2.75</v>
-      </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -2649,25 +2649,25 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,46 +2687,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T25">
         <v>2</v>
@@ -2738,25 +2738,25 @@
         <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2776,7 +2776,7 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -3043,7 +3043,7 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3221,7 +3221,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3402,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>45095.6875</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3844,7 +3844,7 @@
         <v>45095.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3933,7 +3933,7 @@
         <v>45096.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4203,7 +4203,7 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4559,7 +4559,7 @@
         <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4823,10 +4823,10 @@
         <v>45104.83333333334</v>
       </c>
       <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,16 +5090,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -5114,52 +5114,52 @@
         <v>3.6</v>
       </c>
       <c r="N52">
+        <v>2.15</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3.25</v>
+      </c>
+      <c r="Q52">
+        <v>-0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.9</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
         <v>1.8</v>
       </c>
-      <c r="O52">
-        <v>3.2</v>
-      </c>
-      <c r="P52">
-        <v>4.333</v>
-      </c>
-      <c r="Q52">
+      <c r="V52">
+        <v>2</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
         <v>-0.5</v>
       </c>
-      <c r="R52">
-        <v>1.85</v>
-      </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>2.25</v>
-      </c>
-      <c r="U52">
-        <v>2.025</v>
-      </c>
-      <c r="V52">
-        <v>1.775</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.2</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,16 +5179,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -5203,52 +5203,52 @@
         <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5995,41 +5995,41 @@
         <v>51</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
         <v>1.925</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.875</v>
       </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,10 +6069,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
         <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6084,40 +6084,40 @@
         <v>51</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,55 +6247,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>51</v>
       </c>
       <c r="K65">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6304,19 +6304,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>51</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L66">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L67">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M67">
+        <v>3.2</v>
+      </c>
+      <c r="N67">
+        <v>2.3</v>
+      </c>
+      <c r="O67">
         <v>3.1</v>
       </c>
-      <c r="N67">
-        <v>2.15</v>
-      </c>
-      <c r="O67">
-        <v>2.9</v>
-      </c>
       <c r="P67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q67">
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X67">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
+        <v>2.25</v>
+      </c>
+      <c r="L68">
+        <v>2.875</v>
+      </c>
+      <c r="M68">
+        <v>3.1</v>
+      </c>
+      <c r="N68">
         <v>2.15</v>
       </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <v>3.2</v>
-      </c>
-      <c r="N68">
-        <v>2.3</v>
-      </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
         <v>48</v>
@@ -6692,7 +6692,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
@@ -6962,7 +6962,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7137,7 +7137,7 @@
         <v>45122.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7493,7 +7493,7 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7671,7 +7671,7 @@
         <v>45124.83333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6361465</v>
+        <v>6361639</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s">
         <v>36</v>
       </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N83">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
         <v>2.025</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.775</v>
       </c>
-      <c r="T83">
-        <v>2</v>
-      </c>
-      <c r="U83">
-        <v>1.95</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
       <c r="W83">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6361639</v>
+        <v>6361465</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N84">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>2.025</v>
+      </c>
+      <c r="S84">
+        <v>1.775</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
         <v>1.95</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>2.025</v>
-      </c>
-      <c r="V84">
-        <v>1.775</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X84">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8208,7 +8208,7 @@
         <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,40 +8294,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
         <v>1.85</v>
@@ -8339,31 +8339,31 @@
         <v>2</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,40 +8383,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>4.5</v>
+      </c>
+      <c r="N89">
+        <v>1.85</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
         <v>4.2</v>
       </c>
-      <c r="N89">
-        <v>2.15</v>
-      </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.85</v>
@@ -8428,31 +8428,31 @@
         <v>2</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6361638</v>
+        <v>6361948</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,61 +8472,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>50</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
         <v>2.1</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8535,13 +8535,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB90">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6361948</v>
+        <v>6361638</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,61 +8561,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>50</v>
       </c>
       <c r="K91">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
+        <v>3.2</v>
+      </c>
+      <c r="M91">
         <v>3.1</v>
-      </c>
-      <c r="M91">
-        <v>2.625</v>
       </c>
       <c r="N91">
         <v>2.1</v>
       </c>
       <c r="O91">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q91">
         <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>1.75</v>
       </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
       <c r="V91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8624,13 +8624,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB91">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L92">
         <v>3.1</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
+        <v>0.4</v>
+      </c>
+      <c r="AC92">
         <v>-0.5</v>
-      </c>
-      <c r="AC92">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,76 +8739,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8831,7 +8831,7 @@
         <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O96">
         <v>3.1</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
       <c r="T96">
         <v>2</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,76 +9095,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
         <v>3.1</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.475</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>1.85</v>
-      </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.775</v>
-      </c>
-      <c r="V97">
-        <v>2.025</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.95</v>
-      </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9273,7 +9273,7 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6361949</v>
+        <v>6362619</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,10 +9362,10 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9377,46 +9377,46 @@
         <v>50</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N100">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q100">
         <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9425,13 +9425,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6362619</v>
+        <v>6361949</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,10 +9451,10 @@
         <v>45138.83333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9466,46 +9466,46 @@
         <v>50</v>
       </c>
       <c r="K101">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q101">
         <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9514,13 +9514,13 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,46 +9540,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,46 +9629,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O103">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y103">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9807,7 +9807,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>33</v>
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6362016</v>
+        <v>6362219</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,49 +9985,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>50</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L107">
+        <v>3.1</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>1.85</v>
+      </c>
+      <c r="O107">
         <v>3</v>
       </c>
-      <c r="M107">
-        <v>2.5</v>
-      </c>
-      <c r="N107">
-        <v>3.2</v>
-      </c>
-      <c r="O107">
-        <v>3.1</v>
-      </c>
       <c r="P107">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
         <v>1.775</v>
@@ -10039,22 +10039,22 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6362219</v>
+        <v>6361963</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U108">
+        <v>2.025</v>
+      </c>
+      <c r="V108">
         <v>1.775</v>
       </c>
-      <c r="V108">
-        <v>2.025</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6361963</v>
+        <v>6362016</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L109">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
+        <v>0.25</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>1.775</v>
+      </c>
+      <c r="V109">
+        <v>2.025</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>2.1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
+        <v>0.45</v>
+      </c>
+      <c r="AA109">
         <v>-0.5</v>
       </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>2.025</v>
-      </c>
-      <c r="V109">
-        <v>1.775</v>
-      </c>
-      <c r="W109">
-        <v>0.909</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>-1</v>
-      </c>
-      <c r="Z109">
-        <v>0.925</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10341,7 +10341,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>44</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,58 +10430,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N112">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6362017</v>
+        <v>6361812</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10608,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N114">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
         <v>1.775</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>2.025</v>
       </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.9</v>
-      </c>
-      <c r="V114">
-        <v>1.9</v>
-      </c>
       <c r="W114">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6361812</v>
+        <v>6362017</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,76 +10697,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X115">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -10967,7 +10967,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,73 +11320,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L122">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N122">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q122">
         <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,73 +11409,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M123">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
         <v>-0.5</v>
       </c>
       <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
+        <v>1.975</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>1.875</v>
       </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
-      <c r="T123">
-        <v>2</v>
-      </c>
-      <c r="U123">
-        <v>1.8</v>
-      </c>
-      <c r="V123">
-        <v>2</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>1.727</v>
+      </c>
+      <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
         <v>1.8</v>
       </c>
-      <c r="O124">
-        <v>3</v>
-      </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
-      <c r="Q124">
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.875</v>
+      </c>
+      <c r="V124">
+        <v>1.925</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>2.05</v>
-      </c>
-      <c r="V124">
-        <v>1.75</v>
-      </c>
-      <c r="W124">
-        <v>0.8</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q125">
+        <v>-0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>1.75</v>
+      </c>
+      <c r="W125">
+        <v>0.8</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.75</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.875</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z125">
-        <v>-0.5</v>
-      </c>
-      <c r="AA125">
-        <v>0.5</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
-      <c r="AC125">
-        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>32</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,76 +12032,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N130">
+        <v>1.7</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>5</v>
+      </c>
+      <c r="Q130">
+        <v>-0.75</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
       </c>
-      <c r="O130">
-        <v>3</v>
-      </c>
-      <c r="P130">
-        <v>4.333</v>
-      </c>
-      <c r="Q130">
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>1.775</v>
+      </c>
+      <c r="V130">
+        <v>2.025</v>
+      </c>
+      <c r="W130">
+        <v>0.7</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.5</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.875</v>
-      </c>
-      <c r="S130">
-        <v>1.925</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
-      </c>
-      <c r="U130">
-        <v>1.75</v>
-      </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.925</v>
-      </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L131">
+        <v>3.2</v>
+      </c>
+      <c r="M131">
+        <v>3.8</v>
+      </c>
+      <c r="N131">
+        <v>1.8</v>
+      </c>
+      <c r="O131">
         <v>3</v>
       </c>
-      <c r="M131">
-        <v>3.9</v>
-      </c>
-      <c r="N131">
-        <v>1.7</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
       <c r="P131">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W131">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6363212</v>
+        <v>6362222</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,61 +12210,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>50</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
         <v>4</v>
       </c>
       <c r="N132">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12273,13 +12273,13 @@
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6361648</v>
+        <v>6362459</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,46 +12299,46 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
         <v>2</v>
@@ -12350,25 +12350,25 @@
         <v>1.925</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361647</v>
+        <v>6361470</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12397,31 +12397,31 @@
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M134">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
         <v>1.85</v>
@@ -12433,31 +12433,31 @@
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6361470</v>
+        <v>6361815</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>3.3</v>
+      </c>
+      <c r="N136">
+        <v>2.2</v>
+      </c>
+      <c r="O136">
         <v>2.9</v>
       </c>
-      <c r="M136">
-        <v>2.8</v>
-      </c>
-      <c r="N136">
-        <v>1.833</v>
-      </c>
-      <c r="O136">
-        <v>3.1</v>
-      </c>
       <c r="P136">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361965</v>
+        <v>6361648</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L137">
+        <v>2.75</v>
+      </c>
+      <c r="M137">
+        <v>2.25</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137">
         <v>3</v>
       </c>
-      <c r="M137">
-        <v>3.3</v>
-      </c>
-      <c r="N137">
-        <v>1.65</v>
-      </c>
-      <c r="O137">
-        <v>3.2</v>
-      </c>
       <c r="P137">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
         <v>1.925</v>
       </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
       <c r="W137">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6362018</v>
+        <v>6361965</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,58 +12744,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>49</v>
       </c>
       <c r="K138">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L138">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
         <v>5.25</v>
       </c>
-      <c r="P138">
-        <v>8</v>
-      </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
         <v>1.925</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.875</v>
       </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.95</v>
-      </c>
-      <c r="V138">
-        <v>1.85</v>
-      </c>
       <c r="W138">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,16 +12804,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362222</v>
+        <v>6362018</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
+        <v>1.333</v>
+      </c>
+      <c r="L139">
+        <v>4.5</v>
+      </c>
+      <c r="M139">
+        <v>7</v>
+      </c>
+      <c r="N139">
+        <v>1.25</v>
+      </c>
+      <c r="O139">
+        <v>5.25</v>
+      </c>
+      <c r="P139">
+        <v>8</v>
+      </c>
+      <c r="Q139">
+        <v>-1.5</v>
+      </c>
+      <c r="R139">
+        <v>1.925</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-      <c r="N139">
-        <v>1.909</v>
-      </c>
-      <c r="O139">
-        <v>3.2</v>
-      </c>
-      <c r="P139">
-        <v>4</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.775</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6362459</v>
+        <v>6363212</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,31 +12922,31 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O140">
         <v>3.1</v>
@@ -12958,40 +12958,40 @@
         <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
         <v>1.85</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
       <c r="W140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361815</v>
+        <v>6361647</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L141">
         <v>3</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y141">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>45172.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>48</v>
@@ -13367,7 +13367,7 @@
         <v>45172.75</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13459,7 +13459,7 @@
         <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13726,7 +13726,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13990,10 +13990,10 @@
         <v>45186.66666666666</v>
       </c>
       <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" t="s">
         <v>35</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14257,10 +14257,10 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>35</v>
+      </c>
+      <c r="G155" t="s">
         <v>34</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7141422</v>
+        <v>7141410</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,13 +14346,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -14361,40 +14361,40 @@
         <v>51</v>
       </c>
       <c r="K156">
+        <v>2.05</v>
+      </c>
+      <c r="L156">
+        <v>3.1</v>
+      </c>
+      <c r="M156">
+        <v>3.3</v>
+      </c>
+      <c r="N156">
         <v>1.909</v>
       </c>
-      <c r="L156">
-        <v>3.25</v>
-      </c>
-      <c r="M156">
-        <v>3.6</v>
-      </c>
-      <c r="N156">
-        <v>1.85</v>
-      </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P156">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
         <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14403,19 +14403,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC156">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7141410</v>
+        <v>7141422</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,13 +14435,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14450,40 +14450,40 @@
         <v>51</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M157">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14492,19 +14492,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14791,7 +14791,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14883,7 +14883,7 @@
         <v>48</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14972,7 +14972,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O164">
         <v>3.2</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T165">
         <v>2</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -118,10 +118,10 @@
     <t>Brusque</t>
   </si>
   <si>
-    <t>Paysandu</t>
+    <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Botafogo PB</t>
+    <t>Paysandu</t>
   </si>
   <si>
     <t>Ypiranga</t>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1100,46 +1100,46 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>3.6</v>
+      </c>
+      <c r="P7">
+        <v>5.5</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.7</v>
+      </c>
+      <c r="S7">
+        <v>2.1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>4.5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>1.95</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1189,46 +1189,46 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6362383</v>
+        <v>6362556</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z29">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6362556</v>
+        <v>6362383</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>45095.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3933,7 +3933,7 @@
         <v>45096.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4823,10 +4823,10 @@
         <v>45104.83333333334</v>
       </c>
       <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
         <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5182,7 +5182,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.875</v>
-      </c>
-      <c r="V55">
-        <v>1.925</v>
-      </c>
       <c r="W55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6361804</v>
+        <v>6361945</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>50</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M58">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6361945</v>
+        <v>6361804</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>50</v>
       </c>
       <c r="K59">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
+        <v>0.825</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
         <v>-0</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
-      <c r="AC59">
-        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,13 +5802,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5817,34 +5817,34 @@
         <v>49</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
         <v>1.9</v>
@@ -5853,7 +5853,7 @@
         <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5862,16 +5862,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,13 +5891,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5906,34 +5906,34 @@
         <v>49</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U61">
         <v>1.9</v>
@@ -5942,7 +5942,7 @@
         <v>1.9</v>
       </c>
       <c r="W61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
         <v>-0</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5980,7 +5980,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6072,7 +6072,7 @@
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,55 +6247,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>51</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N65">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6304,19 +6304,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>51</v>
       </c>
       <c r="K66">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,76 +6603,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,76 +6692,76 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K70">
+        <v>2.3</v>
+      </c>
+      <c r="L70">
+        <v>2.875</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="I70">
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>50</v>
-      </c>
-      <c r="K70">
+      <c r="P70">
+        <v>3.1</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.25</v>
-      </c>
-      <c r="M70">
-        <v>3.8</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.25</v>
-      </c>
-      <c r="P70">
-        <v>3.8</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.975</v>
-      </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,76 +6870,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X72">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>45122.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7671,7 +7671,7 @@
         <v>45124.83333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -8208,7 +8208,7 @@
         <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,40 +8294,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>4.5</v>
+      </c>
+      <c r="N88">
+        <v>1.85</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="N88">
-        <v>2.15</v>
-      </c>
-      <c r="O88">
-        <v>2.9</v>
-      </c>
-      <c r="P88">
-        <v>3.5</v>
-      </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.85</v>
@@ -8339,31 +8339,31 @@
         <v>2</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,40 +8383,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
         <v>1.85</v>
@@ -8428,31 +8428,31 @@
         <v>2</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L92">
         <v>3.1</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,76 +8739,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
+        <v>1.75</v>
+      </c>
+      <c r="U93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
+        <v>0.4</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="AC93">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O96">
         <v>3.1</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>1.85</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>0.475</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="R96">
-        <v>1.85</v>
-      </c>
-      <c r="S96">
-        <v>1.95</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
-      <c r="U96">
-        <v>1.775</v>
-      </c>
-      <c r="V96">
-        <v>2.025</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>2.1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
-      <c r="AA96">
-        <v>0.95</v>
-      </c>
       <c r="AB96">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,76 +9095,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O97">
         <v>3.1</v>
       </c>
       <c r="P97">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
         <v>1.95</v>
       </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
       <c r="T97">
         <v>2</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M99">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
+        <v>2.875</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="P99">
-        <v>5.75</v>
-      </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,46 +9540,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O102">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
         <v>2</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,46 +9629,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6361811</v>
+        <v>6361641</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,58 +9718,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
         <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O104">
         <v>3</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,16 +9778,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6361641</v>
+        <v>6361811</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,58 +9807,58 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L105">
         <v>3.1</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
         <v>3</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,16 +9867,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6362219</v>
+        <v>6361963</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M107">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U107">
+        <v>2.025</v>
+      </c>
+      <c r="V107">
         <v>1.775</v>
       </c>
-      <c r="V107">
-        <v>2.025</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6361963</v>
+        <v>6362016</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L108">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
+        <v>0.25</v>
+      </c>
+      <c r="R108">
+        <v>1.9</v>
+      </c>
+      <c r="S108">
+        <v>1.9</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.775</v>
+      </c>
+      <c r="V108">
+        <v>2.025</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>2.1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.45</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="R108">
-        <v>1.925</v>
-      </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
-      <c r="U108">
-        <v>2.025</v>
-      </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
-      <c r="W108">
-        <v>0.909</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.925</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6362016</v>
+        <v>6362219</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L109">
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>1.85</v>
+      </c>
+      <c r="O109">
         <v>3</v>
       </c>
-      <c r="M109">
-        <v>2.5</v>
-      </c>
-      <c r="N109">
-        <v>3.2</v>
-      </c>
-      <c r="O109">
-        <v>3.1</v>
-      </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U109">
         <v>1.775</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,58 +10430,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N113">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6362220</v>
+        <v>6362391</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,46 +10786,46 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N116">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
         <v>2</v>
@@ -10837,25 +10837,25 @@
         <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6362391</v>
+        <v>6362220</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,46 +10875,46 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
         <v>2</v>
@@ -10926,25 +10926,25 @@
         <v>1.8</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X117">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10967,7 +10967,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N119">
+        <v>1.533</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>5.5</v>
+      </c>
+      <c r="Q119">
+        <v>-1</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="O119">
-        <v>3</v>
-      </c>
-      <c r="P119">
-        <v>4.2</v>
-      </c>
-      <c r="Q119">
+      <c r="W119">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.95</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>1.75</v>
-      </c>
-      <c r="U119">
-        <v>1.8</v>
-      </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>2</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB119">
-        <v>0.8</v>
-      </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>1.75</v>
+      </c>
+      <c r="U120">
         <v>1.8</v>
       </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>37</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
+        <v>1.75</v>
+      </c>
+      <c r="W124">
+        <v>0.8</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.75</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.875</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z124">
-        <v>-0.5</v>
-      </c>
-      <c r="AA124">
-        <v>0.5</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
-      <c r="AC124">
-        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>1.727</v>
+      </c>
+      <c r="Q125">
+        <v>0.75</v>
+      </c>
+      <c r="R125">
         <v>1.8</v>
       </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
-      <c r="P125">
-        <v>4.75</v>
-      </c>
-      <c r="Q125">
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.875</v>
+      </c>
+      <c r="V125">
+        <v>1.925</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.85</v>
-      </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>2.05</v>
-      </c>
-      <c r="V125">
-        <v>1.75</v>
-      </c>
-      <c r="W125">
-        <v>0.8</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>32</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6362222</v>
+        <v>6361965</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O132">
         <v>3.2</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q132">
+        <v>-0.75</v>
+      </c>
+      <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.875</v>
+      </c>
+      <c r="W132">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>0.45</v>
+      </c>
+      <c r="AA132">
         <v>-0.5</v>
       </c>
-      <c r="R132">
-        <v>1.775</v>
-      </c>
-      <c r="S132">
-        <v>2.025</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.8</v>
-      </c>
-      <c r="V132">
-        <v>2</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>2.2</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
-        <v>1.025</v>
-      </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6362459</v>
+        <v>6361495</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,10 +12299,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12314,43 +12314,43 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P133">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12359,7 +12359,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12368,7 +12368,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361470</v>
+        <v>6361647</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,7 +12388,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>34</v>
@@ -12397,31 +12397,31 @@
         <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L134">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
         <v>1.85</v>
@@ -12433,31 +12433,31 @@
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W134">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6361495</v>
+        <v>6361648</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M135">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z135">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6361815</v>
+        <v>6362018</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,49 +12566,49 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N136">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O136">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
         <v>1.95</v>
@@ -12617,19 +12617,19 @@
         <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>0.95</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361648</v>
+        <v>6361470</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6361965</v>
+        <v>6361815</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,19 +12744,19 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K138">
         <v>2.15</v>
@@ -12768,52 +12768,52 @@
         <v>3.3</v>
       </c>
       <c r="N138">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z138">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362018</v>
+        <v>6363212</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,40 +12833,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>50</v>
+      </c>
+      <c r="K139">
+        <v>1.909</v>
+      </c>
+      <c r="L139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>49</v>
-      </c>
-      <c r="K139">
-        <v>1.333</v>
-      </c>
-      <c r="L139">
-        <v>4.5</v>
-      </c>
       <c r="M139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O139">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
         <v>1.925</v>
@@ -12875,34 +12875,34 @@
         <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6363212</v>
+        <v>6362459</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,31 +12922,31 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
         <v>3.1</v>
@@ -12958,40 +12958,40 @@
         <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="S140">
-        <v>1.875</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.85</v>
-      </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361647</v>
+        <v>6362222</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,61 +13011,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13074,13 +13074,13 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>45172.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>48</v>
@@ -13367,7 +13367,7 @@
         <v>45172.75</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13459,7 +13459,7 @@
         <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13726,7 +13726,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13990,10 +13990,10 @@
         <v>45186.66666666666</v>
       </c>
       <c r="F152" t="s">
+        <v>35</v>
+      </c>
+      <c r="G152" t="s">
         <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,46 +14168,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
         <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
         <v>2</v>
@@ -14219,19 +14219,19 @@
         <v>1.8</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB154">
         <v>1</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,46 +14257,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L155">
         <v>3.1</v>
       </c>
       <c r="M155">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O155">
         <v>3</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
         <v>2</v>
@@ -14308,19 +14308,19 @@
         <v>1.8</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14791,7 +14791,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14883,7 +14883,7 @@
         <v>48</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14972,7 +14972,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
         <v>3.2</v>
       </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T165">
         <v>2</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,46 +2598,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -2649,25 +2649,25 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,46 +2687,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M25">
+        <v>3.75</v>
+      </c>
+      <c r="N25">
+        <v>1.909</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.4</v>
-      </c>
-      <c r="O25">
-        <v>2.75</v>
-      </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>2</v>
@@ -2738,25 +2738,25 @@
         <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6361629</v>
+        <v>6361485</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>49</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M26">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q26">
         <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,16 +2836,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6361485</v>
+        <v>6361629</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
       </c>
       <c r="K27">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6362012</v>
+        <v>6361460</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,55 +3310,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3367,19 +3367,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6361460</v>
+        <v>6362012</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.775</v>
+      </c>
+      <c r="S33">
+        <v>2.025</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.025</v>
+      </c>
+      <c r="V33">
+        <v>1.775</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
         <v>1.875</v>
       </c>
-      <c r="S33">
-        <v>1.925</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.825</v>
-      </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>3.75</v>
-      </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,16 +5090,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -5114,52 +5114,52 @@
         <v>3.6</v>
       </c>
       <c r="N52">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,16 +5179,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -5203,52 +5203,52 @@
         <v>3.6</v>
       </c>
       <c r="N53">
+        <v>2.15</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3.25</v>
+      </c>
+      <c r="Q53">
+        <v>-0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.9</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>1.8</v>
       </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>4.333</v>
-      </c>
-      <c r="Q53">
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>-0.5</v>
       </c>
-      <c r="R53">
-        <v>1.85</v>
-      </c>
-      <c r="S53">
-        <v>1.95</v>
-      </c>
-      <c r="T53">
-        <v>2.25</v>
-      </c>
-      <c r="U53">
-        <v>2.025</v>
-      </c>
-      <c r="V53">
-        <v>1.775</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.2</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
         <v>1.825</v>
       </c>
-      <c r="S54">
-        <v>1.975</v>
-      </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.875</v>
-      </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
       <c r="W54">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5995,40 +5995,40 @@
         <v>51</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,10 +6069,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6084,41 +6084,41 @@
         <v>51</v>
       </c>
       <c r="K63">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
         <v>1.925</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,55 +6247,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>51</v>
       </c>
       <c r="K65">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6304,19 +6304,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>51</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L66">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
+        <v>2.25</v>
+      </c>
+      <c r="L67">
+        <v>2.875</v>
+      </c>
+      <c r="M67">
+        <v>3.1</v>
+      </c>
+      <c r="N67">
         <v>2.15</v>
       </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>3.2</v>
-      </c>
-      <c r="N67">
-        <v>2.3</v>
-      </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q67">
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U67">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V67">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB67">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M68">
+        <v>3.2</v>
+      </c>
+      <c r="N68">
+        <v>2.3</v>
+      </c>
+      <c r="O68">
         <v>3.1</v>
       </c>
-      <c r="N68">
-        <v>2.15</v>
-      </c>
-      <c r="O68">
-        <v>2.9</v>
-      </c>
       <c r="P68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V68">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X68">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6362496</v>
+        <v>6361465</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L82">
         <v>3</v>
       </c>
       <c r="M82">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N82">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
+        <v>1.85</v>
+      </c>
+      <c r="W82">
         <v>1.75</v>
       </c>
-      <c r="U82">
-        <v>1.775</v>
-      </c>
-      <c r="V82">
-        <v>2.025</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6361465</v>
+        <v>6362496</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L84">
         <v>3</v>
       </c>
       <c r="M84">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N84">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
+        <v>1.925</v>
+      </c>
+      <c r="T84">
+        <v>1.75</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
         <v>2.025</v>
       </c>
-      <c r="S84">
-        <v>1.775</v>
-      </c>
-      <c r="T84">
-        <v>2</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.925</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>1.025</v>
-      </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,55 +8116,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
         <v>3</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8173,19 +8173,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,55 +8205,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O87">
         <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
       </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8262,19 +8262,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O96">
         <v>3.1</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
       <c r="T96">
         <v>2</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,76 +9095,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
         <v>3.1</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.475</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>1.85</v>
-      </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.775</v>
-      </c>
-      <c r="V97">
-        <v>2.025</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.95</v>
-      </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M98">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N98">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
+        <v>2.875</v>
+      </c>
+      <c r="P98">
         <v>3.4</v>
       </c>
-      <c r="P98">
-        <v>5.75</v>
-      </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L99">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6361963</v>
+        <v>6362219</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L107">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N107">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
         <v>2.025</v>
       </c>
-      <c r="V107">
-        <v>1.775</v>
-      </c>
       <c r="W107">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6362016</v>
+        <v>6361963</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
         <v>2</v>
       </c>
       <c r="U108">
+        <v>2.025</v>
+      </c>
+      <c r="V108">
         <v>1.775</v>
       </c>
-      <c r="V108">
-        <v>2.025</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6362219</v>
+        <v>6362016</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>2.5</v>
+      </c>
+      <c r="N109">
+        <v>3.2</v>
+      </c>
+      <c r="O109">
         <v>3.1</v>
       </c>
-      <c r="M109">
-        <v>4</v>
-      </c>
-      <c r="N109">
-        <v>1.85</v>
-      </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
       <c r="P109">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U109">
         <v>1.775</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA109">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6361642</v>
+        <v>6361467</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,76 +10252,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
         <v>3</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X110">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6361467</v>
+        <v>6361642</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,76 +10341,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N111">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6361812</v>
+        <v>6362017</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10608,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X114">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6362017</v>
+        <v>6361812</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,76 +10697,76 @@
         <v>45150.79166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N115">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
         <v>1.775</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>2.025</v>
       </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.9</v>
-      </c>
-      <c r="V115">
-        <v>1.9</v>
-      </c>
       <c r="W115">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6362391</v>
+        <v>6362220</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,46 +10786,46 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2</v>
@@ -10837,25 +10837,25 @@
         <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6362220</v>
+        <v>6361813</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
+        <v>1.95</v>
+      </c>
+      <c r="L117">
+        <v>3.2</v>
+      </c>
+      <c r="M117">
+        <v>3.5</v>
+      </c>
+      <c r="N117">
         <v>2.1</v>
       </c>
-      <c r="L117">
-        <v>2.875</v>
-      </c>
-      <c r="M117">
-        <v>3.4</v>
-      </c>
-      <c r="N117">
-        <v>1.85</v>
-      </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>1.75</v>
+      </c>
+      <c r="U117">
+        <v>1.775</v>
+      </c>
+      <c r="V117">
+        <v>2.025</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>2.1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
         <v>-0.5</v>
       </c>
-      <c r="R117">
-        <v>1.925</v>
-      </c>
-      <c r="S117">
-        <v>1.875</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
-      <c r="W117">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
-      <c r="Z117">
-        <v>0.925</v>
-      </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6361813</v>
+        <v>6362391</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,10 +10964,10 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10979,46 +10979,46 @@
         <v>50</v>
       </c>
       <c r="K118">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
+        <v>3.25</v>
+      </c>
+      <c r="M118">
+        <v>2.8</v>
+      </c>
+      <c r="N118">
+        <v>2.25</v>
+      </c>
+      <c r="O118">
         <v>3.2</v>
       </c>
-      <c r="M118">
-        <v>3.5</v>
-      </c>
-      <c r="N118">
-        <v>2.1</v>
-      </c>
-      <c r="O118">
-        <v>3.1</v>
-      </c>
       <c r="P118">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11027,13 +11027,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AB118">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>1.727</v>
+      </c>
+      <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
         <v>1.8</v>
       </c>
-      <c r="O124">
-        <v>3</v>
-      </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
-      <c r="Q124">
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.875</v>
+      </c>
+      <c r="V124">
+        <v>1.925</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>2.05</v>
-      </c>
-      <c r="V124">
-        <v>1.75</v>
-      </c>
-      <c r="W124">
-        <v>0.8</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q125">
+        <v>-0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>1.75</v>
+      </c>
+      <c r="W125">
+        <v>0.8</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.75</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.875</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z125">
-        <v>-0.5</v>
-      </c>
-      <c r="AA125">
-        <v>0.5</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
-      <c r="AC125">
-        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6361646</v>
+        <v>6361494</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,76 +12032,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>3.8</v>
+      </c>
+      <c r="N130">
+        <v>1.8</v>
+      </c>
+      <c r="O130">
         <v>3</v>
       </c>
-      <c r="M130">
-        <v>3.9</v>
-      </c>
-      <c r="N130">
-        <v>1.7</v>
-      </c>
-      <c r="O130">
-        <v>3.1</v>
-      </c>
       <c r="P130">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6361494</v>
+        <v>6361646</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45159.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N131">
+        <v>1.7</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>5</v>
+      </c>
+      <c r="Q131">
+        <v>-0.75</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
         <v>1.8</v>
       </c>
-      <c r="O131">
-        <v>3</v>
-      </c>
-      <c r="P131">
-        <v>4.333</v>
-      </c>
-      <c r="Q131">
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.775</v>
+      </c>
+      <c r="V131">
+        <v>2.025</v>
+      </c>
+      <c r="W131">
+        <v>0.7</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.5</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.875</v>
-      </c>
-      <c r="S131">
-        <v>1.925</v>
-      </c>
-      <c r="T131">
-        <v>1.75</v>
-      </c>
-      <c r="U131">
-        <v>1.75</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.925</v>
-      </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361965</v>
+        <v>6362222</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
         <v>3.2</v>
       </c>
       <c r="P132">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361647</v>
+        <v>6363212</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,61 +12388,61 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
         <v>3</v>
       </c>
       <c r="M134">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
         <v>1.85</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.95</v>
       </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
-      <c r="U134">
-        <v>1.75</v>
-      </c>
-      <c r="V134">
-        <v>2.05</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
@@ -12451,13 +12451,13 @@
         <v>-1</v>
       </c>
       <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.95</v>
-      </c>
-      <c r="AB134">
-        <v>0</v>
-      </c>
-      <c r="AC134">
-        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6361648</v>
+        <v>6361470</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>2</v>
+      </c>
+      <c r="U135">
         <v>1.8</v>
       </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6362018</v>
+        <v>6362459</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,58 +12566,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L136">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N136">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
+        <v>1.85</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
         <v>1.925</v>
       </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.95</v>
-      </c>
-      <c r="V136">
-        <v>1.85</v>
-      </c>
       <c r="W136">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12626,16 +12626,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.925</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.95</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361470</v>
+        <v>6361647</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,40 +12655,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N137">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
         <v>1.85</v>
@@ -12700,31 +12700,31 @@
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W137">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6361815</v>
+        <v>6361648</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,55 +12744,55 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>51</v>
       </c>
       <c r="K138">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L138">
+        <v>2.75</v>
+      </c>
+      <c r="M138">
+        <v>2.25</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138">
         <v>3</v>
       </c>
-      <c r="M138">
-        <v>3.3</v>
-      </c>
-      <c r="N138">
-        <v>2.2</v>
-      </c>
-      <c r="O138">
-        <v>2.9</v>
-      </c>
       <c r="P138">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12801,16 +12801,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6363212</v>
+        <v>6361815</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N139">
+        <v>2.2</v>
+      </c>
+      <c r="O139">
+        <v>2.9</v>
+      </c>
+      <c r="P139">
+        <v>3.25</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>4.2</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.925</v>
-      </c>
-      <c r="S139">
-        <v>1.875</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6362459</v>
+        <v>6361965</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,10 +12922,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12937,61 +12937,61 @@
         <v>49</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
+        <v>3.3</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
         <v>3.2</v>
       </c>
-      <c r="N140">
-        <v>1.8</v>
-      </c>
-      <c r="O140">
-        <v>3.1</v>
-      </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.925</v>
+      </c>
+      <c r="V140">
+        <v>1.875</v>
+      </c>
+      <c r="W140">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>0.45</v>
+      </c>
+      <c r="AA140">
         <v>-0.5</v>
       </c>
-      <c r="R140">
-        <v>1.85</v>
-      </c>
-      <c r="S140">
-        <v>1.95</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>0.8</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6362222</v>
+        <v>6362018</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,73 +13011,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
+        <v>1.333</v>
+      </c>
+      <c r="L141">
+        <v>4.5</v>
+      </c>
+      <c r="M141">
+        <v>7</v>
+      </c>
+      <c r="N141">
+        <v>1.25</v>
+      </c>
+      <c r="O141">
+        <v>5.25</v>
+      </c>
+      <c r="P141">
+        <v>8</v>
+      </c>
+      <c r="Q141">
+        <v>-1.5</v>
+      </c>
+      <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
         <v>1.85</v>
       </c>
-      <c r="L141">
-        <v>3.2</v>
-      </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
-      <c r="N141">
-        <v>1.909</v>
-      </c>
-      <c r="O141">
-        <v>3.2</v>
-      </c>
-      <c r="P141">
-        <v>4</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.775</v>
-      </c>
-      <c r="S141">
-        <v>2.025</v>
-      </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O164">
         <v>3.2</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T165">
         <v>2</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -106,10 +106,10 @@
     <t>America RN</t>
   </si>
   <si>
-    <t>AE Altos</t>
+    <t>Manaus</t>
   </si>
   <si>
-    <t>Manaus</t>
+    <t>AE Altos</t>
   </si>
   <si>
     <t>Pouso Alegre</t>
@@ -118,16 +118,16 @@
     <t>Brusque</t>
   </si>
   <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Paysandu</t>
+    <t>AD Confianca</t>
   </si>
   <si>
     <t>Ypiranga</t>
-  </si>
-  <si>
-    <t>AD Confianca</t>
   </si>
   <si>
     <t>Sao Bernardo SP</t>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6362011</v>
+        <v>6361796</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
+        <v>2.375</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>2.8</v>
       </c>
-      <c r="L3">
-        <v>2.9</v>
-      </c>
-      <c r="M3">
-        <v>2.4</v>
-      </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P3">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>1.775</v>
+      </c>
+      <c r="S3">
+        <v>2.025</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
         <v>1.875</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6361796</v>
+        <v>6362011</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P4">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
       <c r="W4">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1100,46 +1100,46 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1189,46 +1189,46 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
+        <v>5.5</v>
+      </c>
+      <c r="Q8">
+        <v>-0.75</v>
+      </c>
+      <c r="R8">
+        <v>1.7</v>
+      </c>
+      <c r="S8">
+        <v>2.1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>4.5</v>
-      </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.85</v>
-      </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6361625</v>
+        <v>6364922</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,53 +1266,53 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1320,19 +1320,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6364922</v>
+        <v>6361625</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,53 +1355,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
+        <v>1.533</v>
+      </c>
+      <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>5.5</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>4.2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>2.875</v>
-      </c>
-      <c r="P10">
-        <v>3.75</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.75</v>
-      </c>
-      <c r="S10">
-        <v>2.05</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1409,19 +1409,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -2245,7 +2245,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2334,7 +2334,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2423,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2512,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6361485</v>
+        <v>6361629</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>49</v>
       </c>
       <c r="K26">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L26">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N26">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q26">
         <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,16 +2836,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6361629</v>
+        <v>6361485</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M27">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q27">
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -3221,7 +3221,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6361460</v>
+        <v>6362012</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.775</v>
+      </c>
+      <c r="S32">
+        <v>2.025</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2.025</v>
+      </c>
+      <c r="V32">
+        <v>1.775</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>1.875</v>
       </c>
-      <c r="S32">
-        <v>1.925</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>3.75</v>
-      </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6362012</v>
+        <v>6361460</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,55 +3399,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N33">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3456,19 +3456,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>45095.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3755,7 +3755,7 @@
         <v>45095.6875</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3844,7 +3844,7 @@
         <v>45095.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3933,7 +3933,7 @@
         <v>45096.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4200,10 +4200,10 @@
         <v>45101.66666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4467,7 +4467,7 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4559,7 +4559,7 @@
         <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4823,10 +4823,10 @@
         <v>45104.83333333334</v>
       </c>
       <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,16 +5090,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -5114,52 +5114,52 @@
         <v>3.6</v>
       </c>
       <c r="N52">
+        <v>2.15</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3.25</v>
+      </c>
+      <c r="Q52">
+        <v>-0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.9</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
         <v>1.8</v>
       </c>
-      <c r="O52">
-        <v>3.2</v>
-      </c>
-      <c r="P52">
-        <v>4.333</v>
-      </c>
-      <c r="Q52">
+      <c r="V52">
+        <v>2</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
         <v>-0.5</v>
       </c>
-      <c r="R52">
-        <v>1.85</v>
-      </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>2.25</v>
-      </c>
-      <c r="U52">
-        <v>2.025</v>
-      </c>
-      <c r="V52">
-        <v>1.775</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.2</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,16 +5179,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -5203,52 +5203,52 @@
         <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.875</v>
-      </c>
-      <c r="V55">
-        <v>1.925</v>
-      </c>
       <c r="W55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6361945</v>
+        <v>6361804</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>50</v>
       </c>
       <c r="K58">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L58">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U58">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
+        <v>0.825</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
         <v>-0</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
-      <c r="AC58">
-        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6361804</v>
+        <v>6361945</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>50</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,13 +5802,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5817,34 +5817,34 @@
         <v>49</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>1.9</v>
@@ -5853,7 +5853,7 @@
         <v>1.9</v>
       </c>
       <c r="W60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5862,16 +5862,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
         <v>-0</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
-      <c r="AC60">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,13 +5891,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5906,34 +5906,34 @@
         <v>49</v>
       </c>
       <c r="K61">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
         <v>1.9</v>
@@ -5942,7 +5942,7 @@
         <v>1.9</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5995,41 +5995,41 @@
         <v>51</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
         <v>1.925</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.875</v>
       </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,10 +6069,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
         <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6084,40 +6084,40 @@
         <v>51</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6161,7 +6161,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6339,7 +6339,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6692,7 +6692,7 @@
         <v>45117.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>48</v>
@@ -6873,7 +6873,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6959,7 +6959,7 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>38</v>
@@ -7137,7 +7137,7 @@
         <v>45122.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P77">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7671,7 +7671,7 @@
         <v>45124.83333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6361465</v>
+        <v>6362496</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K82">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L82">
         <v>3</v>
       </c>
       <c r="M82">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N82">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>1.875</v>
+      </c>
+      <c r="S82">
+        <v>1.925</v>
+      </c>
+      <c r="T82">
+        <v>1.75</v>
+      </c>
+      <c r="U82">
+        <v>1.775</v>
+      </c>
+      <c r="V82">
         <v>2.025</v>
       </c>
-      <c r="S82">
-        <v>1.775</v>
-      </c>
-      <c r="T82">
-        <v>2</v>
-      </c>
-      <c r="U82">
-        <v>1.95</v>
-      </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
       <c r="W82">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.925</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>1.025</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
-      <c r="AC82">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6362496</v>
+        <v>6361465</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L84">
         <v>3</v>
       </c>
       <c r="M84">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O84">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
+        <v>1.85</v>
+      </c>
+      <c r="W84">
         <v>1.75</v>
       </c>
-      <c r="U84">
-        <v>1.775</v>
-      </c>
-      <c r="V84">
-        <v>2.025</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,52 +8119,52 @@
         <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3</v>
       </c>
       <c r="M86">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
       </c>
-      <c r="S86">
-        <v>2</v>
-      </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8173,19 +8173,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,52 +8208,52 @@
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N87">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
         <v>3.1</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
         <v>1.8</v>
       </c>
-      <c r="T87">
-        <v>2</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8262,19 +8262,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6361948</v>
+        <v>6361638</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,61 +8472,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>50</v>
       </c>
       <c r="K90">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
+        <v>3.2</v>
+      </c>
+      <c r="M90">
         <v>3.1</v>
-      </c>
-      <c r="M90">
-        <v>2.625</v>
       </c>
       <c r="N90">
         <v>2.1</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>1.75</v>
       </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
       <c r="V90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8535,13 +8535,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB90">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6361638</v>
+        <v>6361948</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,61 +8561,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>50</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N91">
         <v>2.1</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q91">
         <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8624,13 +8624,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8653,7 +8653,7 @@
         <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,58 +8828,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8888,16 +8888,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,58 +8917,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O95">
+        <v>3.25</v>
+      </c>
+      <c r="P95">
         <v>3.75</v>
       </c>
-      <c r="P95">
-        <v>7</v>
-      </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W95">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8977,16 +8977,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9009,7 +9009,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M99">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
+        <v>2.875</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="P99">
-        <v>5.75</v>
-      </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9632,7 +9632,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6362219</v>
+        <v>6362016</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,49 +9985,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>50</v>
       </c>
       <c r="K107">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>2.5</v>
+      </c>
+      <c r="N107">
+        <v>3.2</v>
+      </c>
+      <c r="O107">
         <v>3.1</v>
       </c>
-      <c r="M107">
-        <v>4</v>
-      </c>
-      <c r="N107">
-        <v>1.85</v>
-      </c>
-      <c r="O107">
-        <v>3</v>
-      </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.775</v>
@@ -10039,22 +10039,22 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6362016</v>
+        <v>6362219</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L109">
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>1.85</v>
+      </c>
+      <c r="O109">
         <v>3</v>
       </c>
-      <c r="M109">
-        <v>2.5</v>
-      </c>
-      <c r="N109">
-        <v>3.2</v>
-      </c>
-      <c r="O109">
-        <v>3.1</v>
-      </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U109">
         <v>1.775</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6361467</v>
+        <v>6361642</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,76 +10252,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L110">
         <v>3</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P110">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6361642</v>
+        <v>6361467</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,76 +10341,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,58 +10430,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N112">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10611,7 +10611,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10786,7 +10786,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -10878,7 +10878,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10964,7 +10964,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>43</v>
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N119">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>1.75</v>
+      </c>
+      <c r="U119">
         <v>1.8</v>
       </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N120">
+        <v>1.533</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>5.5</v>
+      </c>
+      <c r="Q120">
+        <v>-1</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
+        <v>2.25</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="O120">
-        <v>3</v>
-      </c>
-      <c r="P120">
-        <v>4.2</v>
-      </c>
-      <c r="Q120">
+      <c r="W120">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>-0.5</v>
       </c>
-      <c r="R120">
-        <v>1.95</v>
-      </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
-      <c r="T120">
-        <v>1.75</v>
-      </c>
-      <c r="U120">
-        <v>1.8</v>
-      </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>2</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
-      <c r="AA120">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>0.8</v>
-      </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,73 +11320,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M122">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N122">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P122">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
         <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.85</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>1.825</v>
+      </c>
+      <c r="V122">
+        <v>1.975</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>1.875</v>
       </c>
-      <c r="S122">
-        <v>1.925</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
-      <c r="U122">
-        <v>1.8</v>
-      </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,73 +11409,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N123">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q123">
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11498,7 +11498,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>41</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6362393</v>
+        <v>6361950</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,10 +11676,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11691,46 +11691,46 @@
         <v>50</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
         <v>2</v>
       </c>
       <c r="O126">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11739,13 +11739,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6361950</v>
+        <v>6362393</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,10 +11765,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11780,46 +11780,46 @@
         <v>50</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
         <v>2</v>
       </c>
       <c r="O127">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P127">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V127">
+        <v>1.8</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
         <v>1.875</v>
-      </c>
-      <c r="W127">
-        <v>-1</v>
-      </c>
-      <c r="X127">
-        <v>1.9</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -11828,13 +11828,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6361814</v>
+        <v>6362392</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,58 +11854,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L128">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O128">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
         <v>1.775</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>2.025</v>
       </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
-      <c r="U128">
-        <v>1.75</v>
-      </c>
-      <c r="V128">
-        <v>2.05</v>
-      </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11914,16 +11914,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.95</v>
+      </c>
+      <c r="AB128">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6362392</v>
+        <v>6361814</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,58 +11943,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N129">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12003,16 +12003,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12124,7 +12124,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6362222</v>
+        <v>6361470</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,46 +12210,46 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
         <v>2</v>
@@ -12261,25 +12261,25 @@
         <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X132">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6361495</v>
+        <v>6362459</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,10 +12299,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12314,43 +12314,43 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12359,7 +12359,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12368,7 +12368,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6363212</v>
+        <v>6362018</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,40 +12388,40 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>31</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P134">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R134">
         <v>1.925</v>
@@ -12430,34 +12430,34 @@
         <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.95</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6361470</v>
+        <v>6362222</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,46 +12477,46 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
         <v>2</v>
@@ -12528,25 +12528,25 @@
         <v>2</v>
       </c>
       <c r="W135">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6362459</v>
+        <v>6361815</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O136">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361647</v>
+        <v>6361965</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q137">
         <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6361648</v>
+        <v>6361495</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L138">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N138">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P138">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6361815</v>
+        <v>6363212</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O139">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6361965</v>
+        <v>6361648</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L140">
+        <v>2.75</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140">
         <v>3</v>
       </c>
-      <c r="M140">
-        <v>3.3</v>
-      </c>
-      <c r="N140">
-        <v>1.65</v>
-      </c>
-      <c r="O140">
-        <v>3.2</v>
-      </c>
       <c r="P140">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z140">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6362018</v>
+        <v>6361647</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141">
+        <v>2.45</v>
+      </c>
+      <c r="L141">
         <v>3</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141" t="s">
-        <v>49</v>
-      </c>
-      <c r="K141">
-        <v>1.333</v>
-      </c>
-      <c r="L141">
-        <v>4.5</v>
-      </c>
       <c r="M141">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>45172.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>48</v>
@@ -13367,7 +13367,7 @@
         <v>45172.75</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13459,7 +13459,7 @@
         <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13726,7 +13726,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13990,10 +13990,10 @@
         <v>45186.66666666666</v>
       </c>
       <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" t="s">
         <v>35</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,46 +14168,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L154">
         <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
         <v>2</v>
@@ -14219,19 +14219,19 @@
         <v>1.8</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA154">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>1</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,46 +14257,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K155">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
         <v>3.1</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O155">
         <v>3</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T155">
         <v>2</v>
@@ -14308,19 +14308,19 @@
         <v>1.8</v>
       </c>
       <c r="W155">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB155">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14791,7 +14791,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7141426</v>
+        <v>7141425</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,13 +14880,13 @@
         <v>45206.75</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
         <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -14895,43 +14895,43 @@
         <v>49</v>
       </c>
       <c r="K162">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L162">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N162">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P162">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
         <v>1.825</v>
       </c>
-      <c r="V162">
-        <v>1.975</v>
-      </c>
       <c r="W162">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,7 +14940,7 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14949,7 +14949,7 @@
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7141425</v>
+        <v>7141426</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,13 +14969,13 @@
         <v>45206.75</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G163" t="s">
         <v>34</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -14984,43 +14984,43 @@
         <v>49</v>
       </c>
       <c r="K163">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M163">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
+        <v>1.825</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
       <c r="W163">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,7 +15029,7 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -15038,7 +15038,7 @@
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7141413</v>
+        <v>7141414</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
         <v>3.2</v>
       </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7141414</v>
+        <v>7141413</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T165">
         <v>2</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -118,10 +118,10 @@
     <t>Brusque</t>
   </si>
   <si>
-    <t>Paysandu</t>
+    <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Botafogo PB</t>
+    <t>Paysandu</t>
   </si>
   <si>
     <t>AD Confianca</t>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1100,46 +1100,46 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>3.6</v>
+      </c>
+      <c r="P7">
+        <v>5.5</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.7</v>
+      </c>
+      <c r="S7">
+        <v>2.1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>4.5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>1.95</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1189,46 +1189,46 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6362384</v>
+        <v>6758548</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,46 +2598,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
+        <v>3.75</v>
+      </c>
+      <c r="N24">
+        <v>1.909</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>2.4</v>
-      </c>
-      <c r="O24">
-        <v>2.75</v>
-      </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -2649,25 +2649,25 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6758548</v>
+        <v>6362384</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,46 +2687,46 @@
         <v>45088.6875</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T25">
         <v>2</v>
@@ -2738,25 +2738,25 @@
         <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6361629</v>
+        <v>6758547</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,49 +2776,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
         <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
         <v>1.825</v>
@@ -2827,19 +2827,19 @@
         <v>1.975</v>
       </c>
       <c r="W26">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6758547</v>
+        <v>6361629</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,49 +2954,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
         <v>1.825</v>
@@ -3005,19 +3005,19 @@
         <v>1.975</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6362556</v>
+        <v>6362383</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA29">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6362383</v>
+        <v>6362556</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z30">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>45095.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3933,7 +3933,7 @@
         <v>45096.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4823,10 +4823,10 @@
         <v>45104.83333333334</v>
       </c>
       <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
         <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,16 +5090,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -5114,52 +5114,52 @@
         <v>3.6</v>
       </c>
       <c r="N52">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,16 +5179,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -5203,52 +5203,52 @@
         <v>3.6</v>
       </c>
       <c r="N53">
+        <v>2.15</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3.25</v>
+      </c>
+      <c r="Q53">
+        <v>-0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.9</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>1.8</v>
       </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>4.333</v>
-      </c>
-      <c r="Q53">
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>-0.5</v>
       </c>
-      <c r="R53">
-        <v>1.85</v>
-      </c>
-      <c r="S53">
-        <v>1.95</v>
-      </c>
-      <c r="T53">
-        <v>2.25</v>
-      </c>
-      <c r="U53">
-        <v>2.025</v>
-      </c>
-      <c r="V53">
-        <v>1.775</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.2</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
         <v>1.825</v>
       </c>
-      <c r="S54">
-        <v>1.975</v>
-      </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.875</v>
-      </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
       <c r="W54">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,13 +5802,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5817,34 +5817,34 @@
         <v>49</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
         <v>1.9</v>
@@ -5853,7 +5853,7 @@
         <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5862,16 +5862,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,13 +5891,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5906,34 +5906,34 @@
         <v>49</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U61">
         <v>1.9</v>
@@ -5942,7 +5942,7 @@
         <v>1.9</v>
       </c>
       <c r="W61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
         <v>-0</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5995,40 +5995,40 @@
         <v>51</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,10 +6069,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6084,41 +6084,41 @@
         <v>51</v>
       </c>
       <c r="K63">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
         <v>1.925</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,55 +6247,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>51</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N65">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6304,19 +6304,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>51</v>
       </c>
       <c r="K66">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,76 +6870,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>45122.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7671,7 +7671,7 @@
         <v>45124.83333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -8208,7 +8208,7 @@
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L92">
         <v>3.1</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
+        <v>0.4</v>
+      </c>
+      <c r="AC92">
         <v>-0.5</v>
-      </c>
-      <c r="AC92">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,76 +8739,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,58 +8828,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O94">
+        <v>3.25</v>
+      </c>
+      <c r="P94">
         <v>3.75</v>
       </c>
-      <c r="P94">
-        <v>7</v>
-      </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W94">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8888,16 +8888,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,58 +8917,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8977,16 +8977,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O96">
         <v>3.1</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>1.85</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>0.475</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="R96">
-        <v>1.85</v>
-      </c>
-      <c r="S96">
-        <v>1.95</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
-      <c r="U96">
-        <v>1.775</v>
-      </c>
-      <c r="V96">
-        <v>2.025</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>2.1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
-      <c r="AA96">
-        <v>0.95</v>
-      </c>
       <c r="AB96">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,76 +9095,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O97">
         <v>3.1</v>
       </c>
       <c r="P97">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
         <v>1.95</v>
       </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
       <c r="T97">
         <v>2</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M98">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N98">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
+        <v>2.875</v>
+      </c>
+      <c r="P98">
         <v>3.4</v>
       </c>
-      <c r="P98">
-        <v>5.75</v>
-      </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L99">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6362016</v>
+        <v>6361963</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O107">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
         <v>2</v>
       </c>
       <c r="U107">
+        <v>2.025</v>
+      </c>
+      <c r="V107">
         <v>1.775</v>
       </c>
-      <c r="V107">
-        <v>2.025</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X107">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6361963</v>
+        <v>6362219</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L108">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U108">
+        <v>1.775</v>
+      </c>
+      <c r="V108">
         <v>2.025</v>
       </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
       <c r="W108">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6362219</v>
+        <v>6362016</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>2.5</v>
+      </c>
+      <c r="N109">
+        <v>3.2</v>
+      </c>
+      <c r="O109">
         <v>3.1</v>
       </c>
-      <c r="M109">
-        <v>4</v>
-      </c>
-      <c r="N109">
-        <v>1.85</v>
-      </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
       <c r="P109">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U109">
         <v>1.775</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA109">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,58 +10430,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N113">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6362220</v>
+        <v>6361813</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F116" t="s">
+        <v>46</v>
+      </c>
+      <c r="G116" t="s">
         <v>34</v>
       </c>
-      <c r="G116" t="s">
-        <v>39</v>
-      </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
+        <v>1.95</v>
+      </c>
+      <c r="L116">
+        <v>3.2</v>
+      </c>
+      <c r="M116">
+        <v>3.5</v>
+      </c>
+      <c r="N116">
         <v>2.1</v>
       </c>
-      <c r="L116">
-        <v>2.875</v>
-      </c>
-      <c r="M116">
-        <v>3.4</v>
-      </c>
-      <c r="N116">
-        <v>1.85</v>
-      </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>1.75</v>
+      </c>
+      <c r="U116">
+        <v>1.775</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>2.1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
         <v>-0.5</v>
       </c>
-      <c r="R116">
-        <v>1.925</v>
-      </c>
-      <c r="S116">
-        <v>1.875</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>2</v>
-      </c>
-      <c r="V116">
-        <v>1.8</v>
-      </c>
-      <c r="W116">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.925</v>
-      </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6361813</v>
+        <v>6362220</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N117">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N119">
+        <v>1.533</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>5.5</v>
+      </c>
+      <c r="Q119">
+        <v>-1</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="O119">
-        <v>3</v>
-      </c>
-      <c r="P119">
-        <v>4.2</v>
-      </c>
-      <c r="Q119">
+      <c r="W119">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.95</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>1.75</v>
-      </c>
-      <c r="U119">
-        <v>1.8</v>
-      </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>2</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB119">
-        <v>0.8</v>
-      </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>1.75</v>
+      </c>
+      <c r="U120">
         <v>1.8</v>
       </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6362221</v>
+        <v>6361469</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,73 +11320,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L122">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N122">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q122">
         <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6361469</v>
+        <v>6362221</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,73 +11409,73 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M123">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
         <v>-0.5</v>
       </c>
       <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
+        <v>1.975</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>1.875</v>
       </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
-      <c r="T123">
-        <v>2</v>
-      </c>
-      <c r="U123">
-        <v>1.8</v>
-      </c>
-      <c r="V123">
-        <v>2</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
+        <v>1.75</v>
+      </c>
+      <c r="W124">
+        <v>0.8</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.75</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.875</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z124">
-        <v>-0.5</v>
-      </c>
-      <c r="AA124">
-        <v>0.5</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
-      <c r="AC124">
-        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>1.727</v>
+      </c>
+      <c r="Q125">
+        <v>0.75</v>
+      </c>
+      <c r="R125">
         <v>1.8</v>
       </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
-      <c r="P125">
-        <v>4.75</v>
-      </c>
-      <c r="Q125">
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.875</v>
+      </c>
+      <c r="V125">
+        <v>1.925</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.85</v>
-      </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>2.05</v>
-      </c>
-      <c r="V125">
-        <v>1.75</v>
-      </c>
-      <c r="W125">
-        <v>0.8</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6362392</v>
+        <v>6361814</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,58 +11854,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L128">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M128">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N128">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P128">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11914,16 +11914,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6361814</v>
+        <v>6362392</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,58 +11943,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L129">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M129">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N129">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O129">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R129">
+        <v>1.85</v>
+      </c>
+      <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
         <v>1.775</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="T129">
-        <v>2</v>
-      </c>
-      <c r="U129">
-        <v>1.75</v>
-      </c>
-      <c r="V129">
-        <v>2.05</v>
-      </c>
       <c r="W129">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12003,16 +12003,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.95</v>
+      </c>
+      <c r="AB129">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>0</v>
-      </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361470</v>
+        <v>6361815</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>3.3</v>
+      </c>
+      <c r="N132">
+        <v>2.2</v>
+      </c>
+      <c r="O132">
         <v>2.9</v>
       </c>
-      <c r="M132">
-        <v>2.8</v>
-      </c>
-      <c r="N132">
-        <v>1.833</v>
-      </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
       <c r="P132">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
+        <v>1.825</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.8</v>
-      </c>
-      <c r="V132">
-        <v>2</v>
-      </c>
       <c r="W132">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6362459</v>
+        <v>6361470</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,10 +12299,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12314,22 +12314,22 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q133">
         <v>-0.5</v>
@@ -12344,13 +12344,13 @@
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W133">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12368,7 +12368,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6362018</v>
+        <v>6361965</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,58 +12388,58 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>49</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O134">
+        <v>3.2</v>
+      </c>
+      <c r="P134">
         <v>5.25</v>
       </c>
-      <c r="P134">
-        <v>8</v>
-      </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>1.9</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
         <v>1.925</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12448,16 +12448,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6362222</v>
+        <v>6362018</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,73 +12477,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
+        <v>1.333</v>
+      </c>
+      <c r="L135">
+        <v>4.5</v>
+      </c>
+      <c r="M135">
+        <v>7</v>
+      </c>
+      <c r="N135">
+        <v>1.25</v>
+      </c>
+      <c r="O135">
+        <v>5.25</v>
+      </c>
+      <c r="P135">
+        <v>8</v>
+      </c>
+      <c r="Q135">
+        <v>-1.5</v>
+      </c>
+      <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
+        <v>1.875</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="L135">
-        <v>3.2</v>
-      </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-      <c r="N135">
-        <v>1.909</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
-      <c r="P135">
-        <v>4</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.775</v>
-      </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
-      <c r="T135">
-        <v>2</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6361815</v>
+        <v>6361648</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,55 +12566,55 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>51</v>
       </c>
       <c r="K136">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L136">
+        <v>2.75</v>
+      </c>
+      <c r="M136">
+        <v>2.25</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
-      <c r="M136">
-        <v>3.3</v>
-      </c>
-      <c r="N136">
-        <v>2.2</v>
-      </c>
-      <c r="O136">
-        <v>2.9</v>
-      </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12623,16 +12623,16 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6361965</v>
+        <v>6362222</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
         <v>3.2</v>
       </c>
       <c r="P137">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6361495</v>
+        <v>6361647</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O138">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W138">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6363212</v>
+        <v>6362459</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,31 +12833,31 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O139">
         <v>3.1</v>
@@ -12869,40 +12869,40 @@
         <v>-0.5</v>
       </c>
       <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.875</v>
+      </c>
+      <c r="V139">
         <v>1.925</v>
       </c>
-      <c r="S139">
-        <v>1.875</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6361648</v>
+        <v>6363212</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361647</v>
+        <v>6361495</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
+        <v>2.6</v>
+      </c>
+      <c r="L141">
+        <v>2.9</v>
+      </c>
+      <c r="M141">
+        <v>2.625</v>
+      </c>
+      <c r="N141">
         <v>2.45</v>
       </c>
-      <c r="L141">
-        <v>3</v>
-      </c>
-      <c r="M141">
-        <v>2.75</v>
-      </c>
-      <c r="N141">
-        <v>1.615</v>
-      </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>45172.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>48</v>
@@ -13367,7 +13367,7 @@
         <v>45172.75</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13459,7 +13459,7 @@
         <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13726,7 +13726,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13990,10 +13990,10 @@
         <v>45186.66666666666</v>
       </c>
       <c r="F152" t="s">
+        <v>35</v>
+      </c>
+      <c r="G152" t="s">
         <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14257,10 +14257,10 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
         <v>35</v>
-      </c>
-      <c r="G155" t="s">
-        <v>34</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14613,7 +14613,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14791,7 +14791,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14883,7 +14883,7 @@
         <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14972,7 +14972,7 @@
         <v>48</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -118,16 +118,16 @@
     <t>Brusque</t>
   </si>
   <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Paysandu</t>
+    <t>Ypiranga</t>
   </si>
   <si>
     <t>AD Confianca</t>
-  </si>
-  <si>
-    <t>Ypiranga</t>
   </si>
   <si>
     <t>Sao Bernardo SP</t>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6361795</v>
+        <v>6361626</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1100,46 +1100,46 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6361626</v>
+        <v>6361795</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1189,46 +1189,46 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
+        <v>5.5</v>
+      </c>
+      <c r="Q8">
+        <v>-0.75</v>
+      </c>
+      <c r="R8">
+        <v>1.7</v>
+      </c>
+      <c r="S8">
+        <v>2.1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>4.5</v>
-      </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.85</v>
-      </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6364922</v>
+        <v>6361625</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,53 +1266,53 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
+        <v>1.533</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>5.5</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>4.2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2.875</v>
-      </c>
-      <c r="P9">
-        <v>3.75</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.75</v>
-      </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>1.85</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1320,19 +1320,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6361625</v>
+        <v>6364922</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,53 +1355,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="V10">
-        <v>1.85</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1409,19 +1409,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2423,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6758547</v>
+        <v>6361485</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,76 +2776,76 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L26">
+        <v>2.8</v>
+      </c>
+      <c r="M26">
         <v>2.9</v>
       </c>
-      <c r="M26">
-        <v>3.4</v>
-      </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q26">
         <v>-0.5</v>
       </c>
       <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
         <v>1.8</v>
       </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
       <c r="T26">
         <v>2</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6361485</v>
+        <v>6361629</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
       </c>
       <c r="K27">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6361629</v>
+        <v>6758547</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,49 +2954,49 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
         <v>1.825</v>
@@ -3005,19 +3005,19 @@
         <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3043,7 +3043,7 @@
         <v>45089.83333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3221,7 +3221,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6362012</v>
+        <v>6361460</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,55 +3310,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3367,19 +3367,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6361460</v>
+        <v>6362012</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.775</v>
+      </c>
+      <c r="S33">
+        <v>2.025</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.025</v>
+      </c>
+      <c r="V33">
+        <v>1.775</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
         <v>1.875</v>
       </c>
-      <c r="S33">
-        <v>1.925</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.825</v>
-      </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>3.75</v>
-      </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3755,7 +3755,7 @@
         <v>45095.6875</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3844,7 +3844,7 @@
         <v>45095.79166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3933,7 +3933,7 @@
         <v>45096.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4203,7 +4203,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4559,7 +4559,7 @@
         <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4823,10 +4823,10 @@
         <v>45104.83333333334</v>
       </c>
       <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,16 +5090,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -5114,52 +5114,52 @@
         <v>3.6</v>
       </c>
       <c r="N52">
+        <v>2.15</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3.25</v>
+      </c>
+      <c r="Q52">
+        <v>-0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.9</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
         <v>1.8</v>
       </c>
-      <c r="O52">
-        <v>3.2</v>
-      </c>
-      <c r="P52">
-        <v>4.333</v>
-      </c>
-      <c r="Q52">
+      <c r="V52">
+        <v>2</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
         <v>-0.5</v>
       </c>
-      <c r="R52">
-        <v>1.85</v>
-      </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>2.25</v>
-      </c>
-      <c r="U52">
-        <v>2.025</v>
-      </c>
-      <c r="V52">
-        <v>1.775</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.2</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,16 +5179,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -5203,52 +5203,52 @@
         <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.875</v>
-      </c>
-      <c r="V55">
-        <v>1.925</v>
-      </c>
       <c r="W55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6362014</v>
+        <v>6732852</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,13 +5802,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5817,34 +5817,34 @@
         <v>49</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>1.9</v>
@@ -5853,7 +5853,7 @@
         <v>1.9</v>
       </c>
       <c r="W60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5862,16 +5862,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
         <v>-0</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
-      <c r="AC60">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6732852</v>
+        <v>6362014</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,13 +5891,13 @@
         <v>45110.83333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5906,34 +5906,34 @@
         <v>49</v>
       </c>
       <c r="K61">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
         <v>1.9</v>
@@ -5942,7 +5942,7 @@
         <v>1.9</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5995,41 +5995,41 @@
         <v>51</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
         <v>1.925</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.875</v>
       </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,10 +6069,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
         <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6084,40 +6084,40 @@
         <v>51</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6361488</v>
+        <v>6361946</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,55 +6247,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>51</v>
       </c>
       <c r="K65">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6304,19 +6304,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6361946</v>
+        <v>6361488</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45116.6875</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>51</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L66">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L67">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M67">
+        <v>3.2</v>
+      </c>
+      <c r="N67">
+        <v>2.3</v>
+      </c>
+      <c r="O67">
         <v>3.1</v>
       </c>
-      <c r="N67">
-        <v>2.15</v>
-      </c>
-      <c r="O67">
-        <v>2.9</v>
-      </c>
       <c r="P67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q67">
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X67">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
+        <v>2.25</v>
+      </c>
+      <c r="L68">
+        <v>2.875</v>
+      </c>
+      <c r="M68">
+        <v>3.1</v>
+      </c>
+      <c r="N68">
         <v>2.15</v>
       </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <v>3.2</v>
-      </c>
-      <c r="N68">
-        <v>2.3</v>
-      </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,73 +6606,73 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69">
+        <v>2.3</v>
+      </c>
+      <c r="L69">
+        <v>2.875</v>
+      </c>
+      <c r="M69">
         <v>3</v>
       </c>
-      <c r="I69">
+      <c r="N69">
+        <v>2.3</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>50</v>
-      </c>
-      <c r="K69">
+      <c r="P69">
+        <v>3.1</v>
+      </c>
+      <c r="Q69">
+        <v>-0.25</v>
+      </c>
+      <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.775</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.25</v>
-      </c>
-      <c r="M69">
-        <v>3.8</v>
-      </c>
-      <c r="N69">
-        <v>1.909</v>
-      </c>
-      <c r="O69">
-        <v>3.25</v>
-      </c>
-      <c r="P69">
-        <v>3.8</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>2</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>1.825</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,73 +6695,73 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
         <v>2</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6962,7 +6962,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7137,7 +7137,7 @@
         <v>45122.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7493,7 +7493,7 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7671,7 +7671,7 @@
         <v>45124.83333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6361639</v>
+        <v>6361465</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N83">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
+        <v>2.025</v>
+      </c>
+      <c r="S83">
+        <v>1.775</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2.025</v>
-      </c>
-      <c r="V83">
-        <v>1.775</v>
-      </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6361465</v>
+        <v>6361639</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s">
         <v>36</v>
       </c>
-      <c r="G84" t="s">
-        <v>41</v>
-      </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N84">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>1.85</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
         <v>2.025</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.775</v>
       </c>
-      <c r="T84">
-        <v>2</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6363210</v>
+        <v>6361808</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,55 +8116,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
         <v>3</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8173,19 +8173,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6361808</v>
+        <v>6363210</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,55 +8205,55 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O87">
         <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
       </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8262,19 +8262,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6362218</v>
+        <v>6362390</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,40 +8294,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
         <v>1.85</v>
@@ -8339,31 +8339,31 @@
         <v>2</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6362390</v>
+        <v>6362218</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,40 +8383,40 @@
         <v>45130.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>4.5</v>
+      </c>
+      <c r="N89">
+        <v>1.85</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
         <v>4.2</v>
       </c>
-      <c r="N89">
-        <v>2.15</v>
-      </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.85</v>
@@ -8428,31 +8428,31 @@
         <v>2</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6361638</v>
+        <v>6361948</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,61 +8472,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>50</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
         <v>2.1</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8535,13 +8535,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB90">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6361948</v>
+        <v>6361638</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,61 +8561,61 @@
         <v>45131.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>50</v>
       </c>
       <c r="K91">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
+        <v>3.2</v>
+      </c>
+      <c r="M91">
         <v>3.1</v>
-      </c>
-      <c r="M91">
-        <v>2.625</v>
       </c>
       <c r="N91">
         <v>2.1</v>
       </c>
       <c r="O91">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q91">
         <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>1.75</v>
       </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
       <c r="V91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8624,13 +8624,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB91">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L92">
         <v>3.1</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,76 +8739,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
+        <v>1.75</v>
+      </c>
+      <c r="U93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
+        <v>0.4</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="AC93">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6361640</v>
+        <v>6361809</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,58 +8828,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8888,16 +8888,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6361809</v>
+        <v>6361640</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,58 +8917,58 @@
         <v>45136.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O95">
+        <v>3.25</v>
+      </c>
+      <c r="P95">
         <v>3.75</v>
       </c>
-      <c r="P95">
-        <v>7</v>
-      </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W95">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8977,16 +8977,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6362458</v>
+        <v>6361491</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O96">
         <v>3.1</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
       <c r="T96">
         <v>2</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6361491</v>
+        <v>6362458</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,76 +9095,76 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
         <v>3.1</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.475</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>1.85</v>
-      </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.775</v>
-      </c>
-      <c r="V97">
-        <v>2.025</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.95</v>
-      </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6363211</v>
+        <v>6361810</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6361810</v>
+        <v>6363211</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45137.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M99">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
+        <v>2.875</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="P99">
-        <v>5.75</v>
-      </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,46 +9540,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,46 +9629,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O103">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y103">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9718,7 +9718,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6362219</v>
+        <v>6362016</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,49 +10074,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>50</v>
       </c>
       <c r="K108">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+      <c r="N108">
+        <v>3.2</v>
+      </c>
+      <c r="O108">
         <v>3.1</v>
       </c>
-      <c r="M108">
-        <v>4</v>
-      </c>
-      <c r="N108">
-        <v>1.85</v>
-      </c>
-      <c r="O108">
-        <v>3</v>
-      </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.775</v>
@@ -10128,22 +10128,22 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6362016</v>
+        <v>6362219</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L109">
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>1.85</v>
+      </c>
+      <c r="O109">
         <v>3</v>
       </c>
-      <c r="M109">
-        <v>2.5</v>
-      </c>
-      <c r="N109">
-        <v>3.2</v>
-      </c>
-      <c r="O109">
-        <v>3.1</v>
-      </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U109">
         <v>1.775</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10341,7 +10341,7 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>44</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,58 +10430,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N112">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10789,7 +10789,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10875,7 +10875,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
         <v>39</v>
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6361493</v>
+        <v>6361643</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N119">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>1.75</v>
+      </c>
+      <c r="U119">
         <v>1.8</v>
       </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6361643</v>
+        <v>6361493</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45151.79166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N120">
+        <v>1.533</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>5.5</v>
+      </c>
+      <c r="Q120">
+        <v>-1</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
+        <v>2.25</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="O120">
-        <v>3</v>
-      </c>
-      <c r="P120">
-        <v>4.2</v>
-      </c>
-      <c r="Q120">
+      <c r="W120">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>-0.5</v>
       </c>
-      <c r="R120">
-        <v>1.95</v>
-      </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
-      <c r="T120">
-        <v>1.75</v>
-      </c>
-      <c r="U120">
-        <v>1.8</v>
-      </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>2</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
-      <c r="AA120">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>0.8</v>
-      </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11320,10 +11320,10 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6361645</v>
+        <v>6361964</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>1.727</v>
+      </c>
+      <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
         <v>1.8</v>
       </c>
-      <c r="O124">
-        <v>3</v>
-      </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
-      <c r="Q124">
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.875</v>
+      </c>
+      <c r="V124">
+        <v>1.925</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>2.05</v>
-      </c>
-      <c r="V124">
-        <v>1.75</v>
-      </c>
-      <c r="W124">
-        <v>0.8</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6361964</v>
+        <v>6361645</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q125">
+        <v>-0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>1.75</v>
+      </c>
+      <c r="W125">
+        <v>0.8</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.75</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.875</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z125">
-        <v>-0.5</v>
-      </c>
-      <c r="AA125">
-        <v>0.5</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
-      <c r="AC125">
-        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6361950</v>
+        <v>6362393</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,10 +11676,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11691,46 +11691,46 @@
         <v>50</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
         <v>2</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V126">
+        <v>1.8</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
         <v>1.875</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>1.9</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11739,13 +11739,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6362393</v>
+        <v>6361950</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,10 +11765,10 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11780,46 +11780,46 @@
         <v>50</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N127">
         <v>2</v>
       </c>
       <c r="O127">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
         <v>2</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -11828,13 +11828,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6361814</v>
+        <v>6362392</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,58 +11854,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L128">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O128">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
         <v>1.775</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>2.025</v>
       </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
-      <c r="U128">
-        <v>1.75</v>
-      </c>
-      <c r="V128">
-        <v>2.05</v>
-      </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11914,16 +11914,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.95</v>
+      </c>
+      <c r="AB128">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6362392</v>
+        <v>6361814</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,58 +11943,58 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N129">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12003,16 +12003,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12124,7 +12124,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6361815</v>
+        <v>6361647</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,10 +12299,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6361965</v>
+        <v>6361495</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,10 +12388,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12403,43 +12403,43 @@
         <v>49</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M134">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N134">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P134">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T134">
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12448,16 +12448,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6362018</v>
+        <v>6361648</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,73 +12477,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>51</v>
+      </c>
+      <c r="K135">
+        <v>3.25</v>
+      </c>
+      <c r="L135">
+        <v>2.75</v>
+      </c>
+      <c r="M135">
+        <v>2.25</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>49</v>
-      </c>
-      <c r="K135">
-        <v>1.333</v>
-      </c>
-      <c r="L135">
-        <v>4.5</v>
-      </c>
-      <c r="M135">
-        <v>7</v>
-      </c>
-      <c r="N135">
-        <v>1.25</v>
-      </c>
-      <c r="O135">
-        <v>5.25</v>
-      </c>
       <c r="P135">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q135">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6361648</v>
+        <v>6361965</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L136">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2</v>
       </c>
       <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6362222</v>
+        <v>6361815</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,73 +12655,73 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137">
+        <v>2.15</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>3.3</v>
+      </c>
+      <c r="N137">
+        <v>2.2</v>
+      </c>
+      <c r="O137">
+        <v>2.9</v>
+      </c>
+      <c r="P137">
+        <v>3.25</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.975</v>
+      </c>
+      <c r="S137">
+        <v>1.825</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
         <v>1.85</v>
       </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>4</v>
-      </c>
-      <c r="N137">
-        <v>1.909</v>
-      </c>
-      <c r="O137">
-        <v>3.2</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
-      <c r="Q137">
-        <v>-0.5</v>
-      </c>
-      <c r="R137">
-        <v>1.775</v>
-      </c>
-      <c r="S137">
-        <v>2.025</v>
-      </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6361647</v>
+        <v>6362018</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N138">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.95</v>
+      </c>
+      <c r="V138">
         <v>1.85</v>
       </c>
-      <c r="S138">
-        <v>1.95</v>
-      </c>
-      <c r="T138">
-        <v>2</v>
-      </c>
-      <c r="U138">
-        <v>1.75</v>
-      </c>
-      <c r="V138">
-        <v>2.05</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
         <v>0.95</v>
       </c>
-      <c r="AB138">
-        <v>0</v>
-      </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6362459</v>
+        <v>6362222</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>1.909</v>
+      </c>
+      <c r="O139">
         <v>3.2</v>
       </c>
-      <c r="N139">
-        <v>1.8</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.2</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.025</v>
+      </c>
+      <c r="AB139">
         <v>0.8</v>
       </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6363212</v>
+        <v>6362459</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,31 +12922,31 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
         <v>3.1</v>
@@ -12958,40 +12958,40 @@
         <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="S140">
-        <v>1.875</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.85</v>
-      </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6361495</v>
+        <v>6363212</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>45172.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>48</v>
@@ -13367,7 +13367,7 @@
         <v>45172.75</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13459,7 +13459,7 @@
         <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13726,7 +13726,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13990,10 +13990,10 @@
         <v>45186.66666666666</v>
       </c>
       <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" t="s">
         <v>35</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7141409</v>
+        <v>7141421</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,46 +14168,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
         <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
         <v>2</v>
@@ -14219,19 +14219,19 @@
         <v>1.8</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB154">
         <v>1</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7141421</v>
+        <v>7141409</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,46 +14257,46 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L155">
         <v>3.1</v>
       </c>
       <c r="M155">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O155">
         <v>3</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
         <v>2</v>
@@ -14308,19 +14308,19 @@
         <v>1.8</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
         <v>1</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7141410</v>
+        <v>7141422</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,13 +14346,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -14361,40 +14361,40 @@
         <v>51</v>
       </c>
       <c r="K156">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O156">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q156">
         <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14403,19 +14403,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7141422</v>
+        <v>7141410</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,13 +14435,13 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14450,40 +14450,40 @@
         <v>51</v>
       </c>
       <c r="K157">
+        <v>2.05</v>
+      </c>
+      <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>3.3</v>
+      </c>
+      <c r="N157">
         <v>1.909</v>
       </c>
-      <c r="L157">
-        <v>3.25</v>
-      </c>
-      <c r="M157">
-        <v>3.6</v>
-      </c>
-      <c r="N157">
-        <v>1.85</v>
-      </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14492,19 +14492,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC157">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14791,7 +14791,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14883,7 +14883,7 @@
         <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14972,7 +14972,7 @@
         <v>48</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>

--- a/Brazil Serie C/Brazil Serie C.xlsx
+++ b/Brazil Serie C/Brazil Serie C.xlsx
@@ -124,10 +124,10 @@
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Ypiranga</t>
+    <t>AD Confianca</t>
   </si>
   <si>
-    <t>AD Confianca</t>
+    <t>Ypiranga</t>
   </si>
   <si>
     <t>Sao Bernardo SP</t>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6361625</v>
+        <v>6364922</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,53 +1266,53 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1320,19 +1320,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6364922</v>
+        <v>6361625</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,53 +1355,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
+        <v>1.533</v>
+      </c>
+      <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>5.5</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>4.2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>2.875</v>
-      </c>
-      <c r="P10">
-        <v>3.75</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.75</v>
-      </c>
-      <c r="S10">
-        <v>2.05</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1409,19 +1409,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2865,7 +2865,7 @@
         <v>45088.79166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -3221,7 +3221,7 @@
         <v>45089.89583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3313,7 +3313,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>45095.6875</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -4203,7 +4203,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4559,7 +4559,7 @@
         <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6361462</v>
+        <v>6732851</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,16 +5090,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -5114,52 +5114,52 @@
         <v>3.6</v>
       </c>
       <c r="N52">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6732851</v>
+        <v>6361462</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,16 +5179,16 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -5203,52 +5203,52 @@
         <v>3.6</v>
       </c>
       <c r="N53">
+        <v>2.15</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3.25</v>
+      </c>
+      <c r="Q53">
+        <v>-0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.9</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>1.8</v>
       </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>4.333</v>
-      </c>
-      <c r="Q53">
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>-0.5</v>
       </c>
-      <c r="R53">
-        <v>1.85</v>
-      </c>
-      <c r="S53">
-        <v>1.95</v>
-      </c>
-      <c r="T53">
-        <v>2.25</v>
-      </c>
-      <c r="U53">
-        <v>2.025</v>
-      </c>
-      <c r="V53">
-        <v>1.775</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.2</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6362495</v>
+        <v>6362387</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
         <v>1.825</v>
       </c>
-      <c r="S54">
-        <v>1.975</v>
-      </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.875</v>
-      </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
       <c r="W54">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6362387</v>
+        <v>6362495</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45108.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6870275</v>
+        <v>6362388</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5995,40 +5995,40 @@
         <v>51</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6362388</v>
+        <v>6870275</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,10 +6069,10 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6084,41 +6084,41 @@
         <v>51</v>
       </c>
       <c r="K63">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
         <v>1.925</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6361635</v>
+        <v>6362457</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
+        <v>2.25</v>
+      </c>
+      <c r="L67">
+        <v>2.875</v>
+      </c>
+      <c r="M67">
+        <v>3.1</v>
+      </c>
+      <c r="N67">
         <v>2.15</v>
       </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>3.2</v>
-      </c>
-      <c r="N67">
-        <v>2.3</v>
-      </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q67">
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U67">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V67">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB67">
-        <v>1.075</v>
+        <v>0.375</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6362457</v>
+        <v>6361635</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45116.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M68">
+        <v>3.2</v>
+      </c>
+      <c r="N68">
+        <v>2.3</v>
+      </c>
+      <c r="O68">
         <v>3.1</v>
       </c>
-      <c r="N68">
-        <v>2.15</v>
-      </c>
-      <c r="O68">
-        <v>2.9</v>
-      </c>
       <c r="P68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V68">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X68">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.375</v>
+        <v>1.075</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6361463</v>
+        <v>6361634</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,73 +6606,73 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6361634</v>
+        <v>6361463</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,73 +6695,73 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K70">
+        <v>2.3</v>
+      </c>
+      <c r="L70">
+        <v>2.875</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="I70">
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>50</v>
-      </c>
-      <c r="K70">
+      <c r="P70">
+        <v>3.1</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.25</v>
-      </c>
-      <c r="M70">
-        <v>3.8</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.25</v>
-      </c>
-      <c r="P70">
-        <v>3.8</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.975</v>
-      </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6362618</v>
+        <v>6361464</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,76 +6870,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X72">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6361464</v>
+        <v>6362618</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6361636</v>
+        <v>6910791</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6910791</v>
+        <v>6361636</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P77">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>45123.79166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7849,7 +7849,7 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -7941,7 +7941,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6361466</v>
+        <v>6361962</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L92">
         <v>3.1</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
+        <v>0.4</v>
+      </c>
+      <c r="AC92">
         <v>-0.5</v>
-      </c>
-      <c r="AC92">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6361962</v>
+        <v>6361466</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,76 +8739,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8920,7 +8920,7 @@
         <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6362558</v>
+        <v>6362497</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,46 +9540,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O102">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
         <v>2</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6362497</v>
+        <v>6362558</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,46 +9629,46 @@
         <v>45143.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9718,7 +9718,7 @@
         <v>45143.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6361642</v>
+        <v>6361467</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,76 +10252,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
         <v>3</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X110">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6361467</v>
+        <v>6361642</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,76 +10341,76 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N111">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6362620</v>
+        <v>6361468</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,58 +10430,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6361468</v>
+        <v>6362620</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N113">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6361813</v>
+        <v>6362220</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6362220</v>
+        <v>6362391</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,46 +10875,46 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N117">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2</v>
@@ -10926,25 +10926,25 @@
         <v>1.8</v>
       </c>
       <c r="W117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6362391</v>
+        <v>6361813</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,10 +10964,10 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10979,46 +10979,46 @@
         <v>50</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N118">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O118">
+        <v>3.1</v>
+      </c>
+      <c r="P118">
         <v>3.2</v>
-      </c>
-      <c r="P118">
-        <v>2.75</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2</